--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang2/02.XuLyBH/XLBH2102_Techglobal.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang2/02.XuLyBH/XLBH2102_Techglobal.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065" activeTab="5"/>
+    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="TG007S" sheetId="31" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="817" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1102" uniqueCount="130">
   <si>
     <t>STT</t>
   </si>
@@ -406,6 +406,42 @@
   </si>
   <si>
     <t>LE.1.00.---05.190404</t>
+  </si>
+  <si>
+    <t>Khách không sửa thiết bị này</t>
+  </si>
+  <si>
+    <t>KS</t>
+  </si>
+  <si>
+    <t>giữ lại chờ lk thay thế</t>
+  </si>
+  <si>
+    <t>Thay diode chống quá áp, nâng cấp FW cho thiết bị</t>
+  </si>
+  <si>
+    <t>203.162.121.026,01202</t>
+  </si>
+  <si>
+    <t>Nâng cấp FW cho thiết bị</t>
+  </si>
+  <si>
+    <t>Thay module GSM cho thiết bị, nâng cấp FW</t>
+  </si>
+  <si>
+    <t>ID mới : 862846048294311</t>
+  </si>
+  <si>
+    <t>Chờ LK</t>
+  </si>
+  <si>
+    <t>ID mới : 862846048307402</t>
+  </si>
+  <si>
+    <t>Giữ lại</t>
+  </si>
+  <si>
+    <t>Không khắc phục được thiết bị</t>
   </si>
 </sst>
 </file>
@@ -814,22 +850,7 @@
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -851,6 +872,21 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1160,7 +1196,7 @@
   <dimension ref="A1:X57"/>
   <sheetViews>
     <sheetView showZeros="0" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6:E6"/>
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1192,43 +1228,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="77" t="s">
+      <c r="A1" s="72" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
-      <c r="F1" s="77"/>
-      <c r="G1" s="77"/>
-      <c r="H1" s="77"/>
-      <c r="I1" s="77"/>
-      <c r="J1" s="77"/>
-      <c r="K1" s="77"/>
-      <c r="L1" s="77"/>
-      <c r="M1" s="77"/>
-      <c r="N1" s="77"/>
-      <c r="O1" s="77"/>
-      <c r="P1" s="77"/>
-      <c r="Q1" s="77"/>
-      <c r="R1" s="77"/>
-      <c r="S1" s="77"/>
-      <c r="T1" s="77"/>
-      <c r="U1" s="77"/>
-      <c r="V1" s="77"/>
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="72"/>
+      <c r="H1" s="72"/>
+      <c r="I1" s="72"/>
+      <c r="J1" s="72"/>
+      <c r="K1" s="72"/>
+      <c r="L1" s="72"/>
+      <c r="M1" s="72"/>
+      <c r="N1" s="72"/>
+      <c r="O1" s="72"/>
+      <c r="P1" s="72"/>
+      <c r="Q1" s="72"/>
+      <c r="R1" s="72"/>
+      <c r="S1" s="72"/>
+      <c r="T1" s="72"/>
+      <c r="U1" s="72"/>
+      <c r="V1" s="72"/>
       <c r="W1" s="55"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="78" t="s">
+      <c r="A2" s="73" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="79"/>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="80" t="s">
+      <c r="B2" s="74"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="75" t="s">
         <v>61</v>
       </c>
-      <c r="F2" s="80"/>
+      <c r="F2" s="75"/>
       <c r="G2" s="6"/>
       <c r="H2" s="24"/>
       <c r="I2" s="24"/>
@@ -1273,58 +1309,58 @@
       <c r="W3" s="30"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="81" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="75" t="s">
+      <c r="A4" s="76" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="71" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="75"/>
-      <c r="D4" s="75"/>
-      <c r="E4" s="75"/>
-      <c r="F4" s="75"/>
-      <c r="G4" s="75"/>
-      <c r="H4" s="75"/>
-      <c r="I4" s="75"/>
-      <c r="J4" s="75" t="s">
+      <c r="C4" s="71"/>
+      <c r="D4" s="71"/>
+      <c r="E4" s="71"/>
+      <c r="F4" s="71"/>
+      <c r="G4" s="71"/>
+      <c r="H4" s="71"/>
+      <c r="I4" s="71"/>
+      <c r="J4" s="71" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="75" t="s">
+      <c r="K4" s="71" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="75"/>
-      <c r="M4" s="82" t="s">
+      <c r="L4" s="71"/>
+      <c r="M4" s="77" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="82" t="s">
+      <c r="N4" s="77" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="75" t="s">
+      <c r="O4" s="71" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="74" t="s">
+      <c r="P4" s="82" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="75" t="s">
+      <c r="Q4" s="71" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="75" t="s">
+      <c r="R4" s="71" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="76" t="s">
+      <c r="S4" s="83" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="30"/>
-      <c r="U4" s="75" t="s">
+      <c r="U4" s="71" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="75" t="s">
+      <c r="V4" s="71" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="56"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="81"/>
+      <c r="A5" s="76"/>
       <c r="B5" s="62" t="s">
         <v>1</v>
       </c>
@@ -1349,23 +1385,23 @@
       <c r="I5" s="62" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="75"/>
+      <c r="J5" s="71"/>
       <c r="K5" s="62" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="62" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="83"/>
-      <c r="N5" s="83"/>
-      <c r="O5" s="75"/>
-      <c r="P5" s="74"/>
-      <c r="Q5" s="75"/>
-      <c r="R5" s="75"/>
-      <c r="S5" s="76"/>
+      <c r="M5" s="78"/>
+      <c r="N5" s="78"/>
+      <c r="O5" s="71"/>
+      <c r="P5" s="82"/>
+      <c r="Q5" s="71"/>
+      <c r="R5" s="71"/>
+      <c r="S5" s="83"/>
       <c r="T5" s="30"/>
-      <c r="U5" s="75"/>
-      <c r="V5" s="75"/>
+      <c r="U5" s="71"/>
+      <c r="V5" s="71"/>
       <c r="W5" s="56"/>
     </row>
     <row r="6" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1375,7 +1411,9 @@
       <c r="B6" s="42">
         <v>44253</v>
       </c>
-      <c r="C6" s="42"/>
+      <c r="C6" s="42">
+        <v>44264</v>
+      </c>
       <c r="D6" s="43" t="s">
         <v>67</v>
       </c>
@@ -1399,15 +1437,27 @@
       <c r="L6" s="45" t="s">
         <v>97</v>
       </c>
-      <c r="M6" s="45"/>
-      <c r="N6" s="47"/>
-      <c r="O6" s="45"/>
-      <c r="P6" s="45"/>
-      <c r="Q6" s="3"/>
-      <c r="R6" s="43"/>
+      <c r="M6" s="45" t="s">
+        <v>121</v>
+      </c>
+      <c r="N6" s="47">
+        <v>10000</v>
+      </c>
+      <c r="O6" s="45" t="s">
+        <v>87</v>
+      </c>
+      <c r="P6" s="45" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="R6" s="43" t="s">
+        <v>31</v>
+      </c>
       <c r="S6" s="4"/>
       <c r="T6" s="61"/>
-      <c r="U6" s="71" t="s">
+      <c r="U6" s="79" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -1422,7 +1472,9 @@
       <c r="B7" s="42">
         <v>44253</v>
       </c>
-      <c r="C7" s="42"/>
+      <c r="C7" s="42">
+        <v>44264</v>
+      </c>
       <c r="D7" s="43" t="s">
         <v>67</v>
       </c>
@@ -1433,7 +1485,9 @@
       <c r="G7" s="43" t="s">
         <v>64</v>
       </c>
-      <c r="H7" s="43"/>
+      <c r="H7" s="43" t="s">
+        <v>125</v>
+      </c>
       <c r="I7" s="60" t="s">
         <v>96</v>
       </c>
@@ -1447,16 +1501,26 @@
         <v>97</v>
       </c>
       <c r="M7" s="45" t="s">
-        <v>98</v>
-      </c>
-      <c r="N7" s="3"/>
-      <c r="O7" s="45"/>
-      <c r="P7" s="45"/>
-      <c r="Q7" s="3"/>
-      <c r="R7" s="43"/>
+        <v>124</v>
+      </c>
+      <c r="N7" s="3">
+        <v>220000</v>
+      </c>
+      <c r="O7" s="45" t="s">
+        <v>87</v>
+      </c>
+      <c r="P7" s="45" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q7" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="R7" s="43" t="s">
+        <v>35</v>
+      </c>
       <c r="S7" s="4"/>
       <c r="T7" s="61"/>
-      <c r="U7" s="72"/>
+      <c r="U7" s="80"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -1485,7 +1549,7 @@
       <c r="R8" s="43"/>
       <c r="S8" s="4"/>
       <c r="T8" s="61"/>
-      <c r="U8" s="72"/>
+      <c r="U8" s="80"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -1514,7 +1578,7 @@
       <c r="R9" s="43"/>
       <c r="S9" s="4"/>
       <c r="T9" s="61"/>
-      <c r="U9" s="72"/>
+      <c r="U9" s="80"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -1543,7 +1607,7 @@
       <c r="R10" s="43"/>
       <c r="S10" s="4"/>
       <c r="T10" s="61"/>
-      <c r="U10" s="72"/>
+      <c r="U10" s="80"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -1572,7 +1636,7 @@
       <c r="R11" s="43"/>
       <c r="S11" s="4"/>
       <c r="T11" s="61"/>
-      <c r="U11" s="72"/>
+      <c r="U11" s="80"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -1601,7 +1665,7 @@
       <c r="R12" s="43"/>
       <c r="S12" s="4"/>
       <c r="T12" s="61"/>
-      <c r="U12" s="71" t="s">
+      <c r="U12" s="79" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -1632,7 +1696,7 @@
       <c r="R13" s="11"/>
       <c r="S13" s="4"/>
       <c r="T13" s="61"/>
-      <c r="U13" s="72"/>
+      <c r="U13" s="80"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -1661,7 +1725,7 @@
       <c r="R14" s="43"/>
       <c r="S14" s="4"/>
       <c r="T14" s="61"/>
-      <c r="U14" s="72"/>
+      <c r="U14" s="80"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -1690,7 +1754,7 @@
       <c r="R15" s="43"/>
       <c r="S15" s="4"/>
       <c r="T15" s="16"/>
-      <c r="U15" s="72"/>
+      <c r="U15" s="80"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -1719,7 +1783,7 @@
       <c r="R16" s="43"/>
       <c r="S16" s="4"/>
       <c r="T16" s="16"/>
-      <c r="U16" s="73"/>
+      <c r="U16" s="81"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -1870,7 +1934,7 @@
       </c>
       <c r="V21" s="11">
         <f>COUNTIF($Q$6:$Q$51,"PC")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W21" s="16"/>
     </row>
@@ -2051,7 +2115,7 @@
       </c>
       <c r="V27" s="11">
         <f>COUNTIF($R$6:$R$51,"*GSM*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W27" s="16"/>
     </row>
@@ -2115,7 +2179,7 @@
       </c>
       <c r="V29" s="11">
         <f>COUNTIF($R$6:$R$51,"*NG*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W29" s="16"/>
     </row>
@@ -2371,7 +2435,7 @@
       </c>
       <c r="V37" s="11">
         <f>SUM(V26:V36)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W37" s="16"/>
     </row>
@@ -2950,6 +3014,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -2961,13 +3032,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2979,7 +3043,7 @@
   <dimension ref="A1:X57"/>
   <sheetViews>
     <sheetView showZeros="0" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3011,43 +3075,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="77" t="s">
+      <c r="A1" s="72" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
-      <c r="F1" s="77"/>
-      <c r="G1" s="77"/>
-      <c r="H1" s="77"/>
-      <c r="I1" s="77"/>
-      <c r="J1" s="77"/>
-      <c r="K1" s="77"/>
-      <c r="L1" s="77"/>
-      <c r="M1" s="77"/>
-      <c r="N1" s="77"/>
-      <c r="O1" s="77"/>
-      <c r="P1" s="77"/>
-      <c r="Q1" s="77"/>
-      <c r="R1" s="77"/>
-      <c r="S1" s="77"/>
-      <c r="T1" s="77"/>
-      <c r="U1" s="77"/>
-      <c r="V1" s="77"/>
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="72"/>
+      <c r="H1" s="72"/>
+      <c r="I1" s="72"/>
+      <c r="J1" s="72"/>
+      <c r="K1" s="72"/>
+      <c r="L1" s="72"/>
+      <c r="M1" s="72"/>
+      <c r="N1" s="72"/>
+      <c r="O1" s="72"/>
+      <c r="P1" s="72"/>
+      <c r="Q1" s="72"/>
+      <c r="R1" s="72"/>
+      <c r="S1" s="72"/>
+      <c r="T1" s="72"/>
+      <c r="U1" s="72"/>
+      <c r="V1" s="72"/>
       <c r="W1" s="55"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="78" t="s">
+      <c r="A2" s="73" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="79"/>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="80" t="s">
+      <c r="B2" s="74"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="75" t="s">
         <v>61</v>
       </c>
-      <c r="F2" s="80"/>
+      <c r="F2" s="75"/>
       <c r="G2" s="6"/>
       <c r="H2" s="24"/>
       <c r="I2" s="24"/>
@@ -3092,58 +3156,58 @@
       <c r="W3" s="30"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="81" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="75" t="s">
+      <c r="A4" s="76" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="71" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="75"/>
-      <c r="D4" s="75"/>
-      <c r="E4" s="75"/>
-      <c r="F4" s="75"/>
-      <c r="G4" s="75"/>
-      <c r="H4" s="75"/>
-      <c r="I4" s="75"/>
-      <c r="J4" s="75" t="s">
+      <c r="C4" s="71"/>
+      <c r="D4" s="71"/>
+      <c r="E4" s="71"/>
+      <c r="F4" s="71"/>
+      <c r="G4" s="71"/>
+      <c r="H4" s="71"/>
+      <c r="I4" s="71"/>
+      <c r="J4" s="71" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="75" t="s">
+      <c r="K4" s="71" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="75"/>
-      <c r="M4" s="82" t="s">
+      <c r="L4" s="71"/>
+      <c r="M4" s="77" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="82" t="s">
+      <c r="N4" s="77" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="75" t="s">
+      <c r="O4" s="71" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="74" t="s">
+      <c r="P4" s="82" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="75" t="s">
+      <c r="Q4" s="71" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="75" t="s">
+      <c r="R4" s="71" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="76" t="s">
+      <c r="S4" s="83" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="30"/>
-      <c r="U4" s="75" t="s">
+      <c r="U4" s="71" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="75" t="s">
+      <c r="V4" s="71" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="56"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="81"/>
+      <c r="A5" s="76"/>
       <c r="B5" s="5" t="s">
         <v>1</v>
       </c>
@@ -3168,23 +3232,23 @@
       <c r="I5" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="75"/>
+      <c r="J5" s="71"/>
       <c r="K5" s="5" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="83"/>
-      <c r="N5" s="83"/>
-      <c r="O5" s="75"/>
-      <c r="P5" s="74"/>
-      <c r="Q5" s="75"/>
-      <c r="R5" s="75"/>
-      <c r="S5" s="76"/>
+      <c r="M5" s="78"/>
+      <c r="N5" s="78"/>
+      <c r="O5" s="71"/>
+      <c r="P5" s="82"/>
+      <c r="Q5" s="71"/>
+      <c r="R5" s="71"/>
+      <c r="S5" s="83"/>
       <c r="T5" s="30"/>
-      <c r="U5" s="75"/>
-      <c r="V5" s="75"/>
+      <c r="U5" s="71"/>
+      <c r="V5" s="71"/>
       <c r="W5" s="56"/>
     </row>
     <row r="6" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3194,7 +3258,9 @@
       <c r="B6" s="42">
         <v>44253</v>
       </c>
-      <c r="C6" s="42"/>
+      <c r="C6" s="42">
+        <v>44264</v>
+      </c>
       <c r="D6" s="43" t="s">
         <v>44</v>
       </c>
@@ -3206,19 +3272,33 @@
         <v>64</v>
       </c>
       <c r="H6" s="43"/>
-      <c r="I6" s="59"/>
+      <c r="I6" s="59" t="s">
+        <v>122</v>
+      </c>
       <c r="J6" s="45"/>
       <c r="K6" s="48"/>
-      <c r="L6" s="45"/>
-      <c r="M6" s="45"/>
+      <c r="L6" s="45" t="s">
+        <v>78</v>
+      </c>
+      <c r="M6" s="45" t="s">
+        <v>123</v>
+      </c>
       <c r="N6" s="47"/>
-      <c r="O6" s="45"/>
-      <c r="P6" s="45"/>
-      <c r="Q6" s="3"/>
-      <c r="R6" s="43"/>
+      <c r="O6" s="45" t="s">
+        <v>87</v>
+      </c>
+      <c r="P6" s="45" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R6" s="43" t="s">
+        <v>24</v>
+      </c>
       <c r="S6" s="4"/>
       <c r="T6" s="13"/>
-      <c r="U6" s="71" t="s">
+      <c r="U6" s="79" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -3249,7 +3329,7 @@
       <c r="R7" s="43"/>
       <c r="S7" s="4"/>
       <c r="T7" s="13"/>
-      <c r="U7" s="72"/>
+      <c r="U7" s="80"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -3278,7 +3358,7 @@
       <c r="R8" s="43"/>
       <c r="S8" s="4"/>
       <c r="T8" s="13"/>
-      <c r="U8" s="72"/>
+      <c r="U8" s="80"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -3307,7 +3387,7 @@
       <c r="R9" s="43"/>
       <c r="S9" s="4"/>
       <c r="T9" s="23"/>
-      <c r="U9" s="72"/>
+      <c r="U9" s="80"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -3336,7 +3416,7 @@
       <c r="R10" s="43"/>
       <c r="S10" s="4"/>
       <c r="T10" s="32"/>
-      <c r="U10" s="72"/>
+      <c r="U10" s="80"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -3365,7 +3445,7 @@
       <c r="R11" s="43"/>
       <c r="S11" s="4"/>
       <c r="T11" s="13"/>
-      <c r="U11" s="72"/>
+      <c r="U11" s="80"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -3394,7 +3474,7 @@
       <c r="R12" s="43"/>
       <c r="S12" s="4"/>
       <c r="T12" s="13"/>
-      <c r="U12" s="71" t="s">
+      <c r="U12" s="79" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -3425,7 +3505,7 @@
       <c r="R13" s="11"/>
       <c r="S13" s="4"/>
       <c r="T13" s="13"/>
-      <c r="U13" s="72"/>
+      <c r="U13" s="80"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -3454,7 +3534,7 @@
       <c r="R14" s="43"/>
       <c r="S14" s="4"/>
       <c r="T14" s="13"/>
-      <c r="U14" s="72"/>
+      <c r="U14" s="80"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -3483,7 +3563,7 @@
       <c r="R15" s="43"/>
       <c r="S15" s="4"/>
       <c r="T15" s="16"/>
-      <c r="U15" s="72"/>
+      <c r="U15" s="80"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -3512,7 +3592,7 @@
       <c r="R16" s="43"/>
       <c r="S16" s="4"/>
       <c r="T16" s="16"/>
-      <c r="U16" s="73"/>
+      <c r="U16" s="81"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -3631,7 +3711,7 @@
       </c>
       <c r="V20" s="11">
         <f>COUNTIF($Q$6:$Q$51,"PM")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W20" s="16"/>
     </row>
@@ -4100,7 +4180,7 @@
       </c>
       <c r="V35" s="11">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W35" s="16"/>
     </row>
@@ -4164,7 +4244,7 @@
       </c>
       <c r="V37" s="11">
         <f>SUM(V26:V36)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W37" s="16"/>
     </row>
@@ -4743,6 +4823,11 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="K4:L4"/>
     <mergeCell ref="O4:O5"/>
     <mergeCell ref="P4:P5"/>
@@ -4756,11 +4841,6 @@
     <mergeCell ref="B4:I4"/>
     <mergeCell ref="J4:J5"/>
     <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4771,8 +4851,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView showZeros="0" tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4804,43 +4884,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="77" t="s">
+      <c r="A1" s="72" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
-      <c r="F1" s="77"/>
-      <c r="G1" s="77"/>
-      <c r="H1" s="77"/>
-      <c r="I1" s="77"/>
-      <c r="J1" s="77"/>
-      <c r="K1" s="77"/>
-      <c r="L1" s="77"/>
-      <c r="M1" s="77"/>
-      <c r="N1" s="77"/>
-      <c r="O1" s="77"/>
-      <c r="P1" s="77"/>
-      <c r="Q1" s="77"/>
-      <c r="R1" s="77"/>
-      <c r="S1" s="77"/>
-      <c r="T1" s="77"/>
-      <c r="U1" s="77"/>
-      <c r="V1" s="77"/>
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="72"/>
+      <c r="H1" s="72"/>
+      <c r="I1" s="72"/>
+      <c r="J1" s="72"/>
+      <c r="K1" s="72"/>
+      <c r="L1" s="72"/>
+      <c r="M1" s="72"/>
+      <c r="N1" s="72"/>
+      <c r="O1" s="72"/>
+      <c r="P1" s="72"/>
+      <c r="Q1" s="72"/>
+      <c r="R1" s="72"/>
+      <c r="S1" s="72"/>
+      <c r="T1" s="72"/>
+      <c r="U1" s="72"/>
+      <c r="V1" s="72"/>
       <c r="W1" s="55"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="78" t="s">
+      <c r="A2" s="73" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="79"/>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="80" t="s">
+      <c r="B2" s="74"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="75" t="s">
         <v>61</v>
       </c>
-      <c r="F2" s="80"/>
+      <c r="F2" s="75"/>
       <c r="G2" s="6"/>
       <c r="H2" s="24"/>
       <c r="I2" s="24"/>
@@ -4885,58 +4965,58 @@
       <c r="W3" s="30"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="81" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="75" t="s">
+      <c r="A4" s="76" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="71" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="75"/>
-      <c r="D4" s="75"/>
-      <c r="E4" s="75"/>
-      <c r="F4" s="75"/>
-      <c r="G4" s="75"/>
-      <c r="H4" s="75"/>
-      <c r="I4" s="75"/>
-      <c r="J4" s="75" t="s">
+      <c r="C4" s="71"/>
+      <c r="D4" s="71"/>
+      <c r="E4" s="71"/>
+      <c r="F4" s="71"/>
+      <c r="G4" s="71"/>
+      <c r="H4" s="71"/>
+      <c r="I4" s="71"/>
+      <c r="J4" s="71" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="75" t="s">
+      <c r="K4" s="71" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="75"/>
-      <c r="M4" s="82" t="s">
+      <c r="L4" s="71"/>
+      <c r="M4" s="77" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="82" t="s">
+      <c r="N4" s="77" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="75" t="s">
+      <c r="O4" s="71" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="74" t="s">
+      <c r="P4" s="82" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="75" t="s">
+      <c r="Q4" s="71" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="75" t="s">
+      <c r="R4" s="71" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="76" t="s">
+      <c r="S4" s="83" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="30"/>
-      <c r="U4" s="75" t="s">
+      <c r="U4" s="71" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="75" t="s">
+      <c r="V4" s="71" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="56"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="81"/>
+      <c r="A5" s="76"/>
       <c r="B5" s="62" t="s">
         <v>1</v>
       </c>
@@ -4961,23 +5041,23 @@
       <c r="I5" s="62" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="75"/>
+      <c r="J5" s="71"/>
       <c r="K5" s="62" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="62" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="83"/>
-      <c r="N5" s="83"/>
-      <c r="O5" s="75"/>
-      <c r="P5" s="74"/>
-      <c r="Q5" s="75"/>
-      <c r="R5" s="75"/>
-      <c r="S5" s="76"/>
+      <c r="M5" s="78"/>
+      <c r="N5" s="78"/>
+      <c r="O5" s="71"/>
+      <c r="P5" s="82"/>
+      <c r="Q5" s="71"/>
+      <c r="R5" s="71"/>
+      <c r="S5" s="83"/>
       <c r="T5" s="30"/>
-      <c r="U5" s="75"/>
-      <c r="V5" s="75"/>
+      <c r="U5" s="71"/>
+      <c r="V5" s="71"/>
       <c r="W5" s="56"/>
     </row>
     <row r="6" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -4987,7 +5067,9 @@
       <c r="B6" s="42">
         <v>44253</v>
       </c>
-      <c r="C6" s="42"/>
+      <c r="C6" s="42">
+        <v>44264</v>
+      </c>
       <c r="D6" s="43" t="s">
         <v>72</v>
       </c>
@@ -5003,15 +5085,25 @@
       <c r="J6" s="45"/>
       <c r="K6" s="48"/>
       <c r="L6" s="45"/>
-      <c r="M6" s="45"/>
+      <c r="M6" s="45" t="s">
+        <v>129</v>
+      </c>
       <c r="N6" s="47"/>
-      <c r="O6" s="45"/>
-      <c r="P6" s="45"/>
-      <c r="Q6" s="3"/>
-      <c r="R6" s="43"/>
+      <c r="O6" s="45" t="s">
+        <v>119</v>
+      </c>
+      <c r="P6" s="45" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="R6" s="43" t="s">
+        <v>30</v>
+      </c>
       <c r="S6" s="4"/>
       <c r="T6" s="61"/>
-      <c r="U6" s="71" t="s">
+      <c r="U6" s="79" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -5042,7 +5134,7 @@
       <c r="R7" s="43"/>
       <c r="S7" s="4"/>
       <c r="T7" s="61"/>
-      <c r="U7" s="72"/>
+      <c r="U7" s="80"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -5071,7 +5163,7 @@
       <c r="R8" s="43"/>
       <c r="S8" s="4"/>
       <c r="T8" s="61"/>
-      <c r="U8" s="72"/>
+      <c r="U8" s="80"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -5100,7 +5192,7 @@
       <c r="R9" s="43"/>
       <c r="S9" s="4"/>
       <c r="T9" s="61"/>
-      <c r="U9" s="72"/>
+      <c r="U9" s="80"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -5129,7 +5221,7 @@
       <c r="R10" s="43"/>
       <c r="S10" s="4"/>
       <c r="T10" s="61"/>
-      <c r="U10" s="72"/>
+      <c r="U10" s="80"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -5158,7 +5250,7 @@
       <c r="R11" s="43"/>
       <c r="S11" s="4"/>
       <c r="T11" s="61"/>
-      <c r="U11" s="72"/>
+      <c r="U11" s="80"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -5187,7 +5279,7 @@
       <c r="R12" s="43"/>
       <c r="S12" s="4"/>
       <c r="T12" s="61"/>
-      <c r="U12" s="71" t="s">
+      <c r="U12" s="79" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -5218,7 +5310,7 @@
       <c r="R13" s="11"/>
       <c r="S13" s="4"/>
       <c r="T13" s="61"/>
-      <c r="U13" s="72"/>
+      <c r="U13" s="80"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -5247,7 +5339,7 @@
       <c r="R14" s="43"/>
       <c r="S14" s="4"/>
       <c r="T14" s="61"/>
-      <c r="U14" s="72"/>
+      <c r="U14" s="80"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -5276,7 +5368,7 @@
       <c r="R15" s="43"/>
       <c r="S15" s="4"/>
       <c r="T15" s="16"/>
-      <c r="U15" s="72"/>
+      <c r="U15" s="80"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -5305,7 +5397,7 @@
       <c r="R16" s="43"/>
       <c r="S16" s="4"/>
       <c r="T16" s="16"/>
-      <c r="U16" s="73"/>
+      <c r="U16" s="81"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -5456,7 +5548,7 @@
       </c>
       <c r="V21" s="11">
         <f>COUNTIF($Q$6:$Q$51,"PC")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W21" s="16"/>
     </row>
@@ -5765,7 +5857,7 @@
       </c>
       <c r="V31" s="11">
         <f>COUNTIF($R$6:$R$51,"*LK*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W31" s="16"/>
     </row>
@@ -5957,7 +6049,7 @@
       </c>
       <c r="V37" s="11">
         <f>SUM(V26:V36)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W37" s="16"/>
     </row>
@@ -6075,7 +6167,7 @@
       </c>
       <c r="V41" s="11">
         <f>COUNTIF($O$6:$O$51,"*KS*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W41" s="16"/>
     </row>
@@ -6536,6 +6628,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -6547,13 +6646,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -6565,7 +6657,7 @@
   <dimension ref="A1:X57"/>
   <sheetViews>
     <sheetView showZeros="0" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7:E7"/>
+      <selection activeCell="J7" sqref="J6:J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -6597,43 +6689,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="77" t="s">
+      <c r="A1" s="72" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
-      <c r="F1" s="77"/>
-      <c r="G1" s="77"/>
-      <c r="H1" s="77"/>
-      <c r="I1" s="77"/>
-      <c r="J1" s="77"/>
-      <c r="K1" s="77"/>
-      <c r="L1" s="77"/>
-      <c r="M1" s="77"/>
-      <c r="N1" s="77"/>
-      <c r="O1" s="77"/>
-      <c r="P1" s="77"/>
-      <c r="Q1" s="77"/>
-      <c r="R1" s="77"/>
-      <c r="S1" s="77"/>
-      <c r="T1" s="77"/>
-      <c r="U1" s="77"/>
-      <c r="V1" s="77"/>
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="72"/>
+      <c r="H1" s="72"/>
+      <c r="I1" s="72"/>
+      <c r="J1" s="72"/>
+      <c r="K1" s="72"/>
+      <c r="L1" s="72"/>
+      <c r="M1" s="72"/>
+      <c r="N1" s="72"/>
+      <c r="O1" s="72"/>
+      <c r="P1" s="72"/>
+      <c r="Q1" s="72"/>
+      <c r="R1" s="72"/>
+      <c r="S1" s="72"/>
+      <c r="T1" s="72"/>
+      <c r="U1" s="72"/>
+      <c r="V1" s="72"/>
       <c r="W1" s="55"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="78" t="s">
+      <c r="A2" s="73" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="79"/>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="80" t="s">
+      <c r="B2" s="74"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="75" t="s">
         <v>61</v>
       </c>
-      <c r="F2" s="80"/>
+      <c r="F2" s="75"/>
       <c r="G2" s="6"/>
       <c r="H2" s="24"/>
       <c r="I2" s="24"/>
@@ -6678,58 +6770,58 @@
       <c r="W3" s="30"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="81" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="75" t="s">
+      <c r="A4" s="76" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="71" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="75"/>
-      <c r="D4" s="75"/>
-      <c r="E4" s="75"/>
-      <c r="F4" s="75"/>
-      <c r="G4" s="75"/>
-      <c r="H4" s="75"/>
-      <c r="I4" s="75"/>
-      <c r="J4" s="75" t="s">
+      <c r="C4" s="71"/>
+      <c r="D4" s="71"/>
+      <c r="E4" s="71"/>
+      <c r="F4" s="71"/>
+      <c r="G4" s="71"/>
+      <c r="H4" s="71"/>
+      <c r="I4" s="71"/>
+      <c r="J4" s="71" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="75" t="s">
+      <c r="K4" s="71" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="75"/>
-      <c r="M4" s="82" t="s">
+      <c r="L4" s="71"/>
+      <c r="M4" s="77" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="82" t="s">
+      <c r="N4" s="77" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="75" t="s">
+      <c r="O4" s="71" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="74" t="s">
+      <c r="P4" s="82" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="75" t="s">
+      <c r="Q4" s="71" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="75" t="s">
+      <c r="R4" s="71" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="76" t="s">
+      <c r="S4" s="83" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="30"/>
-      <c r="U4" s="75" t="s">
+      <c r="U4" s="71" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="75" t="s">
+      <c r="V4" s="71" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="56"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="81"/>
+      <c r="A5" s="76"/>
       <c r="B5" s="62" t="s">
         <v>1</v>
       </c>
@@ -6754,23 +6846,23 @@
       <c r="I5" s="62" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="75"/>
+      <c r="J5" s="71"/>
       <c r="K5" s="62" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="62" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="83"/>
-      <c r="N5" s="83"/>
-      <c r="O5" s="75"/>
-      <c r="P5" s="74"/>
-      <c r="Q5" s="75"/>
-      <c r="R5" s="75"/>
-      <c r="S5" s="76"/>
+      <c r="M5" s="78"/>
+      <c r="N5" s="78"/>
+      <c r="O5" s="71"/>
+      <c r="P5" s="82"/>
+      <c r="Q5" s="71"/>
+      <c r="R5" s="71"/>
+      <c r="S5" s="83"/>
       <c r="T5" s="30"/>
-      <c r="U5" s="75"/>
-      <c r="V5" s="75"/>
+      <c r="U5" s="71"/>
+      <c r="V5" s="71"/>
       <c r="W5" s="56"/>
     </row>
     <row r="6" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -6802,15 +6894,23 @@
       <c r="L6" s="45" t="s">
         <v>103</v>
       </c>
-      <c r="M6" s="45"/>
+      <c r="M6" s="45" t="s">
+        <v>126</v>
+      </c>
       <c r="N6" s="47"/>
       <c r="O6" s="45"/>
-      <c r="P6" s="45"/>
-      <c r="Q6" s="3"/>
-      <c r="R6" s="43"/>
+      <c r="P6" s="45" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="R6" s="43" t="s">
+        <v>21</v>
+      </c>
       <c r="S6" s="4"/>
       <c r="T6" s="61"/>
-      <c r="U6" s="71" t="s">
+      <c r="U6" s="79" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -6825,7 +6925,9 @@
       <c r="B7" s="42">
         <v>44253</v>
       </c>
-      <c r="C7" s="42"/>
+      <c r="C7" s="42">
+        <v>44264</v>
+      </c>
       <c r="D7" s="43" t="s">
         <v>65</v>
       </c>
@@ -6843,15 +6945,25 @@
       </c>
       <c r="K7" s="1"/>
       <c r="L7" s="45"/>
-      <c r="M7" s="45"/>
-      <c r="N7" s="3"/>
-      <c r="O7" s="45"/>
-      <c r="P7" s="45"/>
-      <c r="Q7" s="3"/>
-      <c r="R7" s="43"/>
+      <c r="M7" s="45" t="s">
+        <v>118</v>
+      </c>
+      <c r="N7" s="1"/>
+      <c r="O7" s="45" t="s">
+        <v>119</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q7" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="R7" s="43" t="s">
+        <v>31</v>
+      </c>
       <c r="S7" s="4"/>
       <c r="T7" s="61"/>
-      <c r="U7" s="72"/>
+      <c r="U7" s="80"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -6880,7 +6992,7 @@
       <c r="R8" s="43"/>
       <c r="S8" s="4"/>
       <c r="T8" s="61"/>
-      <c r="U8" s="72"/>
+      <c r="U8" s="80"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -6909,7 +7021,7 @@
       <c r="R9" s="43"/>
       <c r="S9" s="4"/>
       <c r="T9" s="61"/>
-      <c r="U9" s="72"/>
+      <c r="U9" s="80"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -6938,7 +7050,7 @@
       <c r="R10" s="43"/>
       <c r="S10" s="4"/>
       <c r="T10" s="61"/>
-      <c r="U10" s="72"/>
+      <c r="U10" s="80"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -6967,7 +7079,7 @@
       <c r="R11" s="43"/>
       <c r="S11" s="4"/>
       <c r="T11" s="61"/>
-      <c r="U11" s="72"/>
+      <c r="U11" s="80"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -6996,7 +7108,7 @@
       <c r="R12" s="43"/>
       <c r="S12" s="4"/>
       <c r="T12" s="61"/>
-      <c r="U12" s="71" t="s">
+      <c r="U12" s="79" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -7027,7 +7139,7 @@
       <c r="R13" s="11"/>
       <c r="S13" s="4"/>
       <c r="T13" s="61"/>
-      <c r="U13" s="72"/>
+      <c r="U13" s="80"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -7056,7 +7168,7 @@
       <c r="R14" s="43"/>
       <c r="S14" s="4"/>
       <c r="T14" s="61"/>
-      <c r="U14" s="72"/>
+      <c r="U14" s="80"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -7085,7 +7197,7 @@
       <c r="R15" s="43"/>
       <c r="S15" s="4"/>
       <c r="T15" s="16"/>
-      <c r="U15" s="72"/>
+      <c r="U15" s="80"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -7114,7 +7226,7 @@
       <c r="R16" s="43"/>
       <c r="S16" s="4"/>
       <c r="T16" s="16"/>
-      <c r="U16" s="73"/>
+      <c r="U16" s="81"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -7265,7 +7377,7 @@
       </c>
       <c r="V21" s="11">
         <f>COUNTIF($Q$6:$Q$51,"PC")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W21" s="16"/>
     </row>
@@ -7478,7 +7590,7 @@
       </c>
       <c r="V28" s="11">
         <f>COUNTIF($R$6:$R$51,"*GPS*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W28" s="16"/>
     </row>
@@ -7510,7 +7622,7 @@
       </c>
       <c r="V29" s="11">
         <f>COUNTIF($R$6:$R$51,"*NG*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W29" s="16"/>
     </row>
@@ -7766,7 +7878,7 @@
       </c>
       <c r="V37" s="11">
         <f>SUM(V26:V36)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W37" s="16"/>
     </row>
@@ -7884,7 +7996,7 @@
       </c>
       <c r="V41" s="11">
         <f>COUNTIF($O$6:$O$51,"*KS*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W41" s="16"/>
     </row>
@@ -8345,6 +8457,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -8356,13 +8475,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -8374,7 +8486,7 @@
   <dimension ref="A1:X57"/>
   <sheetViews>
     <sheetView showZeros="0" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="I33" sqref="I33"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -8406,43 +8518,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="77" t="s">
+      <c r="A1" s="72" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
-      <c r="F1" s="77"/>
-      <c r="G1" s="77"/>
-      <c r="H1" s="77"/>
-      <c r="I1" s="77"/>
-      <c r="J1" s="77"/>
-      <c r="K1" s="77"/>
-      <c r="L1" s="77"/>
-      <c r="M1" s="77"/>
-      <c r="N1" s="77"/>
-      <c r="O1" s="77"/>
-      <c r="P1" s="77"/>
-      <c r="Q1" s="77"/>
-      <c r="R1" s="77"/>
-      <c r="S1" s="77"/>
-      <c r="T1" s="77"/>
-      <c r="U1" s="77"/>
-      <c r="V1" s="77"/>
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="72"/>
+      <c r="H1" s="72"/>
+      <c r="I1" s="72"/>
+      <c r="J1" s="72"/>
+      <c r="K1" s="72"/>
+      <c r="L1" s="72"/>
+      <c r="M1" s="72"/>
+      <c r="N1" s="72"/>
+      <c r="O1" s="72"/>
+      <c r="P1" s="72"/>
+      <c r="Q1" s="72"/>
+      <c r="R1" s="72"/>
+      <c r="S1" s="72"/>
+      <c r="T1" s="72"/>
+      <c r="U1" s="72"/>
+      <c r="V1" s="72"/>
       <c r="W1" s="55"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="78" t="s">
+      <c r="A2" s="73" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="79"/>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="80" t="s">
+      <c r="B2" s="74"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="75" t="s">
         <v>61</v>
       </c>
-      <c r="F2" s="80"/>
+      <c r="F2" s="75"/>
       <c r="G2" s="6"/>
       <c r="H2" s="24"/>
       <c r="I2" s="24"/>
@@ -8487,58 +8599,58 @@
       <c r="W3" s="30"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="81" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="75" t="s">
+      <c r="A4" s="76" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="71" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="75"/>
-      <c r="D4" s="75"/>
-      <c r="E4" s="75"/>
-      <c r="F4" s="75"/>
-      <c r="G4" s="75"/>
-      <c r="H4" s="75"/>
-      <c r="I4" s="75"/>
-      <c r="J4" s="75" t="s">
+      <c r="C4" s="71"/>
+      <c r="D4" s="71"/>
+      <c r="E4" s="71"/>
+      <c r="F4" s="71"/>
+      <c r="G4" s="71"/>
+      <c r="H4" s="71"/>
+      <c r="I4" s="71"/>
+      <c r="J4" s="71" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="75" t="s">
+      <c r="K4" s="71" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="75"/>
-      <c r="M4" s="82" t="s">
+      <c r="L4" s="71"/>
+      <c r="M4" s="77" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="82" t="s">
+      <c r="N4" s="77" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="75" t="s">
+      <c r="O4" s="71" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="74" t="s">
+      <c r="P4" s="82" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="75" t="s">
+      <c r="Q4" s="71" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="75" t="s">
+      <c r="R4" s="71" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="76" t="s">
+      <c r="S4" s="83" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="30"/>
-      <c r="U4" s="75" t="s">
+      <c r="U4" s="71" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="75" t="s">
+      <c r="V4" s="71" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="56"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="81"/>
+      <c r="A5" s="76"/>
       <c r="B5" s="62" t="s">
         <v>1</v>
       </c>
@@ -8563,23 +8675,23 @@
       <c r="I5" s="62" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="75"/>
+      <c r="J5" s="71"/>
       <c r="K5" s="62" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="62" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="83"/>
-      <c r="N5" s="83"/>
-      <c r="O5" s="75"/>
-      <c r="P5" s="74"/>
-      <c r="Q5" s="75"/>
-      <c r="R5" s="75"/>
-      <c r="S5" s="76"/>
+      <c r="M5" s="78"/>
+      <c r="N5" s="78"/>
+      <c r="O5" s="71"/>
+      <c r="P5" s="82"/>
+      <c r="Q5" s="71"/>
+      <c r="R5" s="71"/>
+      <c r="S5" s="83"/>
       <c r="T5" s="30"/>
-      <c r="U5" s="75"/>
-      <c r="V5" s="75"/>
+      <c r="U5" s="71"/>
+      <c r="V5" s="71"/>
       <c r="W5" s="56"/>
     </row>
     <row r="6" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -8607,15 +8719,23 @@
       </c>
       <c r="K6" s="48"/>
       <c r="L6" s="45"/>
-      <c r="M6" s="45"/>
+      <c r="M6" s="45" t="s">
+        <v>128</v>
+      </c>
       <c r="N6" s="47"/>
       <c r="O6" s="45"/>
-      <c r="P6" s="45"/>
-      <c r="Q6" s="3"/>
-      <c r="R6" s="43"/>
+      <c r="P6" s="45" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="R6" s="43" t="s">
+        <v>21</v>
+      </c>
       <c r="S6" s="4"/>
       <c r="T6" s="61"/>
-      <c r="U6" s="71" t="s">
+      <c r="U6" s="79" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -8646,7 +8766,7 @@
       <c r="R7" s="43"/>
       <c r="S7" s="4"/>
       <c r="T7" s="61"/>
-      <c r="U7" s="72"/>
+      <c r="U7" s="80"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -8675,7 +8795,7 @@
       <c r="R8" s="43"/>
       <c r="S8" s="4"/>
       <c r="T8" s="61"/>
-      <c r="U8" s="72"/>
+      <c r="U8" s="80"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -8704,7 +8824,7 @@
       <c r="R9" s="43"/>
       <c r="S9" s="4"/>
       <c r="T9" s="61"/>
-      <c r="U9" s="72"/>
+      <c r="U9" s="80"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -8733,7 +8853,7 @@
       <c r="R10" s="43"/>
       <c r="S10" s="4"/>
       <c r="T10" s="61"/>
-      <c r="U10" s="72"/>
+      <c r="U10" s="80"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -8762,7 +8882,7 @@
       <c r="R11" s="43"/>
       <c r="S11" s="4"/>
       <c r="T11" s="61"/>
-      <c r="U11" s="72"/>
+      <c r="U11" s="80"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -8791,7 +8911,7 @@
       <c r="R12" s="43"/>
       <c r="S12" s="4"/>
       <c r="T12" s="61"/>
-      <c r="U12" s="71" t="s">
+      <c r="U12" s="79" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -8822,7 +8942,7 @@
       <c r="R13" s="11"/>
       <c r="S13" s="4"/>
       <c r="T13" s="61"/>
-      <c r="U13" s="72"/>
+      <c r="U13" s="80"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -8851,7 +8971,7 @@
       <c r="R14" s="43"/>
       <c r="S14" s="4"/>
       <c r="T14" s="61"/>
-      <c r="U14" s="72"/>
+      <c r="U14" s="80"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -8880,7 +9000,7 @@
       <c r="R15" s="43"/>
       <c r="S15" s="4"/>
       <c r="T15" s="16"/>
-      <c r="U15" s="72"/>
+      <c r="U15" s="80"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -8909,7 +9029,7 @@
       <c r="R16" s="43"/>
       <c r="S16" s="4"/>
       <c r="T16" s="16"/>
-      <c r="U16" s="73"/>
+      <c r="U16" s="81"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -9060,7 +9180,7 @@
       </c>
       <c r="V21" s="11">
         <f>COUNTIF($Q$6:$Q$51,"PC")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W21" s="16"/>
     </row>
@@ -9273,7 +9393,7 @@
       </c>
       <c r="V28" s="11">
         <f>COUNTIF($R$6:$R$51,"*GPS*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W28" s="16"/>
     </row>
@@ -9561,7 +9681,7 @@
       </c>
       <c r="V37" s="11">
         <f>SUM(V26:V36)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W37" s="16"/>
     </row>
@@ -10140,6 +10260,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -10151,13 +10278,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -10168,8 +10288,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" topLeftCell="D1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+    <sheetView showZeros="0" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="M6" sqref="M6:M22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -10201,43 +10321,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="77" t="s">
+      <c r="A1" s="72" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
-      <c r="F1" s="77"/>
-      <c r="G1" s="77"/>
-      <c r="H1" s="77"/>
-      <c r="I1" s="77"/>
-      <c r="J1" s="77"/>
-      <c r="K1" s="77"/>
-      <c r="L1" s="77"/>
-      <c r="M1" s="77"/>
-      <c r="N1" s="77"/>
-      <c r="O1" s="77"/>
-      <c r="P1" s="77"/>
-      <c r="Q1" s="77"/>
-      <c r="R1" s="77"/>
-      <c r="S1" s="77"/>
-      <c r="T1" s="77"/>
-      <c r="U1" s="77"/>
-      <c r="V1" s="77"/>
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="72"/>
+      <c r="H1" s="72"/>
+      <c r="I1" s="72"/>
+      <c r="J1" s="72"/>
+      <c r="K1" s="72"/>
+      <c r="L1" s="72"/>
+      <c r="M1" s="72"/>
+      <c r="N1" s="72"/>
+      <c r="O1" s="72"/>
+      <c r="P1" s="72"/>
+      <c r="Q1" s="72"/>
+      <c r="R1" s="72"/>
+      <c r="S1" s="72"/>
+      <c r="T1" s="72"/>
+      <c r="U1" s="72"/>
+      <c r="V1" s="72"/>
       <c r="W1" s="55"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="78" t="s">
+      <c r="A2" s="73" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="79"/>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="80" t="s">
+      <c r="B2" s="74"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="75" t="s">
         <v>61</v>
       </c>
-      <c r="F2" s="80"/>
+      <c r="F2" s="75"/>
       <c r="G2" s="6"/>
       <c r="H2" s="24"/>
       <c r="I2" s="64"/>
@@ -10282,58 +10402,58 @@
       <c r="W3" s="30"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="81" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="75" t="s">
+      <c r="A4" s="76" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="71" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="75"/>
-      <c r="D4" s="75"/>
-      <c r="E4" s="75"/>
-      <c r="F4" s="75"/>
-      <c r="G4" s="75"/>
-      <c r="H4" s="75"/>
-      <c r="I4" s="75"/>
-      <c r="J4" s="75" t="s">
+      <c r="C4" s="71"/>
+      <c r="D4" s="71"/>
+      <c r="E4" s="71"/>
+      <c r="F4" s="71"/>
+      <c r="G4" s="71"/>
+      <c r="H4" s="71"/>
+      <c r="I4" s="71"/>
+      <c r="J4" s="71" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="75" t="s">
+      <c r="K4" s="71" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="75"/>
-      <c r="M4" s="82" t="s">
+      <c r="L4" s="71"/>
+      <c r="M4" s="77" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="82" t="s">
+      <c r="N4" s="77" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="75" t="s">
+      <c r="O4" s="71" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="74" t="s">
+      <c r="P4" s="82" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="75" t="s">
+      <c r="Q4" s="71" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="75" t="s">
+      <c r="R4" s="71" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="76" t="s">
+      <c r="S4" s="83" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="30"/>
-      <c r="U4" s="75" t="s">
+      <c r="U4" s="71" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="75" t="s">
+      <c r="V4" s="71" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="56"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="81"/>
+      <c r="A5" s="76"/>
       <c r="B5" s="62" t="s">
         <v>1</v>
       </c>
@@ -10358,23 +10478,23 @@
       <c r="I5" s="66" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="75"/>
+      <c r="J5" s="71"/>
       <c r="K5" s="62" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="62" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="83"/>
-      <c r="N5" s="83"/>
-      <c r="O5" s="75"/>
-      <c r="P5" s="74"/>
-      <c r="Q5" s="75"/>
-      <c r="R5" s="75"/>
-      <c r="S5" s="76"/>
+      <c r="M5" s="78"/>
+      <c r="N5" s="78"/>
+      <c r="O5" s="71"/>
+      <c r="P5" s="82"/>
+      <c r="Q5" s="71"/>
+      <c r="R5" s="71"/>
+      <c r="S5" s="83"/>
       <c r="T5" s="30"/>
-      <c r="U5" s="75"/>
-      <c r="V5" s="75"/>
+      <c r="U5" s="71"/>
+      <c r="V5" s="71"/>
       <c r="W5" s="56"/>
     </row>
     <row r="6" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -10384,7 +10504,9 @@
       <c r="B6" s="42">
         <v>44253</v>
       </c>
-      <c r="C6" s="42"/>
+      <c r="C6" s="42">
+        <v>44264</v>
+      </c>
       <c r="D6" s="43" t="s">
         <v>69</v>
       </c>
@@ -10426,7 +10548,7 @@
       </c>
       <c r="S6" s="4"/>
       <c r="T6" s="61"/>
-      <c r="U6" s="71" t="s">
+      <c r="U6" s="79" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -10441,7 +10563,9 @@
       <c r="B7" s="42">
         <v>44253</v>
       </c>
-      <c r="C7" s="42"/>
+      <c r="C7" s="42">
+        <v>44264</v>
+      </c>
       <c r="D7" s="43" t="s">
         <v>69</v>
       </c>
@@ -10483,7 +10607,7 @@
       </c>
       <c r="S7" s="4"/>
       <c r="T7" s="61"/>
-      <c r="U7" s="72"/>
+      <c r="U7" s="80"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -10496,11 +10620,13 @@
       <c r="B8" s="42">
         <v>44253</v>
       </c>
-      <c r="C8" s="42"/>
+      <c r="C8" s="42">
+        <v>44264</v>
+      </c>
       <c r="D8" s="43" t="s">
         <v>69</v>
       </c>
-      <c r="E8" s="44">
+      <c r="E8" s="63">
         <v>868183038021247</v>
       </c>
       <c r="F8" s="43"/>
@@ -10520,7 +10646,9 @@
         <v>78</v>
       </c>
       <c r="L8" s="45"/>
-      <c r="M8" s="45"/>
+      <c r="M8" s="45" t="s">
+        <v>120</v>
+      </c>
       <c r="N8" s="1"/>
       <c r="O8" s="45"/>
       <c r="P8" s="1"/>
@@ -10528,7 +10656,7 @@
       <c r="R8" s="43"/>
       <c r="S8" s="4"/>
       <c r="T8" s="61"/>
-      <c r="U8" s="72"/>
+      <c r="U8" s="80"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -10541,7 +10669,9 @@
       <c r="B9" s="42">
         <v>44253</v>
       </c>
-      <c r="C9" s="42"/>
+      <c r="C9" s="42">
+        <v>44264</v>
+      </c>
       <c r="D9" s="43" t="s">
         <v>69</v>
       </c>
@@ -10564,16 +10694,24 @@
       </c>
       <c r="L9" s="45"/>
       <c r="M9" s="45" t="s">
-        <v>102</v>
+        <v>118</v>
       </c>
       <c r="N9" s="1"/>
-      <c r="O9" s="45"/>
-      <c r="P9" s="1"/>
-      <c r="Q9" s="3"/>
-      <c r="R9" s="43"/>
+      <c r="O9" s="45" t="s">
+        <v>119</v>
+      </c>
+      <c r="P9" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q9" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="R9" s="43" t="s">
+        <v>35</v>
+      </c>
       <c r="S9" s="4"/>
       <c r="T9" s="61"/>
-      <c r="U9" s="72"/>
+      <c r="U9" s="80"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -10586,7 +10724,9 @@
       <c r="B10" s="42">
         <v>44253</v>
       </c>
-      <c r="C10" s="42"/>
+      <c r="C10" s="42">
+        <v>44264</v>
+      </c>
       <c r="D10" s="43" t="s">
         <v>69</v>
       </c>
@@ -10628,7 +10768,7 @@
       </c>
       <c r="S10" s="4"/>
       <c r="T10" s="61"/>
-      <c r="U10" s="72"/>
+      <c r="U10" s="80"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -10641,7 +10781,9 @@
       <c r="B11" s="42">
         <v>44253</v>
       </c>
-      <c r="C11" s="42"/>
+      <c r="C11" s="42">
+        <v>44264</v>
+      </c>
       <c r="D11" s="43" t="s">
         <v>69</v>
       </c>
@@ -10681,7 +10823,7 @@
       </c>
       <c r="S11" s="4"/>
       <c r="T11" s="61"/>
-      <c r="U11" s="72"/>
+      <c r="U11" s="80"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -10694,7 +10836,9 @@
       <c r="B12" s="42">
         <v>44253</v>
       </c>
-      <c r="C12" s="42"/>
+      <c r="C12" s="42">
+        <v>44264</v>
+      </c>
       <c r="D12" s="43" t="s">
         <v>69</v>
       </c>
@@ -10736,7 +10880,7 @@
       </c>
       <c r="S12" s="4"/>
       <c r="T12" s="61"/>
-      <c r="U12" s="71" t="s">
+      <c r="U12" s="79" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -10751,7 +10895,9 @@
       <c r="B13" s="42">
         <v>44253</v>
       </c>
-      <c r="C13" s="42"/>
+      <c r="C13" s="42">
+        <v>44264</v>
+      </c>
       <c r="D13" s="43" t="s">
         <v>69</v>
       </c>
@@ -10765,19 +10911,35 @@
       <c r="H13" s="43" t="s">
         <v>71</v>
       </c>
-      <c r="I13" s="60"/>
+      <c r="I13" s="67" t="s">
+        <v>112</v>
+      </c>
       <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="45"/>
-      <c r="M13" s="1"/>
+      <c r="K13" s="45" t="s">
+        <v>84</v>
+      </c>
+      <c r="L13" s="45" t="s">
+        <v>78</v>
+      </c>
+      <c r="M13" s="45" t="s">
+        <v>113</v>
+      </c>
       <c r="N13" s="1"/>
-      <c r="O13" s="45"/>
-      <c r="P13" s="1"/>
-      <c r="Q13" s="3"/>
-      <c r="R13" s="11"/>
+      <c r="O13" s="45" t="s">
+        <v>87</v>
+      </c>
+      <c r="P13" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q13" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="R13" s="43" t="s">
+        <v>114</v>
+      </c>
       <c r="S13" s="4"/>
       <c r="T13" s="61"/>
-      <c r="U13" s="72"/>
+      <c r="U13" s="80"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -10790,7 +10952,9 @@
       <c r="B14" s="42">
         <v>44253</v>
       </c>
-      <c r="C14" s="42"/>
+      <c r="C14" s="42">
+        <v>44264</v>
+      </c>
       <c r="D14" s="43" t="s">
         <v>69</v>
       </c>
@@ -10804,19 +10968,35 @@
       <c r="H14" s="43" t="s">
         <v>71</v>
       </c>
-      <c r="I14" s="60"/>
+      <c r="I14" s="67" t="s">
+        <v>112</v>
+      </c>
       <c r="J14" s="45"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="45"/>
-      <c r="M14" s="45"/>
+      <c r="K14" s="45" t="s">
+        <v>84</v>
+      </c>
+      <c r="L14" s="45" t="s">
+        <v>78</v>
+      </c>
+      <c r="M14" s="45" t="s">
+        <v>113</v>
+      </c>
       <c r="N14" s="1"/>
-      <c r="O14" s="45"/>
-      <c r="P14" s="1"/>
-      <c r="Q14" s="4"/>
-      <c r="R14" s="43"/>
+      <c r="O14" s="45" t="s">
+        <v>87</v>
+      </c>
+      <c r="P14" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q14" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="R14" s="43" t="s">
+        <v>114</v>
+      </c>
       <c r="S14" s="4"/>
       <c r="T14" s="61"/>
-      <c r="U14" s="72"/>
+      <c r="U14" s="80"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -10829,7 +11009,9 @@
       <c r="B15" s="42">
         <v>44253</v>
       </c>
-      <c r="C15" s="42"/>
+      <c r="C15" s="42">
+        <v>44264</v>
+      </c>
       <c r="D15" s="43" t="s">
         <v>69</v>
       </c>
@@ -10871,7 +11053,7 @@
       </c>
       <c r="S15" s="4"/>
       <c r="T15" s="16"/>
-      <c r="U15" s="72"/>
+      <c r="U15" s="80"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -10884,7 +11066,9 @@
       <c r="B16" s="42">
         <v>44253</v>
       </c>
-      <c r="C16" s="42"/>
+      <c r="C16" s="42">
+        <v>44264</v>
+      </c>
       <c r="D16" s="43" t="s">
         <v>69</v>
       </c>
@@ -10926,7 +11110,7 @@
       </c>
       <c r="S16" s="4"/>
       <c r="T16" s="16"/>
-      <c r="U16" s="73"/>
+      <c r="U16" s="81"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -10939,7 +11123,9 @@
       <c r="B17" s="42">
         <v>44253</v>
       </c>
-      <c r="C17" s="42"/>
+      <c r="C17" s="42">
+        <v>44264</v>
+      </c>
       <c r="D17" s="43" t="s">
         <v>69</v>
       </c>
@@ -10992,7 +11178,9 @@
       <c r="B18" s="42">
         <v>44253</v>
       </c>
-      <c r="C18" s="10"/>
+      <c r="C18" s="42">
+        <v>44264</v>
+      </c>
       <c r="D18" s="43" t="s">
         <v>69</v>
       </c>
@@ -11045,7 +11233,9 @@
       <c r="B19" s="42">
         <v>44253</v>
       </c>
-      <c r="C19" s="10"/>
+      <c r="C19" s="42">
+        <v>44264</v>
+      </c>
       <c r="D19" s="43" t="s">
         <v>69</v>
       </c>
@@ -11102,7 +11292,9 @@
       <c r="B20" s="42">
         <v>44253</v>
       </c>
-      <c r="C20" s="10"/>
+      <c r="C20" s="42">
+        <v>44264</v>
+      </c>
       <c r="D20" s="43" t="s">
         <v>69</v>
       </c>
@@ -11149,7 +11341,7 @@
       </c>
       <c r="V20" s="11">
         <f>COUNTIF($Q$6:$Q$51,"PM")</f>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="W20" s="16"/>
     </row>
@@ -11160,7 +11352,9 @@
       <c r="B21" s="42">
         <v>44253</v>
       </c>
-      <c r="C21" s="10"/>
+      <c r="C21" s="42">
+        <v>44264</v>
+      </c>
       <c r="D21" s="43" t="s">
         <v>69</v>
       </c>
@@ -11207,7 +11401,7 @@
       </c>
       <c r="V21" s="11">
         <f>COUNTIF($Q$6:$Q$51,"PC")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W21" s="16"/>
     </row>
@@ -11218,7 +11412,9 @@
       <c r="B22" s="42">
         <v>44253</v>
       </c>
-      <c r="C22" s="10"/>
+      <c r="C22" s="42">
+        <v>44264</v>
+      </c>
       <c r="D22" s="43" t="s">
         <v>69</v>
       </c>
@@ -11412,7 +11608,7 @@
       </c>
       <c r="V27" s="11">
         <f>COUNTIF($R$6:$R$51,"*GSM*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W27" s="16"/>
     </row>
@@ -11668,7 +11864,7 @@
       </c>
       <c r="V35" s="11">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="W35" s="16"/>
     </row>
@@ -11700,7 +11896,7 @@
       </c>
       <c r="V36" s="11">
         <f>COUNTIF($R$6:$R$51,"*KL*")</f>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="W36" s="16"/>
     </row>
@@ -11732,7 +11928,7 @@
       </c>
       <c r="V37" s="11">
         <f>SUM(V26:V36)</f>
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="W37" s="16"/>
     </row>
@@ -11850,7 +12046,7 @@
       </c>
       <c r="V41" s="11">
         <f>COUNTIF($O$6:$O$51,"*KS*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W41" s="16"/>
     </row>
@@ -12316,6 +12512,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -12327,13 +12530,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -12344,8 +12540,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" topLeftCell="D1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="M18" sqref="M18"/>
+    <sheetView showZeros="0" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -12377,43 +12573,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="77" t="s">
+      <c r="A1" s="72" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
-      <c r="F1" s="77"/>
-      <c r="G1" s="77"/>
-      <c r="H1" s="77"/>
-      <c r="I1" s="77"/>
-      <c r="J1" s="77"/>
-      <c r="K1" s="77"/>
-      <c r="L1" s="77"/>
-      <c r="M1" s="77"/>
-      <c r="N1" s="77"/>
-      <c r="O1" s="77"/>
-      <c r="P1" s="77"/>
-      <c r="Q1" s="77"/>
-      <c r="R1" s="77"/>
-      <c r="S1" s="77"/>
-      <c r="T1" s="77"/>
-      <c r="U1" s="77"/>
-      <c r="V1" s="77"/>
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="72"/>
+      <c r="H1" s="72"/>
+      <c r="I1" s="72"/>
+      <c r="J1" s="72"/>
+      <c r="K1" s="72"/>
+      <c r="L1" s="72"/>
+      <c r="M1" s="72"/>
+      <c r="N1" s="72"/>
+      <c r="O1" s="72"/>
+      <c r="P1" s="72"/>
+      <c r="Q1" s="72"/>
+      <c r="R1" s="72"/>
+      <c r="S1" s="72"/>
+      <c r="T1" s="72"/>
+      <c r="U1" s="72"/>
+      <c r="V1" s="72"/>
       <c r="W1" s="55"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="78" t="s">
+      <c r="A2" s="73" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="79"/>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="80" t="s">
+      <c r="B2" s="74"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="75" t="s">
         <v>61</v>
       </c>
-      <c r="F2" s="80"/>
+      <c r="F2" s="75"/>
       <c r="G2" s="6"/>
       <c r="H2" s="24"/>
       <c r="I2" s="24"/>
@@ -12458,58 +12654,58 @@
       <c r="W3" s="30"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="81" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="75" t="s">
+      <c r="A4" s="76" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="71" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="75"/>
-      <c r="D4" s="75"/>
-      <c r="E4" s="75"/>
-      <c r="F4" s="75"/>
-      <c r="G4" s="75"/>
-      <c r="H4" s="75"/>
-      <c r="I4" s="75"/>
-      <c r="J4" s="75" t="s">
+      <c r="C4" s="71"/>
+      <c r="D4" s="71"/>
+      <c r="E4" s="71"/>
+      <c r="F4" s="71"/>
+      <c r="G4" s="71"/>
+      <c r="H4" s="71"/>
+      <c r="I4" s="71"/>
+      <c r="J4" s="71" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="75" t="s">
+      <c r="K4" s="71" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="75"/>
-      <c r="M4" s="82" t="s">
+      <c r="L4" s="71"/>
+      <c r="M4" s="77" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="82" t="s">
+      <c r="N4" s="77" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="75" t="s">
+      <c r="O4" s="71" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="74" t="s">
+      <c r="P4" s="82" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="75" t="s">
+      <c r="Q4" s="71" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="75" t="s">
+      <c r="R4" s="71" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="76" t="s">
+      <c r="S4" s="83" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="30"/>
-      <c r="U4" s="75" t="s">
+      <c r="U4" s="71" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="75" t="s">
+      <c r="V4" s="71" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="56"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="81"/>
+      <c r="A5" s="76"/>
       <c r="B5" s="50" t="s">
         <v>1</v>
       </c>
@@ -12534,23 +12730,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="75"/>
+      <c r="J5" s="71"/>
       <c r="K5" s="50" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="83"/>
-      <c r="N5" s="83"/>
-      <c r="O5" s="75"/>
-      <c r="P5" s="74"/>
-      <c r="Q5" s="75"/>
-      <c r="R5" s="75"/>
-      <c r="S5" s="76"/>
+      <c r="M5" s="78"/>
+      <c r="N5" s="78"/>
+      <c r="O5" s="71"/>
+      <c r="P5" s="82"/>
+      <c r="Q5" s="71"/>
+      <c r="R5" s="71"/>
+      <c r="S5" s="83"/>
       <c r="T5" s="30"/>
-      <c r="U5" s="75"/>
-      <c r="V5" s="75"/>
+      <c r="U5" s="71"/>
+      <c r="V5" s="71"/>
       <c r="W5" s="56"/>
     </row>
     <row r="6" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -12560,7 +12756,9 @@
       <c r="B6" s="42">
         <v>44253</v>
       </c>
-      <c r="C6" s="42"/>
+      <c r="C6" s="42">
+        <v>44264</v>
+      </c>
       <c r="D6" s="43" t="s">
         <v>68</v>
       </c>
@@ -12600,7 +12798,7 @@
       </c>
       <c r="S6" s="4"/>
       <c r="T6" s="49"/>
-      <c r="U6" s="71" t="s">
+      <c r="U6" s="79" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -12631,7 +12829,7 @@
       <c r="R7" s="43"/>
       <c r="S7" s="4"/>
       <c r="T7" s="49"/>
-      <c r="U7" s="72"/>
+      <c r="U7" s="80"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -12660,7 +12858,7 @@
       <c r="R8" s="43"/>
       <c r="S8" s="4"/>
       <c r="T8" s="49"/>
-      <c r="U8" s="72"/>
+      <c r="U8" s="80"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -12689,7 +12887,7 @@
       <c r="R9" s="43"/>
       <c r="S9" s="4"/>
       <c r="T9" s="49"/>
-      <c r="U9" s="72"/>
+      <c r="U9" s="80"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -12718,7 +12916,7 @@
       <c r="R10" s="43"/>
       <c r="S10" s="4"/>
       <c r="T10" s="49"/>
-      <c r="U10" s="72"/>
+      <c r="U10" s="80"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -12747,7 +12945,7 @@
       <c r="R11" s="43"/>
       <c r="S11" s="4"/>
       <c r="T11" s="49"/>
-      <c r="U11" s="72"/>
+      <c r="U11" s="80"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -12776,7 +12974,7 @@
       <c r="R12" s="43"/>
       <c r="S12" s="4"/>
       <c r="T12" s="49"/>
-      <c r="U12" s="71" t="s">
+      <c r="U12" s="79" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -12807,7 +13005,7 @@
       <c r="R13" s="11"/>
       <c r="S13" s="4"/>
       <c r="T13" s="49"/>
-      <c r="U13" s="72"/>
+      <c r="U13" s="80"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -12836,7 +13034,7 @@
       <c r="R14" s="43"/>
       <c r="S14" s="4"/>
       <c r="T14" s="49"/>
-      <c r="U14" s="72"/>
+      <c r="U14" s="80"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -12865,7 +13063,7 @@
       <c r="R15" s="43"/>
       <c r="S15" s="4"/>
       <c r="T15" s="16"/>
-      <c r="U15" s="72"/>
+      <c r="U15" s="80"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -12894,7 +13092,7 @@
       <c r="R16" s="43"/>
       <c r="S16" s="4"/>
       <c r="T16" s="16"/>
-      <c r="U16" s="73"/>
+      <c r="U16" s="81"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -14125,13 +14323,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -14143,6 +14334,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -14154,7 +14352,7 @@
   <dimension ref="A1:X57"/>
   <sheetViews>
     <sheetView showZeros="0" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="L20" sqref="L20"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -14186,43 +14384,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="77" t="s">
+      <c r="A1" s="72" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
-      <c r="F1" s="77"/>
-      <c r="G1" s="77"/>
-      <c r="H1" s="77"/>
-      <c r="I1" s="77"/>
-      <c r="J1" s="77"/>
-      <c r="K1" s="77"/>
-      <c r="L1" s="77"/>
-      <c r="M1" s="77"/>
-      <c r="N1" s="77"/>
-      <c r="O1" s="77"/>
-      <c r="P1" s="77"/>
-      <c r="Q1" s="77"/>
-      <c r="R1" s="77"/>
-      <c r="S1" s="77"/>
-      <c r="T1" s="77"/>
-      <c r="U1" s="77"/>
-      <c r="V1" s="77"/>
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="72"/>
+      <c r="H1" s="72"/>
+      <c r="I1" s="72"/>
+      <c r="J1" s="72"/>
+      <c r="K1" s="72"/>
+      <c r="L1" s="72"/>
+      <c r="M1" s="72"/>
+      <c r="N1" s="72"/>
+      <c r="O1" s="72"/>
+      <c r="P1" s="72"/>
+      <c r="Q1" s="72"/>
+      <c r="R1" s="72"/>
+      <c r="S1" s="72"/>
+      <c r="T1" s="72"/>
+      <c r="U1" s="72"/>
+      <c r="V1" s="72"/>
       <c r="W1" s="55"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="78" t="s">
+      <c r="A2" s="73" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="79"/>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="80" t="s">
+      <c r="B2" s="74"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="75" t="s">
         <v>61</v>
       </c>
-      <c r="F2" s="80"/>
+      <c r="F2" s="75"/>
       <c r="G2" s="6"/>
       <c r="H2" s="24"/>
       <c r="I2" s="24"/>
@@ -14267,58 +14465,58 @@
       <c r="W3" s="30"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="81" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="75" t="s">
+      <c r="A4" s="76" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="71" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="75"/>
-      <c r="D4" s="75"/>
-      <c r="E4" s="75"/>
-      <c r="F4" s="75"/>
-      <c r="G4" s="75"/>
-      <c r="H4" s="75"/>
-      <c r="I4" s="75"/>
-      <c r="J4" s="75" t="s">
+      <c r="C4" s="71"/>
+      <c r="D4" s="71"/>
+      <c r="E4" s="71"/>
+      <c r="F4" s="71"/>
+      <c r="G4" s="71"/>
+      <c r="H4" s="71"/>
+      <c r="I4" s="71"/>
+      <c r="J4" s="71" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="75" t="s">
+      <c r="K4" s="71" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="75"/>
-      <c r="M4" s="82" t="s">
+      <c r="L4" s="71"/>
+      <c r="M4" s="77" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="82" t="s">
+      <c r="N4" s="77" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="75" t="s">
+      <c r="O4" s="71" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="74" t="s">
+      <c r="P4" s="82" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="75" t="s">
+      <c r="Q4" s="71" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="75" t="s">
+      <c r="R4" s="71" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="76" t="s">
+      <c r="S4" s="83" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="30"/>
-      <c r="U4" s="75" t="s">
+      <c r="U4" s="71" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="75" t="s">
+      <c r="V4" s="71" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="56"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="81"/>
+      <c r="A5" s="76"/>
       <c r="B5" s="53" t="s">
         <v>1</v>
       </c>
@@ -14343,23 +14541,23 @@
       <c r="I5" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="75"/>
+      <c r="J5" s="71"/>
       <c r="K5" s="53" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="83"/>
-      <c r="N5" s="83"/>
-      <c r="O5" s="75"/>
-      <c r="P5" s="74"/>
-      <c r="Q5" s="75"/>
-      <c r="R5" s="75"/>
-      <c r="S5" s="76"/>
+      <c r="M5" s="78"/>
+      <c r="N5" s="78"/>
+      <c r="O5" s="71"/>
+      <c r="P5" s="82"/>
+      <c r="Q5" s="71"/>
+      <c r="R5" s="71"/>
+      <c r="S5" s="83"/>
       <c r="T5" s="30"/>
-      <c r="U5" s="75"/>
-      <c r="V5" s="75"/>
+      <c r="U5" s="71"/>
+      <c r="V5" s="71"/>
       <c r="W5" s="56"/>
     </row>
     <row r="6" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -14369,7 +14567,9 @@
       <c r="B6" s="42">
         <v>44253</v>
       </c>
-      <c r="C6" s="42"/>
+      <c r="C6" s="42">
+        <v>44264</v>
+      </c>
       <c r="D6" s="43" t="s">
         <v>66</v>
       </c>
@@ -14380,7 +14580,9 @@
       <c r="G6" s="43" t="s">
         <v>64</v>
       </c>
-      <c r="H6" s="43"/>
+      <c r="H6" s="43" t="s">
+        <v>127</v>
+      </c>
       <c r="I6" s="60" t="s">
         <v>75</v>
       </c>
@@ -14393,15 +14595,27 @@
       <c r="L6" s="45" t="s">
         <v>76</v>
       </c>
-      <c r="M6" s="1"/>
-      <c r="N6" s="47"/>
-      <c r="O6" s="45"/>
-      <c r="P6" s="45"/>
-      <c r="Q6" s="3"/>
-      <c r="R6" s="43"/>
+      <c r="M6" s="45" t="s">
+        <v>124</v>
+      </c>
+      <c r="N6" s="3">
+        <v>220000</v>
+      </c>
+      <c r="O6" s="45" t="s">
+        <v>87</v>
+      </c>
+      <c r="P6" s="45" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="R6" s="43" t="s">
+        <v>35</v>
+      </c>
       <c r="S6" s="4"/>
       <c r="T6" s="52"/>
-      <c r="U6" s="71" t="s">
+      <c r="U6" s="79" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -14432,7 +14646,7 @@
       <c r="R7" s="43"/>
       <c r="S7" s="4"/>
       <c r="T7" s="52"/>
-      <c r="U7" s="72"/>
+      <c r="U7" s="80"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -14461,7 +14675,7 @@
       <c r="R8" s="43"/>
       <c r="S8" s="4"/>
       <c r="T8" s="52"/>
-      <c r="U8" s="72"/>
+      <c r="U8" s="80"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -14490,7 +14704,7 @@
       <c r="R9" s="43"/>
       <c r="S9" s="4"/>
       <c r="T9" s="52"/>
-      <c r="U9" s="72"/>
+      <c r="U9" s="80"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -14519,7 +14733,7 @@
       <c r="R10" s="43"/>
       <c r="S10" s="4"/>
       <c r="T10" s="52"/>
-      <c r="U10" s="72"/>
+      <c r="U10" s="80"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -14548,7 +14762,7 @@
       <c r="R11" s="43"/>
       <c r="S11" s="4"/>
       <c r="T11" s="52"/>
-      <c r="U11" s="72"/>
+      <c r="U11" s="80"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -14577,7 +14791,7 @@
       <c r="R12" s="43"/>
       <c r="S12" s="4"/>
       <c r="T12" s="52"/>
-      <c r="U12" s="71" t="s">
+      <c r="U12" s="79" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -14608,7 +14822,7 @@
       <c r="R13" s="11"/>
       <c r="S13" s="4"/>
       <c r="T13" s="52"/>
-      <c r="U13" s="72"/>
+      <c r="U13" s="80"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -14637,7 +14851,7 @@
       <c r="R14" s="43"/>
       <c r="S14" s="4"/>
       <c r="T14" s="52"/>
-      <c r="U14" s="72"/>
+      <c r="U14" s="80"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -14666,7 +14880,7 @@
       <c r="R15" s="43"/>
       <c r="S15" s="4"/>
       <c r="T15" s="16"/>
-      <c r="U15" s="72"/>
+      <c r="U15" s="80"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -14695,7 +14909,7 @@
       <c r="R16" s="43"/>
       <c r="S16" s="4"/>
       <c r="T16" s="16"/>
-      <c r="U16" s="73"/>
+      <c r="U16" s="81"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -14846,7 +15060,7 @@
       </c>
       <c r="V21" s="11">
         <f>COUNTIF($Q$6:$Q$51,"PC")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W21" s="16"/>
     </row>
@@ -15027,7 +15241,7 @@
       </c>
       <c r="V27" s="11">
         <f>COUNTIF($R$6:$R$51,"*GSM*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W27" s="16"/>
     </row>
@@ -15347,7 +15561,7 @@
       </c>
       <c r="V37" s="11">
         <f>SUM(V26:V36)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W37" s="16"/>
     </row>
@@ -15926,6 +16140,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -15937,13 +16158,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -15955,7 +16169,7 @@
   <dimension ref="A1:X57"/>
   <sheetViews>
     <sheetView showZeros="0" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection sqref="A1:V1"/>
+      <selection activeCell="J33" sqref="J33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -15987,43 +16201,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="77" t="s">
+      <c r="A1" s="72" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
-      <c r="F1" s="77"/>
-      <c r="G1" s="77"/>
-      <c r="H1" s="77"/>
-      <c r="I1" s="77"/>
-      <c r="J1" s="77"/>
-      <c r="K1" s="77"/>
-      <c r="L1" s="77"/>
-      <c r="M1" s="77"/>
-      <c r="N1" s="77"/>
-      <c r="O1" s="77"/>
-      <c r="P1" s="77"/>
-      <c r="Q1" s="77"/>
-      <c r="R1" s="77"/>
-      <c r="S1" s="77"/>
-      <c r="T1" s="77"/>
-      <c r="U1" s="77"/>
-      <c r="V1" s="77"/>
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="72"/>
+      <c r="H1" s="72"/>
+      <c r="I1" s="72"/>
+      <c r="J1" s="72"/>
+      <c r="K1" s="72"/>
+      <c r="L1" s="72"/>
+      <c r="M1" s="72"/>
+      <c r="N1" s="72"/>
+      <c r="O1" s="72"/>
+      <c r="P1" s="72"/>
+      <c r="Q1" s="72"/>
+      <c r="R1" s="72"/>
+      <c r="S1" s="72"/>
+      <c r="T1" s="72"/>
+      <c r="U1" s="72"/>
+      <c r="V1" s="72"/>
       <c r="W1" s="55"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="78" t="s">
+      <c r="A2" s="73" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="79"/>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="80" t="s">
+      <c r="B2" s="74"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="75" t="s">
         <v>61</v>
       </c>
-      <c r="F2" s="80"/>
+      <c r="F2" s="75"/>
       <c r="G2" s="6"/>
       <c r="H2" s="24"/>
       <c r="I2" s="24"/>
@@ -16068,58 +16282,58 @@
       <c r="W3" s="30"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="81" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="75" t="s">
+      <c r="A4" s="76" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="71" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="75"/>
-      <c r="D4" s="75"/>
-      <c r="E4" s="75"/>
-      <c r="F4" s="75"/>
-      <c r="G4" s="75"/>
-      <c r="H4" s="75"/>
-      <c r="I4" s="75"/>
-      <c r="J4" s="75" t="s">
+      <c r="C4" s="71"/>
+      <c r="D4" s="71"/>
+      <c r="E4" s="71"/>
+      <c r="F4" s="71"/>
+      <c r="G4" s="71"/>
+      <c r="H4" s="71"/>
+      <c r="I4" s="71"/>
+      <c r="J4" s="71" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="75" t="s">
+      <c r="K4" s="71" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="75"/>
-      <c r="M4" s="82" t="s">
+      <c r="L4" s="71"/>
+      <c r="M4" s="77" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="82" t="s">
+      <c r="N4" s="77" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="75" t="s">
+      <c r="O4" s="71" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="74" t="s">
+      <c r="P4" s="82" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="75" t="s">
+      <c r="Q4" s="71" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="75" t="s">
+      <c r="R4" s="71" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="76" t="s">
+      <c r="S4" s="83" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="30"/>
-      <c r="U4" s="75" t="s">
+      <c r="U4" s="71" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="75" t="s">
+      <c r="V4" s="71" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="56"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="81"/>
+      <c r="A5" s="76"/>
       <c r="B5" s="50" t="s">
         <v>1</v>
       </c>
@@ -16144,49 +16358,73 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="75"/>
+      <c r="J5" s="71"/>
       <c r="K5" s="50" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="83"/>
-      <c r="N5" s="83"/>
-      <c r="O5" s="75"/>
-      <c r="P5" s="74"/>
-      <c r="Q5" s="75"/>
-      <c r="R5" s="75"/>
-      <c r="S5" s="76"/>
+      <c r="M5" s="78"/>
+      <c r="N5" s="78"/>
+      <c r="O5" s="71"/>
+      <c r="P5" s="82"/>
+      <c r="Q5" s="71"/>
+      <c r="R5" s="71"/>
+      <c r="S5" s="83"/>
       <c r="T5" s="30"/>
-      <c r="U5" s="75"/>
-      <c r="V5" s="75"/>
+      <c r="U5" s="71"/>
+      <c r="V5" s="71"/>
       <c r="W5" s="56"/>
     </row>
     <row r="6" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>1</v>
       </c>
-      <c r="B6" s="42"/>
-      <c r="C6" s="42"/>
-      <c r="D6" s="43"/>
-      <c r="E6" s="44"/>
-      <c r="F6" s="58"/>
-      <c r="G6" s="43"/>
+      <c r="B6" s="42">
+        <v>44253</v>
+      </c>
+      <c r="C6" s="42">
+        <v>44264</v>
+      </c>
+      <c r="D6" s="43" t="s">
+        <v>66</v>
+      </c>
+      <c r="E6" s="44">
+        <v>866104022165560</v>
+      </c>
+      <c r="F6" s="43"/>
+      <c r="G6" s="43" t="s">
+        <v>64</v>
+      </c>
       <c r="H6" s="43"/>
-      <c r="I6" s="59"/>
-      <c r="J6" s="45"/>
-      <c r="K6" s="48"/>
-      <c r="L6" s="45"/>
-      <c r="M6" s="45"/>
+      <c r="I6" s="60" t="s">
+        <v>75</v>
+      </c>
+      <c r="J6" s="45" t="s">
+        <v>77</v>
+      </c>
+      <c r="K6" s="48" t="s">
+        <v>74</v>
+      </c>
+      <c r="L6" s="45" t="s">
+        <v>76</v>
+      </c>
+      <c r="M6" s="1"/>
       <c r="N6" s="47"/>
       <c r="O6" s="45"/>
-      <c r="P6" s="45"/>
-      <c r="Q6" s="3"/>
-      <c r="R6" s="43"/>
+      <c r="P6" s="45" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="R6" s="43" t="s">
+        <v>35</v>
+      </c>
       <c r="S6" s="4"/>
       <c r="T6" s="49"/>
-      <c r="U6" s="71" t="s">
+      <c r="U6" s="79" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -16198,26 +16436,52 @@
       <c r="A7" s="4">
         <v>2</v>
       </c>
-      <c r="B7" s="42"/>
-      <c r="C7" s="42"/>
-      <c r="D7" s="43"/>
-      <c r="E7" s="44"/>
-      <c r="F7" s="58"/>
-      <c r="G7" s="43"/>
+      <c r="B7" s="42">
+        <v>44253</v>
+      </c>
+      <c r="C7" s="42">
+        <v>44264</v>
+      </c>
+      <c r="D7" s="43" t="s">
+        <v>68</v>
+      </c>
+      <c r="E7" s="44">
+        <v>864811036951825</v>
+      </c>
+      <c r="F7" s="43"/>
+      <c r="G7" s="43" t="s">
+        <v>64</v>
+      </c>
       <c r="H7" s="43"/>
-      <c r="I7" s="60"/>
-      <c r="J7" s="45"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="45"/>
-      <c r="M7" s="45"/>
-      <c r="N7" s="3"/>
-      <c r="O7" s="45"/>
-      <c r="P7" s="45"/>
-      <c r="Q7" s="3"/>
-      <c r="R7" s="43"/>
+      <c r="I7" s="59" t="s">
+        <v>107</v>
+      </c>
+      <c r="J7" s="45" t="s">
+        <v>106</v>
+      </c>
+      <c r="K7" s="48"/>
+      <c r="L7" s="45" t="s">
+        <v>108</v>
+      </c>
+      <c r="M7" s="45" t="s">
+        <v>109</v>
+      </c>
+      <c r="N7" s="47"/>
+      <c r="O7" s="45" t="s">
+        <v>87</v>
+      </c>
+      <c r="P7" s="45" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R7" s="43" t="s">
+        <v>24</v>
+      </c>
       <c r="S7" s="4"/>
       <c r="T7" s="49"/>
-      <c r="U7" s="72"/>
+      <c r="U7" s="80"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -16227,26 +16491,54 @@
       <c r="A8" s="4">
         <v>3</v>
       </c>
-      <c r="B8" s="42"/>
-      <c r="C8" s="42"/>
-      <c r="D8" s="43"/>
-      <c r="E8" s="44"/>
-      <c r="F8" s="58"/>
-      <c r="G8" s="43"/>
-      <c r="H8" s="43"/>
-      <c r="I8" s="60"/>
-      <c r="J8" s="45"/>
-      <c r="K8" s="46"/>
-      <c r="L8" s="45"/>
-      <c r="M8" s="45"/>
-      <c r="N8" s="1"/>
-      <c r="O8" s="45"/>
-      <c r="P8" s="1"/>
-      <c r="Q8" s="3"/>
-      <c r="R8" s="43"/>
+      <c r="B8" s="42">
+        <v>44253</v>
+      </c>
+      <c r="C8" s="42">
+        <v>44264</v>
+      </c>
+      <c r="D8" s="43" t="s">
+        <v>69</v>
+      </c>
+      <c r="E8" s="44">
+        <v>868183033787784</v>
+      </c>
+      <c r="F8" s="43"/>
+      <c r="G8" s="43" t="s">
+        <v>64</v>
+      </c>
+      <c r="H8" s="58"/>
+      <c r="I8" s="60" t="s">
+        <v>83</v>
+      </c>
+      <c r="J8" s="45" t="s">
+        <v>82</v>
+      </c>
+      <c r="K8" s="48" t="s">
+        <v>81</v>
+      </c>
+      <c r="L8" s="45" t="s">
+        <v>78</v>
+      </c>
+      <c r="M8" s="45" t="s">
+        <v>86</v>
+      </c>
+      <c r="N8" s="3"/>
+      <c r="O8" s="45" t="s">
+        <v>87</v>
+      </c>
+      <c r="P8" s="45" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q8" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="R8" s="43" t="s">
+        <v>90</v>
+      </c>
       <c r="S8" s="4"/>
       <c r="T8" s="49"/>
-      <c r="U8" s="72"/>
+      <c r="U8" s="80"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -16256,26 +16548,54 @@
       <c r="A9" s="4">
         <v>4</v>
       </c>
-      <c r="B9" s="42"/>
-      <c r="C9" s="42"/>
-      <c r="D9" s="43"/>
-      <c r="E9" s="44"/>
+      <c r="B9" s="42">
+        <v>44253</v>
+      </c>
+      <c r="C9" s="42">
+        <v>44264</v>
+      </c>
+      <c r="D9" s="43" t="s">
+        <v>69</v>
+      </c>
+      <c r="E9" s="44">
+        <v>868183037783276</v>
+      </c>
       <c r="F9" s="43"/>
-      <c r="G9" s="43"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="60"/>
-      <c r="J9" s="45"/>
-      <c r="K9" s="45"/>
-      <c r="L9" s="45"/>
-      <c r="M9" s="45"/>
-      <c r="N9" s="1"/>
-      <c r="O9" s="45"/>
-      <c r="P9" s="1"/>
-      <c r="Q9" s="3"/>
-      <c r="R9" s="43"/>
+      <c r="G9" s="43" t="s">
+        <v>70</v>
+      </c>
+      <c r="H9" s="58"/>
+      <c r="I9" s="60" t="s">
+        <v>85</v>
+      </c>
+      <c r="J9" s="45" t="s">
+        <v>82</v>
+      </c>
+      <c r="K9" s="45" t="s">
+        <v>84</v>
+      </c>
+      <c r="L9" s="45" t="s">
+        <v>78</v>
+      </c>
+      <c r="M9" s="45" t="s">
+        <v>86</v>
+      </c>
+      <c r="N9" s="3"/>
+      <c r="O9" s="45" t="s">
+        <v>87</v>
+      </c>
+      <c r="P9" s="45" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q9" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="R9" s="43" t="s">
+        <v>90</v>
+      </c>
       <c r="S9" s="4"/>
       <c r="T9" s="49"/>
-      <c r="U9" s="72"/>
+      <c r="U9" s="80"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -16285,16 +16605,34 @@
       <c r="A10" s="4">
         <v>5</v>
       </c>
-      <c r="B10" s="42"/>
-      <c r="C10" s="42"/>
-      <c r="D10" s="43"/>
-      <c r="E10" s="44"/>
+      <c r="B10" s="42">
+        <v>44253</v>
+      </c>
+      <c r="C10" s="42">
+        <v>44264</v>
+      </c>
+      <c r="D10" s="43" t="s">
+        <v>69</v>
+      </c>
+      <c r="E10" s="44">
+        <v>868183038021247</v>
+      </c>
       <c r="F10" s="43"/>
-      <c r="G10" s="43"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="60"/>
-      <c r="J10" s="45"/>
-      <c r="K10" s="1"/>
+      <c r="G10" s="43" t="s">
+        <v>70</v>
+      </c>
+      <c r="H10" s="43" t="s">
+        <v>94</v>
+      </c>
+      <c r="I10" s="60" t="s">
+        <v>80</v>
+      </c>
+      <c r="J10" s="45" t="s">
+        <v>99</v>
+      </c>
+      <c r="K10" s="45" t="s">
+        <v>78</v>
+      </c>
       <c r="L10" s="45"/>
       <c r="M10" s="45"/>
       <c r="N10" s="1"/>
@@ -16304,7 +16642,7 @@
       <c r="R10" s="43"/>
       <c r="S10" s="4"/>
       <c r="T10" s="49"/>
-      <c r="U10" s="72"/>
+      <c r="U10" s="80"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -16314,18 +16652,36 @@
       <c r="A11" s="4">
         <v>6</v>
       </c>
-      <c r="B11" s="42"/>
-      <c r="C11" s="42"/>
-      <c r="D11" s="43"/>
-      <c r="E11" s="44"/>
+      <c r="B11" s="42">
+        <v>44253</v>
+      </c>
+      <c r="C11" s="42">
+        <v>44264</v>
+      </c>
+      <c r="D11" s="43" t="s">
+        <v>69</v>
+      </c>
+      <c r="E11" s="44">
+        <v>868183034664677</v>
+      </c>
       <c r="F11" s="43"/>
-      <c r="G11" s="43"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="45"/>
-      <c r="J11" s="45"/>
-      <c r="K11" s="1"/>
+      <c r="G11" s="43" t="s">
+        <v>64</v>
+      </c>
+      <c r="H11" s="58"/>
+      <c r="I11" s="60" t="s">
+        <v>79</v>
+      </c>
+      <c r="J11" s="45" t="s">
+        <v>91</v>
+      </c>
+      <c r="K11" s="45" t="s">
+        <v>78</v>
+      </c>
       <c r="L11" s="45"/>
-      <c r="M11" s="45"/>
+      <c r="M11" s="45" t="s">
+        <v>102</v>
+      </c>
       <c r="N11" s="1"/>
       <c r="O11" s="45"/>
       <c r="P11" s="1"/>
@@ -16333,7 +16689,7 @@
       <c r="R11" s="43"/>
       <c r="S11" s="4"/>
       <c r="T11" s="49"/>
-      <c r="U11" s="72"/>
+      <c r="U11" s="80"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -16343,26 +16699,54 @@
       <c r="A12" s="4">
         <v>7</v>
       </c>
-      <c r="B12" s="42"/>
-      <c r="C12" s="42"/>
-      <c r="D12" s="43"/>
-      <c r="E12" s="44"/>
+      <c r="B12" s="42">
+        <v>44253</v>
+      </c>
+      <c r="C12" s="42">
+        <v>44264</v>
+      </c>
+      <c r="D12" s="43" t="s">
+        <v>69</v>
+      </c>
+      <c r="E12" s="44">
+        <v>868183038037698</v>
+      </c>
       <c r="F12" s="43"/>
-      <c r="G12" s="43"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="45"/>
-      <c r="K12" s="1"/>
+      <c r="G12" s="43" t="s">
+        <v>70</v>
+      </c>
+      <c r="H12" s="43" t="s">
+        <v>94</v>
+      </c>
+      <c r="I12" s="60" t="s">
+        <v>80</v>
+      </c>
+      <c r="J12" s="45" t="s">
+        <v>92</v>
+      </c>
+      <c r="K12" s="45" t="s">
+        <v>78</v>
+      </c>
       <c r="L12" s="45"/>
-      <c r="M12" s="45"/>
+      <c r="M12" s="45" t="s">
+        <v>93</v>
+      </c>
       <c r="N12" s="1"/>
-      <c r="O12" s="45"/>
-      <c r="P12" s="1"/>
-      <c r="Q12" s="4"/>
-      <c r="R12" s="43"/>
+      <c r="O12" s="45" t="s">
+        <v>87</v>
+      </c>
+      <c r="P12" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q12" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="R12" s="43" t="s">
+        <v>21</v>
+      </c>
       <c r="S12" s="4"/>
       <c r="T12" s="49"/>
-      <c r="U12" s="71" t="s">
+      <c r="U12" s="79" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -16374,26 +16758,52 @@
       <c r="A13" s="4">
         <v>8</v>
       </c>
-      <c r="B13" s="42"/>
-      <c r="C13" s="42"/>
-      <c r="D13" s="43"/>
-      <c r="E13" s="44"/>
+      <c r="B13" s="42">
+        <v>44253</v>
+      </c>
+      <c r="C13" s="42">
+        <v>44264</v>
+      </c>
+      <c r="D13" s="43" t="s">
+        <v>69</v>
+      </c>
+      <c r="E13" s="44">
+        <v>868183037875023</v>
+      </c>
       <c r="F13" s="43"/>
-      <c r="G13" s="43"/>
-      <c r="H13" s="15"/>
-      <c r="I13" s="45"/>
-      <c r="J13" s="1"/>
+      <c r="G13" s="43" t="s">
+        <v>70</v>
+      </c>
+      <c r="H13" s="43" t="s">
+        <v>71</v>
+      </c>
+      <c r="I13" s="67" t="s">
+        <v>112</v>
+      </c>
+      <c r="J13" s="45"/>
       <c r="K13" s="1"/>
-      <c r="L13" s="45"/>
-      <c r="M13" s="1"/>
+      <c r="L13" s="45" t="s">
+        <v>78</v>
+      </c>
+      <c r="M13" s="45" t="s">
+        <v>113</v>
+      </c>
       <c r="N13" s="1"/>
-      <c r="O13" s="45"/>
-      <c r="P13" s="1"/>
-      <c r="Q13" s="3"/>
-      <c r="R13" s="11"/>
+      <c r="O13" s="45" t="s">
+        <v>87</v>
+      </c>
+      <c r="P13" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q13" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="R13" s="43" t="s">
+        <v>114</v>
+      </c>
       <c r="S13" s="4"/>
       <c r="T13" s="49"/>
-      <c r="U13" s="72"/>
+      <c r="U13" s="80"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -16403,26 +16813,54 @@
       <c r="A14" s="4">
         <v>9</v>
       </c>
-      <c r="B14" s="42"/>
-      <c r="C14" s="42"/>
-      <c r="D14" s="43"/>
-      <c r="E14" s="44"/>
+      <c r="B14" s="42">
+        <v>44253</v>
+      </c>
+      <c r="C14" s="42">
+        <v>44264</v>
+      </c>
+      <c r="D14" s="43" t="s">
+        <v>69</v>
+      </c>
+      <c r="E14" s="44">
+        <v>868183037830325</v>
+      </c>
       <c r="F14" s="43"/>
-      <c r="G14" s="43"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="45"/>
+      <c r="G14" s="43" t="s">
+        <v>70</v>
+      </c>
+      <c r="H14" s="43" t="s">
+        <v>71</v>
+      </c>
+      <c r="I14" s="67" t="s">
+        <v>112</v>
+      </c>
       <c r="J14" s="45"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="45"/>
-      <c r="M14" s="45"/>
+      <c r="K14" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="L14" s="45" t="s">
+        <v>78</v>
+      </c>
+      <c r="M14" s="45" t="s">
+        <v>113</v>
+      </c>
       <c r="N14" s="1"/>
-      <c r="O14" s="45"/>
-      <c r="P14" s="1"/>
-      <c r="Q14" s="4"/>
-      <c r="R14" s="43"/>
+      <c r="O14" s="45" t="s">
+        <v>87</v>
+      </c>
+      <c r="P14" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q14" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="R14" s="43" t="s">
+        <v>114</v>
+      </c>
       <c r="S14" s="4"/>
       <c r="T14" s="49"/>
-      <c r="U14" s="72"/>
+      <c r="U14" s="80"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -16432,26 +16870,38 @@
       <c r="A15" s="4">
         <v>10</v>
       </c>
-      <c r="B15" s="42"/>
-      <c r="C15" s="42"/>
-      <c r="D15" s="43"/>
-      <c r="E15" s="44"/>
+      <c r="B15" s="42">
+        <v>44253</v>
+      </c>
+      <c r="C15" s="42">
+        <v>44264</v>
+      </c>
+      <c r="D15" s="43" t="s">
+        <v>69</v>
+      </c>
+      <c r="E15" s="44">
+        <v>868183038074188</v>
+      </c>
       <c r="F15" s="43"/>
-      <c r="G15" s="43"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="45"/>
+      <c r="G15" s="43" t="s">
+        <v>70</v>
+      </c>
+      <c r="H15" s="43" t="s">
+        <v>71</v>
+      </c>
+      <c r="I15" s="60"/>
+      <c r="J15" s="1"/>
       <c r="K15" s="1"/>
       <c r="L15" s="45"/>
-      <c r="M15" s="45"/>
+      <c r="M15" s="1"/>
       <c r="N15" s="1"/>
       <c r="O15" s="45"/>
       <c r="P15" s="1"/>
-      <c r="Q15" s="4"/>
-      <c r="R15" s="43"/>
+      <c r="Q15" s="3"/>
+      <c r="R15" s="11"/>
       <c r="S15" s="4"/>
       <c r="T15" s="16"/>
-      <c r="U15" s="72"/>
+      <c r="U15" s="80"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -16461,15 +16911,27 @@
       <c r="A16" s="4">
         <v>11</v>
       </c>
-      <c r="B16" s="42"/>
-      <c r="C16" s="42"/>
-      <c r="D16" s="43"/>
-      <c r="E16" s="44"/>
+      <c r="B16" s="42">
+        <v>44253</v>
+      </c>
+      <c r="C16" s="42">
+        <v>44264</v>
+      </c>
+      <c r="D16" s="43" t="s">
+        <v>69</v>
+      </c>
+      <c r="E16" s="44">
+        <v>868183038056235</v>
+      </c>
       <c r="F16" s="43"/>
-      <c r="G16" s="43"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
+      <c r="G16" s="43" t="s">
+        <v>70</v>
+      </c>
+      <c r="H16" s="43" t="s">
+        <v>71</v>
+      </c>
+      <c r="I16" s="60"/>
+      <c r="J16" s="45"/>
       <c r="K16" s="1"/>
       <c r="L16" s="45"/>
       <c r="M16" s="45"/>
@@ -16480,7 +16942,7 @@
       <c r="R16" s="43"/>
       <c r="S16" s="4"/>
       <c r="T16" s="16"/>
-      <c r="U16" s="73"/>
+      <c r="U16" s="81"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -16490,23 +16952,51 @@
       <c r="A17" s="4">
         <v>12</v>
       </c>
-      <c r="B17" s="42"/>
-      <c r="C17" s="42"/>
-      <c r="D17" s="43"/>
-      <c r="E17" s="44"/>
+      <c r="B17" s="42">
+        <v>44253</v>
+      </c>
+      <c r="C17" s="42">
+        <v>44264</v>
+      </c>
+      <c r="D17" s="43" t="s">
+        <v>69</v>
+      </c>
+      <c r="E17" s="44">
+        <v>868183037847568</v>
+      </c>
       <c r="F17" s="43"/>
-      <c r="G17" s="43"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="45"/>
+      <c r="G17" s="43" t="s">
+        <v>70</v>
+      </c>
+      <c r="H17" s="43" t="s">
+        <v>71</v>
+      </c>
+      <c r="I17" s="67" t="s">
+        <v>112</v>
+      </c>
       <c r="J17" s="45"/>
-      <c r="K17" s="1"/>
-      <c r="L17" s="1"/>
-      <c r="M17" s="45"/>
+      <c r="K17" s="45" t="s">
+        <v>84</v>
+      </c>
+      <c r="L17" s="45" t="s">
+        <v>78</v>
+      </c>
+      <c r="M17" s="45" t="s">
+        <v>113</v>
+      </c>
       <c r="N17" s="1"/>
-      <c r="O17" s="45"/>
-      <c r="P17" s="1"/>
-      <c r="Q17" s="4"/>
-      <c r="R17" s="43"/>
+      <c r="O17" s="45" t="s">
+        <v>87</v>
+      </c>
+      <c r="P17" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q17" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="R17" s="43" t="s">
+        <v>114</v>
+      </c>
       <c r="S17" s="4"/>
       <c r="T17" s="16"/>
       <c r="U17" s="49"/>
@@ -16517,23 +17007,51 @@
       <c r="A18" s="4">
         <v>13</v>
       </c>
-      <c r="B18" s="10"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="43"/>
-      <c r="E18" s="44"/>
+      <c r="B18" s="42">
+        <v>44253</v>
+      </c>
+      <c r="C18" s="42">
+        <v>44264</v>
+      </c>
+      <c r="D18" s="43" t="s">
+        <v>69</v>
+      </c>
+      <c r="E18" s="44">
+        <v>868183038056185</v>
+      </c>
       <c r="F18" s="43"/>
-      <c r="G18" s="43"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
+      <c r="G18" s="43" t="s">
+        <v>70</v>
+      </c>
+      <c r="H18" s="43" t="s">
+        <v>71</v>
+      </c>
+      <c r="I18" s="67" t="s">
+        <v>112</v>
+      </c>
       <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
-      <c r="L18" s="1"/>
-      <c r="M18" s="11"/>
+      <c r="K18" s="45" t="s">
+        <v>84</v>
+      </c>
+      <c r="L18" s="45" t="s">
+        <v>78</v>
+      </c>
+      <c r="M18" s="45" t="s">
+        <v>113</v>
+      </c>
       <c r="N18" s="1"/>
-      <c r="O18" s="45"/>
-      <c r="P18" s="1"/>
-      <c r="Q18" s="4"/>
-      <c r="R18" s="11"/>
+      <c r="O18" s="45" t="s">
+        <v>87</v>
+      </c>
+      <c r="P18" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q18" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="R18" s="43" t="s">
+        <v>114</v>
+      </c>
       <c r="S18" s="4"/>
       <c r="T18" s="16"/>
       <c r="U18" s="16"/>
@@ -16544,23 +17062,51 @@
       <c r="A19" s="4">
         <v>14</v>
       </c>
-      <c r="B19" s="10"/>
-      <c r="C19" s="10"/>
-      <c r="D19" s="43"/>
-      <c r="E19" s="44"/>
+      <c r="B19" s="42">
+        <v>44253</v>
+      </c>
+      <c r="C19" s="42">
+        <v>44264</v>
+      </c>
+      <c r="D19" s="43" t="s">
+        <v>69</v>
+      </c>
+      <c r="E19" s="44">
+        <v>868183037874414</v>
+      </c>
       <c r="F19" s="43"/>
-      <c r="G19" s="43"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
-      <c r="L19" s="1"/>
-      <c r="M19" s="1"/>
+      <c r="G19" s="43" t="s">
+        <v>70</v>
+      </c>
+      <c r="H19" s="43" t="s">
+        <v>71</v>
+      </c>
+      <c r="I19" s="60" t="s">
+        <v>115</v>
+      </c>
+      <c r="J19" s="45"/>
+      <c r="K19" s="45" t="s">
+        <v>84</v>
+      </c>
+      <c r="L19" s="45" t="s">
+        <v>78</v>
+      </c>
+      <c r="M19" s="45" t="s">
+        <v>113</v>
+      </c>
       <c r="N19" s="1"/>
-      <c r="O19" s="45"/>
-      <c r="P19" s="1"/>
-      <c r="Q19" s="4"/>
-      <c r="R19" s="11"/>
+      <c r="O19" s="45" t="s">
+        <v>87</v>
+      </c>
+      <c r="P19" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q19" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="R19" s="43" t="s">
+        <v>114</v>
+      </c>
       <c r="S19" s="4"/>
       <c r="T19" s="16"/>
       <c r="U19" s="50" t="s">
@@ -16575,23 +17121,51 @@
       <c r="A20" s="4">
         <v>15</v>
       </c>
-      <c r="B20" s="10"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="43"/>
-      <c r="E20" s="44"/>
+      <c r="B20" s="42">
+        <v>44253</v>
+      </c>
+      <c r="C20" s="42">
+        <v>44264</v>
+      </c>
+      <c r="D20" s="43" t="s">
+        <v>69</v>
+      </c>
+      <c r="E20" s="44">
+        <v>868183038086448</v>
+      </c>
       <c r="F20" s="43"/>
-      <c r="G20" s="43"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
+      <c r="G20" s="43" t="s">
+        <v>70</v>
+      </c>
+      <c r="H20" s="43" t="s">
+        <v>71</v>
+      </c>
+      <c r="I20" s="67" t="s">
+        <v>116</v>
+      </c>
       <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
-      <c r="L20" s="1"/>
-      <c r="M20" s="1"/>
+      <c r="K20" s="45" t="s">
+        <v>84</v>
+      </c>
+      <c r="L20" s="45" t="s">
+        <v>78</v>
+      </c>
+      <c r="M20" s="45" t="s">
+        <v>113</v>
+      </c>
       <c r="N20" s="1"/>
-      <c r="O20" s="45"/>
-      <c r="P20" s="1"/>
-      <c r="Q20" s="4"/>
-      <c r="R20" s="11"/>
+      <c r="O20" s="45" t="s">
+        <v>87</v>
+      </c>
+      <c r="P20" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q20" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="R20" s="43" t="s">
+        <v>114</v>
+      </c>
       <c r="S20" s="4"/>
       <c r="T20" s="16"/>
       <c r="U20" s="11" t="s">
@@ -16599,7 +17173,7 @@
       </c>
       <c r="V20" s="11">
         <f>COUNTIF($Q$6:$Q$51,"PM")</f>
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="W20" s="16"/>
     </row>
@@ -16607,23 +17181,51 @@
       <c r="A21" s="4">
         <v>16</v>
       </c>
-      <c r="B21" s="10"/>
-      <c r="C21" s="10"/>
-      <c r="D21" s="43"/>
-      <c r="E21" s="44"/>
+      <c r="B21" s="42">
+        <v>44253</v>
+      </c>
+      <c r="C21" s="42">
+        <v>44264</v>
+      </c>
+      <c r="D21" s="43" t="s">
+        <v>69</v>
+      </c>
+      <c r="E21" s="63">
+        <v>868183034712468</v>
+      </c>
       <c r="F21" s="43"/>
-      <c r="G21" s="43"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
+      <c r="G21" s="43" t="s">
+        <v>70</v>
+      </c>
+      <c r="H21" s="43" t="s">
+        <v>71</v>
+      </c>
+      <c r="I21" s="67" t="s">
+        <v>112</v>
+      </c>
       <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
-      <c r="L21" s="1"/>
-      <c r="M21" s="1"/>
+      <c r="K21" s="45" t="s">
+        <v>84</v>
+      </c>
+      <c r="L21" s="45" t="s">
+        <v>78</v>
+      </c>
+      <c r="M21" s="45" t="s">
+        <v>113</v>
+      </c>
       <c r="N21" s="1"/>
-      <c r="O21" s="45"/>
-      <c r="P21" s="1"/>
-      <c r="Q21" s="4"/>
-      <c r="R21" s="11"/>
+      <c r="O21" s="45" t="s">
+        <v>87</v>
+      </c>
+      <c r="P21" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q21" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="R21" s="43" t="s">
+        <v>114</v>
+      </c>
       <c r="S21" s="4"/>
       <c r="T21" s="16"/>
       <c r="U21" s="11" t="s">
@@ -16631,7 +17233,7 @@
       </c>
       <c r="V21" s="11">
         <f>COUNTIF($Q$6:$Q$51,"PC")</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="W21" s="16"/>
     </row>
@@ -16639,23 +17241,51 @@
       <c r="A22" s="4">
         <v>17</v>
       </c>
-      <c r="B22" s="10"/>
-      <c r="C22" s="10"/>
-      <c r="D22" s="43"/>
-      <c r="E22" s="44"/>
+      <c r="B22" s="42">
+        <v>44253</v>
+      </c>
+      <c r="C22" s="42">
+        <v>44264</v>
+      </c>
+      <c r="D22" s="43" t="s">
+        <v>69</v>
+      </c>
+      <c r="E22" s="44">
+        <v>868183038042425</v>
+      </c>
       <c r="F22" s="43"/>
-      <c r="G22" s="43"/>
-      <c r="H22" s="11"/>
-      <c r="I22" s="1"/>
-      <c r="J22" s="11"/>
-      <c r="K22" s="11"/>
-      <c r="L22" s="1"/>
-      <c r="M22" s="11"/>
-      <c r="N22" s="11"/>
-      <c r="O22" s="45"/>
-      <c r="P22" s="11"/>
-      <c r="Q22" s="4"/>
-      <c r="R22" s="11"/>
+      <c r="G22" s="43" t="s">
+        <v>70</v>
+      </c>
+      <c r="H22" s="43" t="s">
+        <v>71</v>
+      </c>
+      <c r="I22" s="67" t="s">
+        <v>112</v>
+      </c>
+      <c r="J22" s="1"/>
+      <c r="K22" s="45" t="s">
+        <v>84</v>
+      </c>
+      <c r="L22" s="45" t="s">
+        <v>78</v>
+      </c>
+      <c r="M22" s="45" t="s">
+        <v>113</v>
+      </c>
+      <c r="N22" s="1"/>
+      <c r="O22" s="45" t="s">
+        <v>87</v>
+      </c>
+      <c r="P22" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q22" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="R22" s="43" t="s">
+        <v>114</v>
+      </c>
       <c r="S22" s="4"/>
       <c r="T22" s="16"/>
       <c r="U22" s="11" t="s">
@@ -16663,7 +17293,7 @@
       </c>
       <c r="V22" s="11">
         <f>COUNTIF($Q$6:$Q$51,"PC+PM")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W22" s="16"/>
     </row>
@@ -16671,23 +17301,51 @@
       <c r="A23" s="4">
         <v>18</v>
       </c>
-      <c r="B23" s="10"/>
-      <c r="C23" s="10"/>
-      <c r="D23" s="43"/>
-      <c r="E23" s="44"/>
+      <c r="B23" s="42">
+        <v>44253</v>
+      </c>
+      <c r="C23" s="42">
+        <v>44264</v>
+      </c>
+      <c r="D23" s="43" t="s">
+        <v>69</v>
+      </c>
+      <c r="E23" s="44">
+        <v>868183034571948</v>
+      </c>
       <c r="F23" s="43"/>
-      <c r="G23" s="43"/>
-      <c r="H23" s="11"/>
-      <c r="I23" s="1"/>
+      <c r="G23" s="43" t="s">
+        <v>70</v>
+      </c>
+      <c r="H23" s="43" t="s">
+        <v>71</v>
+      </c>
+      <c r="I23" s="67" t="s">
+        <v>112</v>
+      </c>
       <c r="J23" s="1"/>
-      <c r="K23" s="11"/>
-      <c r="L23" s="11"/>
-      <c r="M23" s="11"/>
-      <c r="N23" s="11"/>
-      <c r="O23" s="45"/>
-      <c r="P23" s="11"/>
-      <c r="Q23" s="4"/>
-      <c r="R23" s="11"/>
+      <c r="K23" s="45" t="s">
+        <v>117</v>
+      </c>
+      <c r="L23" s="45" t="s">
+        <v>78</v>
+      </c>
+      <c r="M23" s="45" t="s">
+        <v>113</v>
+      </c>
+      <c r="N23" s="1"/>
+      <c r="O23" s="45" t="s">
+        <v>87</v>
+      </c>
+      <c r="P23" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q23" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="R23" s="43" t="s">
+        <v>114</v>
+      </c>
       <c r="S23" s="4"/>
       <c r="T23" s="16"/>
       <c r="U23" s="16"/>
@@ -16698,23 +17356,49 @@
       <c r="A24" s="4">
         <v>19</v>
       </c>
-      <c r="B24" s="10"/>
-      <c r="C24" s="10"/>
-      <c r="D24" s="43"/>
-      <c r="E24" s="44"/>
+      <c r="B24" s="42">
+        <v>44253</v>
+      </c>
+      <c r="C24" s="42">
+        <v>44264</v>
+      </c>
+      <c r="D24" s="43" t="s">
+        <v>69</v>
+      </c>
+      <c r="E24" s="44">
+        <v>868183038034679</v>
+      </c>
       <c r="F24" s="43"/>
-      <c r="G24" s="43"/>
-      <c r="H24" s="11"/>
-      <c r="I24" s="1"/>
-      <c r="J24" s="1"/>
-      <c r="K24" s="11"/>
-      <c r="L24" s="11"/>
-      <c r="M24" s="11"/>
-      <c r="N24" s="11"/>
-      <c r="O24" s="45"/>
-      <c r="P24" s="11"/>
-      <c r="Q24" s="4"/>
-      <c r="R24" s="11"/>
+      <c r="G24" s="43" t="s">
+        <v>70</v>
+      </c>
+      <c r="H24" s="43" t="s">
+        <v>71</v>
+      </c>
+      <c r="I24" s="67"/>
+      <c r="J24" s="11"/>
+      <c r="K24" s="45" t="s">
+        <v>84</v>
+      </c>
+      <c r="L24" s="45" t="s">
+        <v>78</v>
+      </c>
+      <c r="M24" s="45" t="s">
+        <v>113</v>
+      </c>
+      <c r="N24" s="1"/>
+      <c r="O24" s="45" t="s">
+        <v>87</v>
+      </c>
+      <c r="P24" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q24" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="R24" s="43" t="s">
+        <v>114</v>
+      </c>
       <c r="S24" s="4"/>
       <c r="T24" s="16"/>
       <c r="U24" s="16"/>
@@ -16725,23 +17409,41 @@
       <c r="A25" s="4">
         <v>20</v>
       </c>
-      <c r="B25" s="10"/>
-      <c r="C25" s="10"/>
-      <c r="D25" s="43"/>
-      <c r="E25" s="44"/>
+      <c r="B25" s="42">
+        <v>44253</v>
+      </c>
+      <c r="C25" s="42">
+        <v>44264</v>
+      </c>
+      <c r="D25" s="43" t="s">
+        <v>63</v>
+      </c>
+      <c r="E25" s="44">
+        <v>861693037610086</v>
+      </c>
       <c r="F25" s="43"/>
-      <c r="G25" s="43"/>
-      <c r="H25" s="11"/>
-      <c r="I25" s="1"/>
-      <c r="J25" s="1"/>
-      <c r="K25" s="11"/>
-      <c r="L25" s="11"/>
-      <c r="M25" s="11"/>
-      <c r="N25" s="11"/>
+      <c r="G25" s="43" t="s">
+        <v>64</v>
+      </c>
+      <c r="H25" s="43"/>
+      <c r="I25" s="59"/>
+      <c r="J25" s="45" t="s">
+        <v>111</v>
+      </c>
+      <c r="K25" s="48"/>
+      <c r="L25" s="45"/>
+      <c r="M25" s="45"/>
+      <c r="N25" s="47"/>
       <c r="O25" s="45"/>
-      <c r="P25" s="11"/>
-      <c r="Q25" s="4"/>
-      <c r="R25" s="11"/>
+      <c r="P25" s="45" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q25" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="R25" s="43" t="s">
+        <v>21</v>
+      </c>
       <c r="S25" s="4"/>
       <c r="T25" s="16"/>
       <c r="U25" s="50" t="s">
@@ -16756,23 +17458,45 @@
       <c r="A26" s="4">
         <v>21</v>
       </c>
-      <c r="B26" s="10"/>
-      <c r="C26" s="10"/>
-      <c r="D26" s="43"/>
-      <c r="E26" s="44"/>
+      <c r="B26" s="42">
+        <v>44253</v>
+      </c>
+      <c r="C26" s="42">
+        <v>44264</v>
+      </c>
+      <c r="D26" s="43" t="s">
+        <v>65</v>
+      </c>
+      <c r="E26" s="44">
+        <v>864161026901582</v>
+      </c>
       <c r="F26" s="43"/>
-      <c r="G26" s="43"/>
-      <c r="H26" s="11"/>
-      <c r="I26" s="1"/>
-      <c r="J26" s="1"/>
-      <c r="K26" s="11"/>
-      <c r="L26" s="11"/>
-      <c r="M26" s="11"/>
-      <c r="N26" s="11"/>
+      <c r="G26" s="43" t="s">
+        <v>64</v>
+      </c>
+      <c r="H26" s="43"/>
+      <c r="I26" s="59" t="s">
+        <v>104</v>
+      </c>
+      <c r="J26" s="45" t="s">
+        <v>105</v>
+      </c>
+      <c r="K26" s="48"/>
+      <c r="L26" s="45" t="s">
+        <v>103</v>
+      </c>
+      <c r="M26" s="45"/>
+      <c r="N26" s="47"/>
       <c r="O26" s="45"/>
-      <c r="P26" s="11"/>
-      <c r="Q26" s="4"/>
-      <c r="R26" s="11"/>
+      <c r="P26" s="45" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q26" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="R26" s="43" t="s">
+        <v>21</v>
+      </c>
       <c r="S26" s="4"/>
       <c r="T26" s="16"/>
       <c r="U26" s="4" t="s">
@@ -16788,23 +17512,41 @@
       <c r="A27" s="4">
         <v>22</v>
       </c>
-      <c r="B27" s="10"/>
-      <c r="C27" s="10"/>
-      <c r="D27" s="43"/>
-      <c r="E27" s="44"/>
+      <c r="B27" s="42">
+        <v>44253</v>
+      </c>
+      <c r="C27" s="42">
+        <v>44264</v>
+      </c>
+      <c r="D27" s="43" t="s">
+        <v>65</v>
+      </c>
+      <c r="E27" s="44">
+        <v>865904020081524</v>
+      </c>
       <c r="F27" s="43"/>
-      <c r="G27" s="43"/>
-      <c r="H27" s="11"/>
-      <c r="I27" s="1"/>
-      <c r="J27" s="1"/>
-      <c r="K27" s="11"/>
-      <c r="L27" s="11"/>
-      <c r="M27" s="11"/>
-      <c r="N27" s="11"/>
+      <c r="G27" s="43" t="s">
+        <v>64</v>
+      </c>
+      <c r="H27" s="43"/>
+      <c r="I27" s="60"/>
+      <c r="J27" s="45" t="s">
+        <v>110</v>
+      </c>
+      <c r="K27" s="1"/>
+      <c r="L27" s="45"/>
+      <c r="M27" s="45"/>
+      <c r="N27" s="3"/>
       <c r="O27" s="45"/>
-      <c r="P27" s="11"/>
-      <c r="Q27" s="4"/>
-      <c r="R27" s="11"/>
+      <c r="P27" s="45" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q27" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="R27" s="43" t="s">
+        <v>31</v>
+      </c>
       <c r="S27" s="4"/>
       <c r="T27" s="16"/>
       <c r="U27" s="4" t="s">
@@ -16812,7 +17554,7 @@
       </c>
       <c r="V27" s="11">
         <f>COUNTIF($R$6:$R$51,"*GSM*")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W27" s="16"/>
     </row>
@@ -16820,23 +17562,39 @@
       <c r="A28" s="4">
         <v>23</v>
       </c>
-      <c r="B28" s="10"/>
-      <c r="C28" s="10"/>
-      <c r="D28" s="43"/>
-      <c r="E28" s="44"/>
-      <c r="F28" s="43"/>
-      <c r="G28" s="43"/>
-      <c r="H28" s="1"/>
-      <c r="I28" s="1"/>
-      <c r="J28" s="1"/>
-      <c r="K28" s="1"/>
-      <c r="L28" s="11"/>
-      <c r="M28" s="11"/>
-      <c r="N28" s="1"/>
+      <c r="B28" s="42">
+        <v>44253</v>
+      </c>
+      <c r="C28" s="42">
+        <v>44264</v>
+      </c>
+      <c r="D28" s="43" t="s">
+        <v>72</v>
+      </c>
+      <c r="E28" s="44" t="s">
+        <v>73</v>
+      </c>
+      <c r="F28" s="58"/>
+      <c r="G28" s="43" t="s">
+        <v>64</v>
+      </c>
+      <c r="H28" s="43"/>
+      <c r="I28" s="59"/>
+      <c r="J28" s="45"/>
+      <c r="K28" s="48"/>
+      <c r="L28" s="45"/>
+      <c r="M28" s="45"/>
+      <c r="N28" s="47"/>
       <c r="O28" s="45"/>
-      <c r="P28" s="11"/>
-      <c r="Q28" s="4"/>
-      <c r="R28" s="11"/>
+      <c r="P28" s="45" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q28" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="R28" s="43" t="s">
+        <v>30</v>
+      </c>
       <c r="S28" s="4"/>
       <c r="T28" s="16"/>
       <c r="U28" s="4" t="s">
@@ -16844,7 +17602,7 @@
       </c>
       <c r="V28" s="11">
         <f>COUNTIF($R$6:$R$51,"*GPS*")</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="W28" s="16"/>
     </row>
@@ -16852,23 +17610,47 @@
       <c r="A29" s="4">
         <v>24</v>
       </c>
-      <c r="B29" s="10"/>
-      <c r="C29" s="10"/>
-      <c r="D29" s="43"/>
-      <c r="E29" s="44"/>
+      <c r="B29" s="42">
+        <v>44253</v>
+      </c>
+      <c r="C29" s="42">
+        <v>44264</v>
+      </c>
+      <c r="D29" s="43" t="s">
+        <v>67</v>
+      </c>
+      <c r="E29" s="44">
+        <v>86520903436447</v>
+      </c>
       <c r="F29" s="43"/>
-      <c r="G29" s="43"/>
-      <c r="H29" s="1"/>
-      <c r="I29" s="1"/>
-      <c r="J29" s="1"/>
-      <c r="K29" s="1"/>
-      <c r="L29" s="11"/>
-      <c r="M29" s="11"/>
-      <c r="N29" s="1"/>
+      <c r="G29" s="43" t="s">
+        <v>64</v>
+      </c>
+      <c r="H29" s="43"/>
+      <c r="I29" s="59" t="s">
+        <v>101</v>
+      </c>
+      <c r="J29" s="45" t="s">
+        <v>82</v>
+      </c>
+      <c r="K29" s="48" t="s">
+        <v>100</v>
+      </c>
+      <c r="L29" s="45" t="s">
+        <v>97</v>
+      </c>
+      <c r="M29" s="45"/>
+      <c r="N29" s="47"/>
       <c r="O29" s="45"/>
-      <c r="P29" s="11"/>
-      <c r="Q29" s="4"/>
-      <c r="R29" s="11"/>
+      <c r="P29" s="45" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q29" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="R29" s="43" t="s">
+        <v>31</v>
+      </c>
       <c r="S29" s="4"/>
       <c r="T29" s="16"/>
       <c r="U29" s="4" t="s">
@@ -16876,7 +17658,7 @@
       </c>
       <c r="V29" s="11">
         <f>COUNTIF($R$6:$R$51,"*NG*")</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="W29" s="16"/>
     </row>
@@ -16884,23 +17666,49 @@
       <c r="A30" s="4">
         <v>25</v>
       </c>
-      <c r="B30" s="10"/>
-      <c r="C30" s="10"/>
-      <c r="D30" s="11"/>
-      <c r="E30" s="12"/>
-      <c r="F30" s="11"/>
-      <c r="G30" s="11"/>
-      <c r="H30" s="1"/>
-      <c r="I30" s="1"/>
-      <c r="J30" s="1"/>
-      <c r="K30" s="1"/>
-      <c r="L30" s="1"/>
-      <c r="M30" s="1"/>
-      <c r="N30" s="1"/>
-      <c r="O30" s="1"/>
-      <c r="P30" s="1"/>
-      <c r="Q30" s="4"/>
-      <c r="R30" s="11"/>
+      <c r="B30" s="42">
+        <v>44253</v>
+      </c>
+      <c r="C30" s="42">
+        <v>44264</v>
+      </c>
+      <c r="D30" s="43" t="s">
+        <v>67</v>
+      </c>
+      <c r="E30" s="44">
+        <v>863586032937611</v>
+      </c>
+      <c r="F30" s="43"/>
+      <c r="G30" s="43" t="s">
+        <v>64</v>
+      </c>
+      <c r="H30" s="43"/>
+      <c r="I30" s="60" t="s">
+        <v>96</v>
+      </c>
+      <c r="J30" s="45" t="s">
+        <v>99</v>
+      </c>
+      <c r="K30" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="L30" s="45" t="s">
+        <v>97</v>
+      </c>
+      <c r="M30" s="45" t="s">
+        <v>98</v>
+      </c>
+      <c r="N30" s="3"/>
+      <c r="O30" s="45"/>
+      <c r="P30" s="45" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q30" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="R30" s="43" t="s">
+        <v>35</v>
+      </c>
       <c r="S30" s="4"/>
       <c r="T30" s="16"/>
       <c r="U30" s="4" t="s">
@@ -16940,7 +17748,7 @@
       </c>
       <c r="V31" s="11">
         <f>COUNTIF($R$6:$R$51,"*LK*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W31" s="16"/>
     </row>
@@ -17068,7 +17876,7 @@
       </c>
       <c r="V35" s="11">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="W35" s="16"/>
     </row>
@@ -17100,7 +17908,7 @@
       </c>
       <c r="V36" s="11">
         <f>COUNTIF($R$6:$R$51,"*KL*")</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="W36" s="16"/>
     </row>
@@ -17132,7 +17940,7 @@
       </c>
       <c r="V37" s="11">
         <f>SUM(V26:V36)</f>
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="W37" s="16"/>
     </row>
@@ -17485,7 +18293,7 @@
       <c r="S48" s="4"/>
       <c r="T48" s="40">
         <f>COUNTIF(J9:J20,"*GSM*")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U48" s="11" t="s">
         <v>57</v>
@@ -17711,13 +18519,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -17729,6 +18530,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang2/02.XuLyBH/XLBH2102_Techglobal.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang2/02.XuLyBH/XLBH2102_Techglobal.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065" activeTab="2"/>
+    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="TG007S" sheetId="31" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1102" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1104" uniqueCount="130">
   <si>
     <t>STT</t>
   </si>
@@ -432,16 +432,16 @@
     <t>ID mới : 862846048294311</t>
   </si>
   <si>
-    <t>Chờ LK</t>
-  </si>
-  <si>
     <t>ID mới : 862846048307402</t>
   </si>
   <si>
-    <t>Giữ lại</t>
+    <t>Không khắc phục được thiết bị</t>
   </si>
   <si>
-    <t>Không khắc phục được thiết bị</t>
+    <t>Thay module GPS</t>
+  </si>
+  <si>
+    <t>Thiết bị không có lk thay thế</t>
   </si>
 </sst>
 </file>
@@ -850,7 +850,22 @@
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -872,21 +887,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1228,43 +1228,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="72" t="s">
+      <c r="A1" s="77" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="72"/>
-      <c r="C1" s="72"/>
-      <c r="D1" s="72"/>
-      <c r="E1" s="72"/>
-      <c r="F1" s="72"/>
-      <c r="G1" s="72"/>
-      <c r="H1" s="72"/>
-      <c r="I1" s="72"/>
-      <c r="J1" s="72"/>
-      <c r="K1" s="72"/>
-      <c r="L1" s="72"/>
-      <c r="M1" s="72"/>
-      <c r="N1" s="72"/>
-      <c r="O1" s="72"/>
-      <c r="P1" s="72"/>
-      <c r="Q1" s="72"/>
-      <c r="R1" s="72"/>
-      <c r="S1" s="72"/>
-      <c r="T1" s="72"/>
-      <c r="U1" s="72"/>
-      <c r="V1" s="72"/>
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="77"/>
+      <c r="I1" s="77"/>
+      <c r="J1" s="77"/>
+      <c r="K1" s="77"/>
+      <c r="L1" s="77"/>
+      <c r="M1" s="77"/>
+      <c r="N1" s="77"/>
+      <c r="O1" s="77"/>
+      <c r="P1" s="77"/>
+      <c r="Q1" s="77"/>
+      <c r="R1" s="77"/>
+      <c r="S1" s="77"/>
+      <c r="T1" s="77"/>
+      <c r="U1" s="77"/>
+      <c r="V1" s="77"/>
       <c r="W1" s="55"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="73" t="s">
+      <c r="A2" s="78" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="74"/>
-      <c r="C2" s="74"/>
-      <c r="D2" s="74"/>
-      <c r="E2" s="75" t="s">
+      <c r="B2" s="79"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="80" t="s">
         <v>61</v>
       </c>
-      <c r="F2" s="75"/>
+      <c r="F2" s="80"/>
       <c r="G2" s="6"/>
       <c r="H2" s="24"/>
       <c r="I2" s="24"/>
@@ -1309,58 +1309,58 @@
       <c r="W3" s="30"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="76" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="71" t="s">
+      <c r="A4" s="81" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="75" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="71"/>
-      <c r="D4" s="71"/>
-      <c r="E4" s="71"/>
-      <c r="F4" s="71"/>
-      <c r="G4" s="71"/>
-      <c r="H4" s="71"/>
-      <c r="I4" s="71"/>
-      <c r="J4" s="71" t="s">
+      <c r="C4" s="75"/>
+      <c r="D4" s="75"/>
+      <c r="E4" s="75"/>
+      <c r="F4" s="75"/>
+      <c r="G4" s="75"/>
+      <c r="H4" s="75"/>
+      <c r="I4" s="75"/>
+      <c r="J4" s="75" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="71" t="s">
+      <c r="K4" s="75" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="71"/>
-      <c r="M4" s="77" t="s">
+      <c r="L4" s="75"/>
+      <c r="M4" s="82" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="77" t="s">
+      <c r="N4" s="82" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="71" t="s">
+      <c r="O4" s="75" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="82" t="s">
+      <c r="P4" s="74" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="71" t="s">
+      <c r="Q4" s="75" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="71" t="s">
+      <c r="R4" s="75" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="83" t="s">
+      <c r="S4" s="76" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="30"/>
-      <c r="U4" s="71" t="s">
+      <c r="U4" s="75" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="71" t="s">
+      <c r="V4" s="75" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="56"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="76"/>
+      <c r="A5" s="81"/>
       <c r="B5" s="62" t="s">
         <v>1</v>
       </c>
@@ -1385,23 +1385,23 @@
       <c r="I5" s="62" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="71"/>
+      <c r="J5" s="75"/>
       <c r="K5" s="62" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="62" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="78"/>
-      <c r="N5" s="78"/>
-      <c r="O5" s="71"/>
-      <c r="P5" s="82"/>
-      <c r="Q5" s="71"/>
-      <c r="R5" s="71"/>
-      <c r="S5" s="83"/>
+      <c r="M5" s="83"/>
+      <c r="N5" s="83"/>
+      <c r="O5" s="75"/>
+      <c r="P5" s="74"/>
+      <c r="Q5" s="75"/>
+      <c r="R5" s="75"/>
+      <c r="S5" s="76"/>
       <c r="T5" s="30"/>
-      <c r="U5" s="71"/>
-      <c r="V5" s="71"/>
+      <c r="U5" s="75"/>
+      <c r="V5" s="75"/>
       <c r="W5" s="56"/>
     </row>
     <row r="6" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1457,7 +1457,7 @@
       </c>
       <c r="S6" s="4"/>
       <c r="T6" s="61"/>
-      <c r="U6" s="79" t="s">
+      <c r="U6" s="71" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -1520,7 +1520,7 @@
       </c>
       <c r="S7" s="4"/>
       <c r="T7" s="61"/>
-      <c r="U7" s="80"/>
+      <c r="U7" s="72"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -1549,7 +1549,7 @@
       <c r="R8" s="43"/>
       <c r="S8" s="4"/>
       <c r="T8" s="61"/>
-      <c r="U8" s="80"/>
+      <c r="U8" s="72"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -1578,7 +1578,7 @@
       <c r="R9" s="43"/>
       <c r="S9" s="4"/>
       <c r="T9" s="61"/>
-      <c r="U9" s="80"/>
+      <c r="U9" s="72"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -1607,7 +1607,7 @@
       <c r="R10" s="43"/>
       <c r="S10" s="4"/>
       <c r="T10" s="61"/>
-      <c r="U10" s="80"/>
+      <c r="U10" s="72"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -1636,7 +1636,7 @@
       <c r="R11" s="43"/>
       <c r="S11" s="4"/>
       <c r="T11" s="61"/>
-      <c r="U11" s="80"/>
+      <c r="U11" s="72"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -1665,7 +1665,7 @@
       <c r="R12" s="43"/>
       <c r="S12" s="4"/>
       <c r="T12" s="61"/>
-      <c r="U12" s="79" t="s">
+      <c r="U12" s="71" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -1696,7 +1696,7 @@
       <c r="R13" s="11"/>
       <c r="S13" s="4"/>
       <c r="T13" s="61"/>
-      <c r="U13" s="80"/>
+      <c r="U13" s="72"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -1725,7 +1725,7 @@
       <c r="R14" s="43"/>
       <c r="S14" s="4"/>
       <c r="T14" s="61"/>
-      <c r="U14" s="80"/>
+      <c r="U14" s="72"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -1754,7 +1754,7 @@
       <c r="R15" s="43"/>
       <c r="S15" s="4"/>
       <c r="T15" s="16"/>
-      <c r="U15" s="80"/>
+      <c r="U15" s="72"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -1783,7 +1783,7 @@
       <c r="R16" s="43"/>
       <c r="S16" s="4"/>
       <c r="T16" s="16"/>
-      <c r="U16" s="81"/>
+      <c r="U16" s="73"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -3014,13 +3014,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -3032,6 +3025,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3075,43 +3075,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="72" t="s">
+      <c r="A1" s="77" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="72"/>
-      <c r="C1" s="72"/>
-      <c r="D1" s="72"/>
-      <c r="E1" s="72"/>
-      <c r="F1" s="72"/>
-      <c r="G1" s="72"/>
-      <c r="H1" s="72"/>
-      <c r="I1" s="72"/>
-      <c r="J1" s="72"/>
-      <c r="K1" s="72"/>
-      <c r="L1" s="72"/>
-      <c r="M1" s="72"/>
-      <c r="N1" s="72"/>
-      <c r="O1" s="72"/>
-      <c r="P1" s="72"/>
-      <c r="Q1" s="72"/>
-      <c r="R1" s="72"/>
-      <c r="S1" s="72"/>
-      <c r="T1" s="72"/>
-      <c r="U1" s="72"/>
-      <c r="V1" s="72"/>
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="77"/>
+      <c r="I1" s="77"/>
+      <c r="J1" s="77"/>
+      <c r="K1" s="77"/>
+      <c r="L1" s="77"/>
+      <c r="M1" s="77"/>
+      <c r="N1" s="77"/>
+      <c r="O1" s="77"/>
+      <c r="P1" s="77"/>
+      <c r="Q1" s="77"/>
+      <c r="R1" s="77"/>
+      <c r="S1" s="77"/>
+      <c r="T1" s="77"/>
+      <c r="U1" s="77"/>
+      <c r="V1" s="77"/>
       <c r="W1" s="55"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="73" t="s">
+      <c r="A2" s="78" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="74"/>
-      <c r="C2" s="74"/>
-      <c r="D2" s="74"/>
-      <c r="E2" s="75" t="s">
+      <c r="B2" s="79"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="80" t="s">
         <v>61</v>
       </c>
-      <c r="F2" s="75"/>
+      <c r="F2" s="80"/>
       <c r="G2" s="6"/>
       <c r="H2" s="24"/>
       <c r="I2" s="24"/>
@@ -3156,58 +3156,58 @@
       <c r="W3" s="30"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="76" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="71" t="s">
+      <c r="A4" s="81" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="75" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="71"/>
-      <c r="D4" s="71"/>
-      <c r="E4" s="71"/>
-      <c r="F4" s="71"/>
-      <c r="G4" s="71"/>
-      <c r="H4" s="71"/>
-      <c r="I4" s="71"/>
-      <c r="J4" s="71" t="s">
+      <c r="C4" s="75"/>
+      <c r="D4" s="75"/>
+      <c r="E4" s="75"/>
+      <c r="F4" s="75"/>
+      <c r="G4" s="75"/>
+      <c r="H4" s="75"/>
+      <c r="I4" s="75"/>
+      <c r="J4" s="75" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="71" t="s">
+      <c r="K4" s="75" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="71"/>
-      <c r="M4" s="77" t="s">
+      <c r="L4" s="75"/>
+      <c r="M4" s="82" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="77" t="s">
+      <c r="N4" s="82" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="71" t="s">
+      <c r="O4" s="75" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="82" t="s">
+      <c r="P4" s="74" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="71" t="s">
+      <c r="Q4" s="75" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="71" t="s">
+      <c r="R4" s="75" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="83" t="s">
+      <c r="S4" s="76" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="30"/>
-      <c r="U4" s="71" t="s">
+      <c r="U4" s="75" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="71" t="s">
+      <c r="V4" s="75" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="56"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="76"/>
+      <c r="A5" s="81"/>
       <c r="B5" s="5" t="s">
         <v>1</v>
       </c>
@@ -3232,23 +3232,23 @@
       <c r="I5" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="71"/>
+      <c r="J5" s="75"/>
       <c r="K5" s="5" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="78"/>
-      <c r="N5" s="78"/>
-      <c r="O5" s="71"/>
-      <c r="P5" s="82"/>
-      <c r="Q5" s="71"/>
-      <c r="R5" s="71"/>
-      <c r="S5" s="83"/>
+      <c r="M5" s="83"/>
+      <c r="N5" s="83"/>
+      <c r="O5" s="75"/>
+      <c r="P5" s="74"/>
+      <c r="Q5" s="75"/>
+      <c r="R5" s="75"/>
+      <c r="S5" s="76"/>
       <c r="T5" s="30"/>
-      <c r="U5" s="71"/>
-      <c r="V5" s="71"/>
+      <c r="U5" s="75"/>
+      <c r="V5" s="75"/>
       <c r="W5" s="56"/>
     </row>
     <row r="6" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3298,7 +3298,7 @@
       </c>
       <c r="S6" s="4"/>
       <c r="T6" s="13"/>
-      <c r="U6" s="79" t="s">
+      <c r="U6" s="71" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -3329,7 +3329,7 @@
       <c r="R7" s="43"/>
       <c r="S7" s="4"/>
       <c r="T7" s="13"/>
-      <c r="U7" s="80"/>
+      <c r="U7" s="72"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -3358,7 +3358,7 @@
       <c r="R8" s="43"/>
       <c r="S8" s="4"/>
       <c r="T8" s="13"/>
-      <c r="U8" s="80"/>
+      <c r="U8" s="72"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -3387,7 +3387,7 @@
       <c r="R9" s="43"/>
       <c r="S9" s="4"/>
       <c r="T9" s="23"/>
-      <c r="U9" s="80"/>
+      <c r="U9" s="72"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -3416,7 +3416,7 @@
       <c r="R10" s="43"/>
       <c r="S10" s="4"/>
       <c r="T10" s="32"/>
-      <c r="U10" s="80"/>
+      <c r="U10" s="72"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -3445,7 +3445,7 @@
       <c r="R11" s="43"/>
       <c r="S11" s="4"/>
       <c r="T11" s="13"/>
-      <c r="U11" s="80"/>
+      <c r="U11" s="72"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -3474,7 +3474,7 @@
       <c r="R12" s="43"/>
       <c r="S12" s="4"/>
       <c r="T12" s="13"/>
-      <c r="U12" s="79" t="s">
+      <c r="U12" s="71" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -3505,7 +3505,7 @@
       <c r="R13" s="11"/>
       <c r="S13" s="4"/>
       <c r="T13" s="13"/>
-      <c r="U13" s="80"/>
+      <c r="U13" s="72"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -3534,7 +3534,7 @@
       <c r="R14" s="43"/>
       <c r="S14" s="4"/>
       <c r="T14" s="13"/>
-      <c r="U14" s="80"/>
+      <c r="U14" s="72"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -3563,7 +3563,7 @@
       <c r="R15" s="43"/>
       <c r="S15" s="4"/>
       <c r="T15" s="16"/>
-      <c r="U15" s="80"/>
+      <c r="U15" s="72"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -3592,7 +3592,7 @@
       <c r="R16" s="43"/>
       <c r="S16" s="4"/>
       <c r="T16" s="16"/>
-      <c r="U16" s="81"/>
+      <c r="U16" s="73"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -4823,11 +4823,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="K4:L4"/>
     <mergeCell ref="O4:O5"/>
     <mergeCell ref="P4:P5"/>
@@ -4841,6 +4836,11 @@
     <mergeCell ref="B4:I4"/>
     <mergeCell ref="J4:J5"/>
     <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4851,7 +4851,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView showZeros="0" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
@@ -4884,43 +4884,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="72" t="s">
+      <c r="A1" s="77" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="72"/>
-      <c r="C1" s="72"/>
-      <c r="D1" s="72"/>
-      <c r="E1" s="72"/>
-      <c r="F1" s="72"/>
-      <c r="G1" s="72"/>
-      <c r="H1" s="72"/>
-      <c r="I1" s="72"/>
-      <c r="J1" s="72"/>
-      <c r="K1" s="72"/>
-      <c r="L1" s="72"/>
-      <c r="M1" s="72"/>
-      <c r="N1" s="72"/>
-      <c r="O1" s="72"/>
-      <c r="P1" s="72"/>
-      <c r="Q1" s="72"/>
-      <c r="R1" s="72"/>
-      <c r="S1" s="72"/>
-      <c r="T1" s="72"/>
-      <c r="U1" s="72"/>
-      <c r="V1" s="72"/>
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="77"/>
+      <c r="I1" s="77"/>
+      <c r="J1" s="77"/>
+      <c r="K1" s="77"/>
+      <c r="L1" s="77"/>
+      <c r="M1" s="77"/>
+      <c r="N1" s="77"/>
+      <c r="O1" s="77"/>
+      <c r="P1" s="77"/>
+      <c r="Q1" s="77"/>
+      <c r="R1" s="77"/>
+      <c r="S1" s="77"/>
+      <c r="T1" s="77"/>
+      <c r="U1" s="77"/>
+      <c r="V1" s="77"/>
       <c r="W1" s="55"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="73" t="s">
+      <c r="A2" s="78" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="74"/>
-      <c r="C2" s="74"/>
-      <c r="D2" s="74"/>
-      <c r="E2" s="75" t="s">
+      <c r="B2" s="79"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="80" t="s">
         <v>61</v>
       </c>
-      <c r="F2" s="75"/>
+      <c r="F2" s="80"/>
       <c r="G2" s="6"/>
       <c r="H2" s="24"/>
       <c r="I2" s="24"/>
@@ -4965,58 +4965,58 @@
       <c r="W3" s="30"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="76" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="71" t="s">
+      <c r="A4" s="81" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="75" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="71"/>
-      <c r="D4" s="71"/>
-      <c r="E4" s="71"/>
-      <c r="F4" s="71"/>
-      <c r="G4" s="71"/>
-      <c r="H4" s="71"/>
-      <c r="I4" s="71"/>
-      <c r="J4" s="71" t="s">
+      <c r="C4" s="75"/>
+      <c r="D4" s="75"/>
+      <c r="E4" s="75"/>
+      <c r="F4" s="75"/>
+      <c r="G4" s="75"/>
+      <c r="H4" s="75"/>
+      <c r="I4" s="75"/>
+      <c r="J4" s="75" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="71" t="s">
+      <c r="K4" s="75" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="71"/>
-      <c r="M4" s="77" t="s">
+      <c r="L4" s="75"/>
+      <c r="M4" s="82" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="77" t="s">
+      <c r="N4" s="82" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="71" t="s">
+      <c r="O4" s="75" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="82" t="s">
+      <c r="P4" s="74" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="71" t="s">
+      <c r="Q4" s="75" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="71" t="s">
+      <c r="R4" s="75" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="83" t="s">
+      <c r="S4" s="76" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="30"/>
-      <c r="U4" s="71" t="s">
+      <c r="U4" s="75" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="71" t="s">
+      <c r="V4" s="75" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="56"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="76"/>
+      <c r="A5" s="81"/>
       <c r="B5" s="62" t="s">
         <v>1</v>
       </c>
@@ -5041,23 +5041,23 @@
       <c r="I5" s="62" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="71"/>
+      <c r="J5" s="75"/>
       <c r="K5" s="62" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="62" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="78"/>
-      <c r="N5" s="78"/>
-      <c r="O5" s="71"/>
-      <c r="P5" s="82"/>
-      <c r="Q5" s="71"/>
-      <c r="R5" s="71"/>
-      <c r="S5" s="83"/>
+      <c r="M5" s="83"/>
+      <c r="N5" s="83"/>
+      <c r="O5" s="75"/>
+      <c r="P5" s="74"/>
+      <c r="Q5" s="75"/>
+      <c r="R5" s="75"/>
+      <c r="S5" s="76"/>
       <c r="T5" s="30"/>
-      <c r="U5" s="71"/>
-      <c r="V5" s="71"/>
+      <c r="U5" s="75"/>
+      <c r="V5" s="75"/>
       <c r="W5" s="56"/>
     </row>
     <row r="6" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -5086,7 +5086,7 @@
       <c r="K6" s="48"/>
       <c r="L6" s="45"/>
       <c r="M6" s="45" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="N6" s="47"/>
       <c r="O6" s="45" t="s">
@@ -5103,7 +5103,7 @@
       </c>
       <c r="S6" s="4"/>
       <c r="T6" s="61"/>
-      <c r="U6" s="79" t="s">
+      <c r="U6" s="71" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -5134,7 +5134,7 @@
       <c r="R7" s="43"/>
       <c r="S7" s="4"/>
       <c r="T7" s="61"/>
-      <c r="U7" s="80"/>
+      <c r="U7" s="72"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -5163,7 +5163,7 @@
       <c r="R8" s="43"/>
       <c r="S8" s="4"/>
       <c r="T8" s="61"/>
-      <c r="U8" s="80"/>
+      <c r="U8" s="72"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -5192,7 +5192,7 @@
       <c r="R9" s="43"/>
       <c r="S9" s="4"/>
       <c r="T9" s="61"/>
-      <c r="U9" s="80"/>
+      <c r="U9" s="72"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -5221,7 +5221,7 @@
       <c r="R10" s="43"/>
       <c r="S10" s="4"/>
       <c r="T10" s="61"/>
-      <c r="U10" s="80"/>
+      <c r="U10" s="72"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -5250,7 +5250,7 @@
       <c r="R11" s="43"/>
       <c r="S11" s="4"/>
       <c r="T11" s="61"/>
-      <c r="U11" s="80"/>
+      <c r="U11" s="72"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -5279,7 +5279,7 @@
       <c r="R12" s="43"/>
       <c r="S12" s="4"/>
       <c r="T12" s="61"/>
-      <c r="U12" s="79" t="s">
+      <c r="U12" s="71" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -5310,7 +5310,7 @@
       <c r="R13" s="11"/>
       <c r="S13" s="4"/>
       <c r="T13" s="61"/>
-      <c r="U13" s="80"/>
+      <c r="U13" s="72"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -5339,7 +5339,7 @@
       <c r="R14" s="43"/>
       <c r="S14" s="4"/>
       <c r="T14" s="61"/>
-      <c r="U14" s="80"/>
+      <c r="U14" s="72"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -5368,7 +5368,7 @@
       <c r="R15" s="43"/>
       <c r="S15" s="4"/>
       <c r="T15" s="16"/>
-      <c r="U15" s="80"/>
+      <c r="U15" s="72"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -5397,7 +5397,7 @@
       <c r="R16" s="43"/>
       <c r="S16" s="4"/>
       <c r="T16" s="16"/>
-      <c r="U16" s="81"/>
+      <c r="U16" s="73"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -6628,13 +6628,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -6646,6 +6639,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -6656,8 +6656,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="J7" sqref="J6:J7"/>
+    <sheetView showZeros="0" tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="E20" sqref="A19:E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -6689,43 +6689,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="72" t="s">
+      <c r="A1" s="77" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="72"/>
-      <c r="C1" s="72"/>
-      <c r="D1" s="72"/>
-      <c r="E1" s="72"/>
-      <c r="F1" s="72"/>
-      <c r="G1" s="72"/>
-      <c r="H1" s="72"/>
-      <c r="I1" s="72"/>
-      <c r="J1" s="72"/>
-      <c r="K1" s="72"/>
-      <c r="L1" s="72"/>
-      <c r="M1" s="72"/>
-      <c r="N1" s="72"/>
-      <c r="O1" s="72"/>
-      <c r="P1" s="72"/>
-      <c r="Q1" s="72"/>
-      <c r="R1" s="72"/>
-      <c r="S1" s="72"/>
-      <c r="T1" s="72"/>
-      <c r="U1" s="72"/>
-      <c r="V1" s="72"/>
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="77"/>
+      <c r="I1" s="77"/>
+      <c r="J1" s="77"/>
+      <c r="K1" s="77"/>
+      <c r="L1" s="77"/>
+      <c r="M1" s="77"/>
+      <c r="N1" s="77"/>
+      <c r="O1" s="77"/>
+      <c r="P1" s="77"/>
+      <c r="Q1" s="77"/>
+      <c r="R1" s="77"/>
+      <c r="S1" s="77"/>
+      <c r="T1" s="77"/>
+      <c r="U1" s="77"/>
+      <c r="V1" s="77"/>
       <c r="W1" s="55"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="73" t="s">
+      <c r="A2" s="78" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="74"/>
-      <c r="C2" s="74"/>
-      <c r="D2" s="74"/>
-      <c r="E2" s="75" t="s">
+      <c r="B2" s="79"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="80" t="s">
         <v>61</v>
       </c>
-      <c r="F2" s="75"/>
+      <c r="F2" s="80"/>
       <c r="G2" s="6"/>
       <c r="H2" s="24"/>
       <c r="I2" s="24"/>
@@ -6770,58 +6770,58 @@
       <c r="W3" s="30"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="76" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="71" t="s">
+      <c r="A4" s="81" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="75" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="71"/>
-      <c r="D4" s="71"/>
-      <c r="E4" s="71"/>
-      <c r="F4" s="71"/>
-      <c r="G4" s="71"/>
-      <c r="H4" s="71"/>
-      <c r="I4" s="71"/>
-      <c r="J4" s="71" t="s">
+      <c r="C4" s="75"/>
+      <c r="D4" s="75"/>
+      <c r="E4" s="75"/>
+      <c r="F4" s="75"/>
+      <c r="G4" s="75"/>
+      <c r="H4" s="75"/>
+      <c r="I4" s="75"/>
+      <c r="J4" s="75" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="71" t="s">
+      <c r="K4" s="75" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="71"/>
-      <c r="M4" s="77" t="s">
+      <c r="L4" s="75"/>
+      <c r="M4" s="82" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="77" t="s">
+      <c r="N4" s="82" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="71" t="s">
+      <c r="O4" s="75" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="82" t="s">
+      <c r="P4" s="74" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="71" t="s">
+      <c r="Q4" s="75" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="71" t="s">
+      <c r="R4" s="75" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="83" t="s">
+      <c r="S4" s="76" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="30"/>
-      <c r="U4" s="71" t="s">
+      <c r="U4" s="75" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="71" t="s">
+      <c r="V4" s="75" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="56"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="76"/>
+      <c r="A5" s="81"/>
       <c r="B5" s="62" t="s">
         <v>1</v>
       </c>
@@ -6846,23 +6846,23 @@
       <c r="I5" s="62" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="71"/>
+      <c r="J5" s="75"/>
       <c r="K5" s="62" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="62" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="78"/>
-      <c r="N5" s="78"/>
-      <c r="O5" s="71"/>
-      <c r="P5" s="82"/>
-      <c r="Q5" s="71"/>
-      <c r="R5" s="71"/>
-      <c r="S5" s="83"/>
+      <c r="M5" s="83"/>
+      <c r="N5" s="83"/>
+      <c r="O5" s="75"/>
+      <c r="P5" s="74"/>
+      <c r="Q5" s="75"/>
+      <c r="R5" s="75"/>
+      <c r="S5" s="76"/>
       <c r="T5" s="30"/>
-      <c r="U5" s="71"/>
-      <c r="V5" s="71"/>
+      <c r="U5" s="75"/>
+      <c r="V5" s="75"/>
       <c r="W5" s="56"/>
     </row>
     <row r="6" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -6872,7 +6872,9 @@
       <c r="B6" s="42">
         <v>44253</v>
       </c>
-      <c r="C6" s="42"/>
+      <c r="C6" s="42">
+        <v>44294</v>
+      </c>
       <c r="D6" s="43" t="s">
         <v>65</v>
       </c>
@@ -6888,17 +6890,19 @@
         <v>104</v>
       </c>
       <c r="J6" s="45" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="K6" s="48"/>
       <c r="L6" s="45" t="s">
         <v>103</v>
       </c>
       <c r="M6" s="45" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="N6" s="47"/>
-      <c r="O6" s="45"/>
+      <c r="O6" s="45" t="s">
+        <v>119</v>
+      </c>
       <c r="P6" s="45" t="s">
         <v>88</v>
       </c>
@@ -6906,11 +6910,11 @@
         <v>18</v>
       </c>
       <c r="R6" s="43" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="S6" s="4"/>
       <c r="T6" s="61"/>
-      <c r="U6" s="79" t="s">
+      <c r="U6" s="71" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -6963,7 +6967,7 @@
       </c>
       <c r="S7" s="4"/>
       <c r="T7" s="61"/>
-      <c r="U7" s="80"/>
+      <c r="U7" s="72"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -6992,7 +6996,7 @@
       <c r="R8" s="43"/>
       <c r="S8" s="4"/>
       <c r="T8" s="61"/>
-      <c r="U8" s="80"/>
+      <c r="U8" s="72"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -7021,7 +7025,7 @@
       <c r="R9" s="43"/>
       <c r="S9" s="4"/>
       <c r="T9" s="61"/>
-      <c r="U9" s="80"/>
+      <c r="U9" s="72"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -7050,7 +7054,7 @@
       <c r="R10" s="43"/>
       <c r="S10" s="4"/>
       <c r="T10" s="61"/>
-      <c r="U10" s="80"/>
+      <c r="U10" s="72"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -7079,7 +7083,7 @@
       <c r="R11" s="43"/>
       <c r="S11" s="4"/>
       <c r="T11" s="61"/>
-      <c r="U11" s="80"/>
+      <c r="U11" s="72"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -7108,7 +7112,7 @@
       <c r="R12" s="43"/>
       <c r="S12" s="4"/>
       <c r="T12" s="61"/>
-      <c r="U12" s="79" t="s">
+      <c r="U12" s="71" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -7139,7 +7143,7 @@
       <c r="R13" s="11"/>
       <c r="S13" s="4"/>
       <c r="T13" s="61"/>
-      <c r="U13" s="80"/>
+      <c r="U13" s="72"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -7168,7 +7172,7 @@
       <c r="R14" s="43"/>
       <c r="S14" s="4"/>
       <c r="T14" s="61"/>
-      <c r="U14" s="80"/>
+      <c r="U14" s="72"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -7197,7 +7201,7 @@
       <c r="R15" s="43"/>
       <c r="S15" s="4"/>
       <c r="T15" s="16"/>
-      <c r="U15" s="80"/>
+      <c r="U15" s="72"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -7226,7 +7230,7 @@
       <c r="R16" s="43"/>
       <c r="S16" s="4"/>
       <c r="T16" s="16"/>
-      <c r="U16" s="81"/>
+      <c r="U16" s="73"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -7590,7 +7594,7 @@
       </c>
       <c r="V28" s="11">
         <f>COUNTIF($R$6:$R$51,"*GPS*")</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W28" s="16"/>
     </row>
@@ -7622,7 +7626,7 @@
       </c>
       <c r="V29" s="11">
         <f>COUNTIF($R$6:$R$51,"*NG*")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W29" s="16"/>
     </row>
@@ -7996,7 +8000,7 @@
       </c>
       <c r="V41" s="11">
         <f>COUNTIF($O$6:$O$51,"*KS*")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W41" s="16"/>
     </row>
@@ -8457,13 +8461,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -8475,6 +8472,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -8518,43 +8522,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="72" t="s">
+      <c r="A1" s="77" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="72"/>
-      <c r="C1" s="72"/>
-      <c r="D1" s="72"/>
-      <c r="E1" s="72"/>
-      <c r="F1" s="72"/>
-      <c r="G1" s="72"/>
-      <c r="H1" s="72"/>
-      <c r="I1" s="72"/>
-      <c r="J1" s="72"/>
-      <c r="K1" s="72"/>
-      <c r="L1" s="72"/>
-      <c r="M1" s="72"/>
-      <c r="N1" s="72"/>
-      <c r="O1" s="72"/>
-      <c r="P1" s="72"/>
-      <c r="Q1" s="72"/>
-      <c r="R1" s="72"/>
-      <c r="S1" s="72"/>
-      <c r="T1" s="72"/>
-      <c r="U1" s="72"/>
-      <c r="V1" s="72"/>
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="77"/>
+      <c r="I1" s="77"/>
+      <c r="J1" s="77"/>
+      <c r="K1" s="77"/>
+      <c r="L1" s="77"/>
+      <c r="M1" s="77"/>
+      <c r="N1" s="77"/>
+      <c r="O1" s="77"/>
+      <c r="P1" s="77"/>
+      <c r="Q1" s="77"/>
+      <c r="R1" s="77"/>
+      <c r="S1" s="77"/>
+      <c r="T1" s="77"/>
+      <c r="U1" s="77"/>
+      <c r="V1" s="77"/>
       <c r="W1" s="55"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="73" t="s">
+      <c r="A2" s="78" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="74"/>
-      <c r="C2" s="74"/>
-      <c r="D2" s="74"/>
-      <c r="E2" s="75" t="s">
+      <c r="B2" s="79"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="80" t="s">
         <v>61</v>
       </c>
-      <c r="F2" s="75"/>
+      <c r="F2" s="80"/>
       <c r="G2" s="6"/>
       <c r="H2" s="24"/>
       <c r="I2" s="24"/>
@@ -8599,58 +8603,58 @@
       <c r="W3" s="30"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="76" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="71" t="s">
+      <c r="A4" s="81" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="75" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="71"/>
-      <c r="D4" s="71"/>
-      <c r="E4" s="71"/>
-      <c r="F4" s="71"/>
-      <c r="G4" s="71"/>
-      <c r="H4" s="71"/>
-      <c r="I4" s="71"/>
-      <c r="J4" s="71" t="s">
+      <c r="C4" s="75"/>
+      <c r="D4" s="75"/>
+      <c r="E4" s="75"/>
+      <c r="F4" s="75"/>
+      <c r="G4" s="75"/>
+      <c r="H4" s="75"/>
+      <c r="I4" s="75"/>
+      <c r="J4" s="75" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="71" t="s">
+      <c r="K4" s="75" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="71"/>
-      <c r="M4" s="77" t="s">
+      <c r="L4" s="75"/>
+      <c r="M4" s="82" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="77" t="s">
+      <c r="N4" s="82" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="71" t="s">
+      <c r="O4" s="75" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="82" t="s">
+      <c r="P4" s="74" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="71" t="s">
+      <c r="Q4" s="75" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="71" t="s">
+      <c r="R4" s="75" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="83" t="s">
+      <c r="S4" s="76" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="30"/>
-      <c r="U4" s="71" t="s">
+      <c r="U4" s="75" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="71" t="s">
+      <c r="V4" s="75" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="56"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="76"/>
+      <c r="A5" s="81"/>
       <c r="B5" s="62" t="s">
         <v>1</v>
       </c>
@@ -8675,23 +8679,23 @@
       <c r="I5" s="62" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="71"/>
+      <c r="J5" s="75"/>
       <c r="K5" s="62" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="62" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="78"/>
-      <c r="N5" s="78"/>
-      <c r="O5" s="71"/>
-      <c r="P5" s="82"/>
-      <c r="Q5" s="71"/>
-      <c r="R5" s="71"/>
-      <c r="S5" s="83"/>
+      <c r="M5" s="83"/>
+      <c r="N5" s="83"/>
+      <c r="O5" s="75"/>
+      <c r="P5" s="74"/>
+      <c r="Q5" s="75"/>
+      <c r="R5" s="75"/>
+      <c r="S5" s="76"/>
       <c r="T5" s="30"/>
-      <c r="U5" s="71"/>
-      <c r="V5" s="71"/>
+      <c r="U5" s="75"/>
+      <c r="V5" s="75"/>
       <c r="W5" s="56"/>
     </row>
     <row r="6" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -8701,7 +8705,9 @@
       <c r="B6" s="42">
         <v>44253</v>
       </c>
-      <c r="C6" s="42"/>
+      <c r="C6" s="42">
+        <v>44294</v>
+      </c>
       <c r="D6" s="43" t="s">
         <v>63</v>
       </c>
@@ -8722,8 +8728,12 @@
       <c r="M6" s="45" t="s">
         <v>128</v>
       </c>
-      <c r="N6" s="47"/>
-      <c r="O6" s="45"/>
+      <c r="N6" s="47">
+        <v>100000</v>
+      </c>
+      <c r="O6" s="45" t="s">
+        <v>87</v>
+      </c>
       <c r="P6" s="45" t="s">
         <v>88</v>
       </c>
@@ -8735,7 +8745,7 @@
       </c>
       <c r="S6" s="4"/>
       <c r="T6" s="61"/>
-      <c r="U6" s="79" t="s">
+      <c r="U6" s="71" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -8766,7 +8776,7 @@
       <c r="R7" s="43"/>
       <c r="S7" s="4"/>
       <c r="T7" s="61"/>
-      <c r="U7" s="80"/>
+      <c r="U7" s="72"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -8795,7 +8805,7 @@
       <c r="R8" s="43"/>
       <c r="S8" s="4"/>
       <c r="T8" s="61"/>
-      <c r="U8" s="80"/>
+      <c r="U8" s="72"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -8824,7 +8834,7 @@
       <c r="R9" s="43"/>
       <c r="S9" s="4"/>
       <c r="T9" s="61"/>
-      <c r="U9" s="80"/>
+      <c r="U9" s="72"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -8853,7 +8863,7 @@
       <c r="R10" s="43"/>
       <c r="S10" s="4"/>
       <c r="T10" s="61"/>
-      <c r="U10" s="80"/>
+      <c r="U10" s="72"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -8882,7 +8892,7 @@
       <c r="R11" s="43"/>
       <c r="S11" s="4"/>
       <c r="T11" s="61"/>
-      <c r="U11" s="80"/>
+      <c r="U11" s="72"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -8911,7 +8921,7 @@
       <c r="R12" s="43"/>
       <c r="S12" s="4"/>
       <c r="T12" s="61"/>
-      <c r="U12" s="79" t="s">
+      <c r="U12" s="71" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -8942,7 +8952,7 @@
       <c r="R13" s="11"/>
       <c r="S13" s="4"/>
       <c r="T13" s="61"/>
-      <c r="U13" s="80"/>
+      <c r="U13" s="72"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -8971,7 +8981,7 @@
       <c r="R14" s="43"/>
       <c r="S14" s="4"/>
       <c r="T14" s="61"/>
-      <c r="U14" s="80"/>
+      <c r="U14" s="72"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -9000,7 +9010,7 @@
       <c r="R15" s="43"/>
       <c r="S15" s="4"/>
       <c r="T15" s="16"/>
-      <c r="U15" s="80"/>
+      <c r="U15" s="72"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -9029,7 +9039,7 @@
       <c r="R16" s="43"/>
       <c r="S16" s="4"/>
       <c r="T16" s="16"/>
-      <c r="U16" s="81"/>
+      <c r="U16" s="73"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -10260,13 +10270,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -10278,6 +10281,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -10321,43 +10331,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="72" t="s">
+      <c r="A1" s="77" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="72"/>
-      <c r="C1" s="72"/>
-      <c r="D1" s="72"/>
-      <c r="E1" s="72"/>
-      <c r="F1" s="72"/>
-      <c r="G1" s="72"/>
-      <c r="H1" s="72"/>
-      <c r="I1" s="72"/>
-      <c r="J1" s="72"/>
-      <c r="K1" s="72"/>
-      <c r="L1" s="72"/>
-      <c r="M1" s="72"/>
-      <c r="N1" s="72"/>
-      <c r="O1" s="72"/>
-      <c r="P1" s="72"/>
-      <c r="Q1" s="72"/>
-      <c r="R1" s="72"/>
-      <c r="S1" s="72"/>
-      <c r="T1" s="72"/>
-      <c r="U1" s="72"/>
-      <c r="V1" s="72"/>
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="77"/>
+      <c r="I1" s="77"/>
+      <c r="J1" s="77"/>
+      <c r="K1" s="77"/>
+      <c r="L1" s="77"/>
+      <c r="M1" s="77"/>
+      <c r="N1" s="77"/>
+      <c r="O1" s="77"/>
+      <c r="P1" s="77"/>
+      <c r="Q1" s="77"/>
+      <c r="R1" s="77"/>
+      <c r="S1" s="77"/>
+      <c r="T1" s="77"/>
+      <c r="U1" s="77"/>
+      <c r="V1" s="77"/>
       <c r="W1" s="55"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="73" t="s">
+      <c r="A2" s="78" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="74"/>
-      <c r="C2" s="74"/>
-      <c r="D2" s="74"/>
-      <c r="E2" s="75" t="s">
+      <c r="B2" s="79"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="80" t="s">
         <v>61</v>
       </c>
-      <c r="F2" s="75"/>
+      <c r="F2" s="80"/>
       <c r="G2" s="6"/>
       <c r="H2" s="24"/>
       <c r="I2" s="64"/>
@@ -10402,58 +10412,58 @@
       <c r="W3" s="30"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="76" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="71" t="s">
+      <c r="A4" s="81" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="75" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="71"/>
-      <c r="D4" s="71"/>
-      <c r="E4" s="71"/>
-      <c r="F4" s="71"/>
-      <c r="G4" s="71"/>
-      <c r="H4" s="71"/>
-      <c r="I4" s="71"/>
-      <c r="J4" s="71" t="s">
+      <c r="C4" s="75"/>
+      <c r="D4" s="75"/>
+      <c r="E4" s="75"/>
+      <c r="F4" s="75"/>
+      <c r="G4" s="75"/>
+      <c r="H4" s="75"/>
+      <c r="I4" s="75"/>
+      <c r="J4" s="75" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="71" t="s">
+      <c r="K4" s="75" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="71"/>
-      <c r="M4" s="77" t="s">
+      <c r="L4" s="75"/>
+      <c r="M4" s="82" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="77" t="s">
+      <c r="N4" s="82" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="71" t="s">
+      <c r="O4" s="75" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="82" t="s">
+      <c r="P4" s="74" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="71" t="s">
+      <c r="Q4" s="75" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="71" t="s">
+      <c r="R4" s="75" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="83" t="s">
+      <c r="S4" s="76" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="30"/>
-      <c r="U4" s="71" t="s">
+      <c r="U4" s="75" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="71" t="s">
+      <c r="V4" s="75" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="56"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="76"/>
+      <c r="A5" s="81"/>
       <c r="B5" s="62" t="s">
         <v>1</v>
       </c>
@@ -10478,23 +10488,23 @@
       <c r="I5" s="66" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="71"/>
+      <c r="J5" s="75"/>
       <c r="K5" s="62" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="62" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="78"/>
-      <c r="N5" s="78"/>
-      <c r="O5" s="71"/>
-      <c r="P5" s="82"/>
-      <c r="Q5" s="71"/>
-      <c r="R5" s="71"/>
-      <c r="S5" s="83"/>
+      <c r="M5" s="83"/>
+      <c r="N5" s="83"/>
+      <c r="O5" s="75"/>
+      <c r="P5" s="74"/>
+      <c r="Q5" s="75"/>
+      <c r="R5" s="75"/>
+      <c r="S5" s="76"/>
       <c r="T5" s="30"/>
-      <c r="U5" s="71"/>
-      <c r="V5" s="71"/>
+      <c r="U5" s="75"/>
+      <c r="V5" s="75"/>
       <c r="W5" s="56"/>
     </row>
     <row r="6" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -10548,7 +10558,7 @@
       </c>
       <c r="S6" s="4"/>
       <c r="T6" s="61"/>
-      <c r="U6" s="79" t="s">
+      <c r="U6" s="71" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -10607,7 +10617,7 @@
       </c>
       <c r="S7" s="4"/>
       <c r="T7" s="61"/>
-      <c r="U7" s="80"/>
+      <c r="U7" s="72"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -10656,7 +10666,7 @@
       <c r="R8" s="43"/>
       <c r="S8" s="4"/>
       <c r="T8" s="61"/>
-      <c r="U8" s="80"/>
+      <c r="U8" s="72"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -10711,7 +10721,7 @@
       </c>
       <c r="S9" s="4"/>
       <c r="T9" s="61"/>
-      <c r="U9" s="80"/>
+      <c r="U9" s="72"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -10768,7 +10778,7 @@
       </c>
       <c r="S10" s="4"/>
       <c r="T10" s="61"/>
-      <c r="U10" s="80"/>
+      <c r="U10" s="72"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -10823,7 +10833,7 @@
       </c>
       <c r="S11" s="4"/>
       <c r="T11" s="61"/>
-      <c r="U11" s="80"/>
+      <c r="U11" s="72"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -10880,7 +10890,7 @@
       </c>
       <c r="S12" s="4"/>
       <c r="T12" s="61"/>
-      <c r="U12" s="79" t="s">
+      <c r="U12" s="71" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -10939,7 +10949,7 @@
       </c>
       <c r="S13" s="4"/>
       <c r="T13" s="61"/>
-      <c r="U13" s="80"/>
+      <c r="U13" s="72"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -10996,7 +11006,7 @@
       </c>
       <c r="S14" s="4"/>
       <c r="T14" s="61"/>
-      <c r="U14" s="80"/>
+      <c r="U14" s="72"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -11053,7 +11063,7 @@
       </c>
       <c r="S15" s="4"/>
       <c r="T15" s="16"/>
-      <c r="U15" s="80"/>
+      <c r="U15" s="72"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -11110,7 +11120,7 @@
       </c>
       <c r="S16" s="4"/>
       <c r="T16" s="16"/>
-      <c r="U16" s="81"/>
+      <c r="U16" s="73"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -12512,13 +12522,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -12530,6 +12533,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -12573,43 +12583,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="72" t="s">
+      <c r="A1" s="77" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="72"/>
-      <c r="C1" s="72"/>
-      <c r="D1" s="72"/>
-      <c r="E1" s="72"/>
-      <c r="F1" s="72"/>
-      <c r="G1" s="72"/>
-      <c r="H1" s="72"/>
-      <c r="I1" s="72"/>
-      <c r="J1" s="72"/>
-      <c r="K1" s="72"/>
-      <c r="L1" s="72"/>
-      <c r="M1" s="72"/>
-      <c r="N1" s="72"/>
-      <c r="O1" s="72"/>
-      <c r="P1" s="72"/>
-      <c r="Q1" s="72"/>
-      <c r="R1" s="72"/>
-      <c r="S1" s="72"/>
-      <c r="T1" s="72"/>
-      <c r="U1" s="72"/>
-      <c r="V1" s="72"/>
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="77"/>
+      <c r="I1" s="77"/>
+      <c r="J1" s="77"/>
+      <c r="K1" s="77"/>
+      <c r="L1" s="77"/>
+      <c r="M1" s="77"/>
+      <c r="N1" s="77"/>
+      <c r="O1" s="77"/>
+      <c r="P1" s="77"/>
+      <c r="Q1" s="77"/>
+      <c r="R1" s="77"/>
+      <c r="S1" s="77"/>
+      <c r="T1" s="77"/>
+      <c r="U1" s="77"/>
+      <c r="V1" s="77"/>
       <c r="W1" s="55"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="73" t="s">
+      <c r="A2" s="78" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="74"/>
-      <c r="C2" s="74"/>
-      <c r="D2" s="74"/>
-      <c r="E2" s="75" t="s">
+      <c r="B2" s="79"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="80" t="s">
         <v>61</v>
       </c>
-      <c r="F2" s="75"/>
+      <c r="F2" s="80"/>
       <c r="G2" s="6"/>
       <c r="H2" s="24"/>
       <c r="I2" s="24"/>
@@ -12654,58 +12664,58 @@
       <c r="W3" s="30"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="76" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="71" t="s">
+      <c r="A4" s="81" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="75" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="71"/>
-      <c r="D4" s="71"/>
-      <c r="E4" s="71"/>
-      <c r="F4" s="71"/>
-      <c r="G4" s="71"/>
-      <c r="H4" s="71"/>
-      <c r="I4" s="71"/>
-      <c r="J4" s="71" t="s">
+      <c r="C4" s="75"/>
+      <c r="D4" s="75"/>
+      <c r="E4" s="75"/>
+      <c r="F4" s="75"/>
+      <c r="G4" s="75"/>
+      <c r="H4" s="75"/>
+      <c r="I4" s="75"/>
+      <c r="J4" s="75" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="71" t="s">
+      <c r="K4" s="75" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="71"/>
-      <c r="M4" s="77" t="s">
+      <c r="L4" s="75"/>
+      <c r="M4" s="82" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="77" t="s">
+      <c r="N4" s="82" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="71" t="s">
+      <c r="O4" s="75" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="82" t="s">
+      <c r="P4" s="74" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="71" t="s">
+      <c r="Q4" s="75" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="71" t="s">
+      <c r="R4" s="75" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="83" t="s">
+      <c r="S4" s="76" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="30"/>
-      <c r="U4" s="71" t="s">
+      <c r="U4" s="75" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="71" t="s">
+      <c r="V4" s="75" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="56"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="76"/>
+      <c r="A5" s="81"/>
       <c r="B5" s="50" t="s">
         <v>1</v>
       </c>
@@ -12730,23 +12740,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="71"/>
+      <c r="J5" s="75"/>
       <c r="K5" s="50" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="78"/>
-      <c r="N5" s="78"/>
-      <c r="O5" s="71"/>
-      <c r="P5" s="82"/>
-      <c r="Q5" s="71"/>
-      <c r="R5" s="71"/>
-      <c r="S5" s="83"/>
+      <c r="M5" s="83"/>
+      <c r="N5" s="83"/>
+      <c r="O5" s="75"/>
+      <c r="P5" s="74"/>
+      <c r="Q5" s="75"/>
+      <c r="R5" s="75"/>
+      <c r="S5" s="76"/>
       <c r="T5" s="30"/>
-      <c r="U5" s="71"/>
-      <c r="V5" s="71"/>
+      <c r="U5" s="75"/>
+      <c r="V5" s="75"/>
       <c r="W5" s="56"/>
     </row>
     <row r="6" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -12798,7 +12808,7 @@
       </c>
       <c r="S6" s="4"/>
       <c r="T6" s="49"/>
-      <c r="U6" s="79" t="s">
+      <c r="U6" s="71" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -12829,7 +12839,7 @@
       <c r="R7" s="43"/>
       <c r="S7" s="4"/>
       <c r="T7" s="49"/>
-      <c r="U7" s="80"/>
+      <c r="U7" s="72"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -12858,7 +12868,7 @@
       <c r="R8" s="43"/>
       <c r="S8" s="4"/>
       <c r="T8" s="49"/>
-      <c r="U8" s="80"/>
+      <c r="U8" s="72"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -12887,7 +12897,7 @@
       <c r="R9" s="43"/>
       <c r="S9" s="4"/>
       <c r="T9" s="49"/>
-      <c r="U9" s="80"/>
+      <c r="U9" s="72"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -12916,7 +12926,7 @@
       <c r="R10" s="43"/>
       <c r="S10" s="4"/>
       <c r="T10" s="49"/>
-      <c r="U10" s="80"/>
+      <c r="U10" s="72"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -12945,7 +12955,7 @@
       <c r="R11" s="43"/>
       <c r="S11" s="4"/>
       <c r="T11" s="49"/>
-      <c r="U11" s="80"/>
+      <c r="U11" s="72"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -12974,7 +12984,7 @@
       <c r="R12" s="43"/>
       <c r="S12" s="4"/>
       <c r="T12" s="49"/>
-      <c r="U12" s="79" t="s">
+      <c r="U12" s="71" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -13005,7 +13015,7 @@
       <c r="R13" s="11"/>
       <c r="S13" s="4"/>
       <c r="T13" s="49"/>
-      <c r="U13" s="80"/>
+      <c r="U13" s="72"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -13034,7 +13044,7 @@
       <c r="R14" s="43"/>
       <c r="S14" s="4"/>
       <c r="T14" s="49"/>
-      <c r="U14" s="80"/>
+      <c r="U14" s="72"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -13063,7 +13073,7 @@
       <c r="R15" s="43"/>
       <c r="S15" s="4"/>
       <c r="T15" s="16"/>
-      <c r="U15" s="80"/>
+      <c r="U15" s="72"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -13092,7 +13102,7 @@
       <c r="R16" s="43"/>
       <c r="S16" s="4"/>
       <c r="T16" s="16"/>
-      <c r="U16" s="81"/>
+      <c r="U16" s="73"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -14323,6 +14333,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -14334,13 +14351,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -14384,43 +14394,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="72" t="s">
+      <c r="A1" s="77" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="72"/>
-      <c r="C1" s="72"/>
-      <c r="D1" s="72"/>
-      <c r="E1" s="72"/>
-      <c r="F1" s="72"/>
-      <c r="G1" s="72"/>
-      <c r="H1" s="72"/>
-      <c r="I1" s="72"/>
-      <c r="J1" s="72"/>
-      <c r="K1" s="72"/>
-      <c r="L1" s="72"/>
-      <c r="M1" s="72"/>
-      <c r="N1" s="72"/>
-      <c r="O1" s="72"/>
-      <c r="P1" s="72"/>
-      <c r="Q1" s="72"/>
-      <c r="R1" s="72"/>
-      <c r="S1" s="72"/>
-      <c r="T1" s="72"/>
-      <c r="U1" s="72"/>
-      <c r="V1" s="72"/>
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="77"/>
+      <c r="I1" s="77"/>
+      <c r="J1" s="77"/>
+      <c r="K1" s="77"/>
+      <c r="L1" s="77"/>
+      <c r="M1" s="77"/>
+      <c r="N1" s="77"/>
+      <c r="O1" s="77"/>
+      <c r="P1" s="77"/>
+      <c r="Q1" s="77"/>
+      <c r="R1" s="77"/>
+      <c r="S1" s="77"/>
+      <c r="T1" s="77"/>
+      <c r="U1" s="77"/>
+      <c r="V1" s="77"/>
       <c r="W1" s="55"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="73" t="s">
+      <c r="A2" s="78" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="74"/>
-      <c r="C2" s="74"/>
-      <c r="D2" s="74"/>
-      <c r="E2" s="75" t="s">
+      <c r="B2" s="79"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="80" t="s">
         <v>61</v>
       </c>
-      <c r="F2" s="75"/>
+      <c r="F2" s="80"/>
       <c r="G2" s="6"/>
       <c r="H2" s="24"/>
       <c r="I2" s="24"/>
@@ -14465,58 +14475,58 @@
       <c r="W3" s="30"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="76" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="71" t="s">
+      <c r="A4" s="81" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="75" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="71"/>
-      <c r="D4" s="71"/>
-      <c r="E4" s="71"/>
-      <c r="F4" s="71"/>
-      <c r="G4" s="71"/>
-      <c r="H4" s="71"/>
-      <c r="I4" s="71"/>
-      <c r="J4" s="71" t="s">
+      <c r="C4" s="75"/>
+      <c r="D4" s="75"/>
+      <c r="E4" s="75"/>
+      <c r="F4" s="75"/>
+      <c r="G4" s="75"/>
+      <c r="H4" s="75"/>
+      <c r="I4" s="75"/>
+      <c r="J4" s="75" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="71" t="s">
+      <c r="K4" s="75" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="71"/>
-      <c r="M4" s="77" t="s">
+      <c r="L4" s="75"/>
+      <c r="M4" s="82" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="77" t="s">
+      <c r="N4" s="82" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="71" t="s">
+      <c r="O4" s="75" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="82" t="s">
+      <c r="P4" s="74" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="71" t="s">
+      <c r="Q4" s="75" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="71" t="s">
+      <c r="R4" s="75" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="83" t="s">
+      <c r="S4" s="76" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="30"/>
-      <c r="U4" s="71" t="s">
+      <c r="U4" s="75" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="71" t="s">
+      <c r="V4" s="75" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="56"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="76"/>
+      <c r="A5" s="81"/>
       <c r="B5" s="53" t="s">
         <v>1</v>
       </c>
@@ -14541,23 +14551,23 @@
       <c r="I5" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="71"/>
+      <c r="J5" s="75"/>
       <c r="K5" s="53" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="78"/>
-      <c r="N5" s="78"/>
-      <c r="O5" s="71"/>
-      <c r="P5" s="82"/>
-      <c r="Q5" s="71"/>
-      <c r="R5" s="71"/>
-      <c r="S5" s="83"/>
+      <c r="M5" s="83"/>
+      <c r="N5" s="83"/>
+      <c r="O5" s="75"/>
+      <c r="P5" s="74"/>
+      <c r="Q5" s="75"/>
+      <c r="R5" s="75"/>
+      <c r="S5" s="76"/>
       <c r="T5" s="30"/>
-      <c r="U5" s="71"/>
-      <c r="V5" s="71"/>
+      <c r="U5" s="75"/>
+      <c r="V5" s="75"/>
       <c r="W5" s="56"/>
     </row>
     <row r="6" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -14581,7 +14591,7 @@
         <v>64</v>
       </c>
       <c r="H6" s="43" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="I6" s="60" t="s">
         <v>75</v>
@@ -14615,7 +14625,7 @@
       </c>
       <c r="S6" s="4"/>
       <c r="T6" s="52"/>
-      <c r="U6" s="79" t="s">
+      <c r="U6" s="71" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -14646,7 +14656,7 @@
       <c r="R7" s="43"/>
       <c r="S7" s="4"/>
       <c r="T7" s="52"/>
-      <c r="U7" s="80"/>
+      <c r="U7" s="72"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -14675,7 +14685,7 @@
       <c r="R8" s="43"/>
       <c r="S8" s="4"/>
       <c r="T8" s="52"/>
-      <c r="U8" s="80"/>
+      <c r="U8" s="72"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -14704,7 +14714,7 @@
       <c r="R9" s="43"/>
       <c r="S9" s="4"/>
       <c r="T9" s="52"/>
-      <c r="U9" s="80"/>
+      <c r="U9" s="72"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -14733,7 +14743,7 @@
       <c r="R10" s="43"/>
       <c r="S10" s="4"/>
       <c r="T10" s="52"/>
-      <c r="U10" s="80"/>
+      <c r="U10" s="72"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -14762,7 +14772,7 @@
       <c r="R11" s="43"/>
       <c r="S11" s="4"/>
       <c r="T11" s="52"/>
-      <c r="U11" s="80"/>
+      <c r="U11" s="72"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -14791,7 +14801,7 @@
       <c r="R12" s="43"/>
       <c r="S12" s="4"/>
       <c r="T12" s="52"/>
-      <c r="U12" s="79" t="s">
+      <c r="U12" s="71" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -14822,7 +14832,7 @@
       <c r="R13" s="11"/>
       <c r="S13" s="4"/>
       <c r="T13" s="52"/>
-      <c r="U13" s="80"/>
+      <c r="U13" s="72"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -14851,7 +14861,7 @@
       <c r="R14" s="43"/>
       <c r="S14" s="4"/>
       <c r="T14" s="52"/>
-      <c r="U14" s="80"/>
+      <c r="U14" s="72"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -14880,7 +14890,7 @@
       <c r="R15" s="43"/>
       <c r="S15" s="4"/>
       <c r="T15" s="16"/>
-      <c r="U15" s="80"/>
+      <c r="U15" s="72"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -14909,7 +14919,7 @@
       <c r="R16" s="43"/>
       <c r="S16" s="4"/>
       <c r="T16" s="16"/>
-      <c r="U16" s="81"/>
+      <c r="U16" s="73"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -16140,13 +16150,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -16158,6 +16161,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -16201,43 +16211,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="72" t="s">
+      <c r="A1" s="77" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="72"/>
-      <c r="C1" s="72"/>
-      <c r="D1" s="72"/>
-      <c r="E1" s="72"/>
-      <c r="F1" s="72"/>
-      <c r="G1" s="72"/>
-      <c r="H1" s="72"/>
-      <c r="I1" s="72"/>
-      <c r="J1" s="72"/>
-      <c r="K1" s="72"/>
-      <c r="L1" s="72"/>
-      <c r="M1" s="72"/>
-      <c r="N1" s="72"/>
-      <c r="O1" s="72"/>
-      <c r="P1" s="72"/>
-      <c r="Q1" s="72"/>
-      <c r="R1" s="72"/>
-      <c r="S1" s="72"/>
-      <c r="T1" s="72"/>
-      <c r="U1" s="72"/>
-      <c r="V1" s="72"/>
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="77"/>
+      <c r="I1" s="77"/>
+      <c r="J1" s="77"/>
+      <c r="K1" s="77"/>
+      <c r="L1" s="77"/>
+      <c r="M1" s="77"/>
+      <c r="N1" s="77"/>
+      <c r="O1" s="77"/>
+      <c r="P1" s="77"/>
+      <c r="Q1" s="77"/>
+      <c r="R1" s="77"/>
+      <c r="S1" s="77"/>
+      <c r="T1" s="77"/>
+      <c r="U1" s="77"/>
+      <c r="V1" s="77"/>
       <c r="W1" s="55"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="73" t="s">
+      <c r="A2" s="78" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="74"/>
-      <c r="C2" s="74"/>
-      <c r="D2" s="74"/>
-      <c r="E2" s="75" t="s">
+      <c r="B2" s="79"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="80" t="s">
         <v>61</v>
       </c>
-      <c r="F2" s="75"/>
+      <c r="F2" s="80"/>
       <c r="G2" s="6"/>
       <c r="H2" s="24"/>
       <c r="I2" s="24"/>
@@ -16282,58 +16292,58 @@
       <c r="W3" s="30"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="76" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="71" t="s">
+      <c r="A4" s="81" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="75" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="71"/>
-      <c r="D4" s="71"/>
-      <c r="E4" s="71"/>
-      <c r="F4" s="71"/>
-      <c r="G4" s="71"/>
-      <c r="H4" s="71"/>
-      <c r="I4" s="71"/>
-      <c r="J4" s="71" t="s">
+      <c r="C4" s="75"/>
+      <c r="D4" s="75"/>
+      <c r="E4" s="75"/>
+      <c r="F4" s="75"/>
+      <c r="G4" s="75"/>
+      <c r="H4" s="75"/>
+      <c r="I4" s="75"/>
+      <c r="J4" s="75" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="71" t="s">
+      <c r="K4" s="75" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="71"/>
-      <c r="M4" s="77" t="s">
+      <c r="L4" s="75"/>
+      <c r="M4" s="82" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="77" t="s">
+      <c r="N4" s="82" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="71" t="s">
+      <c r="O4" s="75" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="82" t="s">
+      <c r="P4" s="74" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="71" t="s">
+      <c r="Q4" s="75" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="71" t="s">
+      <c r="R4" s="75" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="83" t="s">
+      <c r="S4" s="76" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="30"/>
-      <c r="U4" s="71" t="s">
+      <c r="U4" s="75" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="71" t="s">
+      <c r="V4" s="75" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="56"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="76"/>
+      <c r="A5" s="81"/>
       <c r="B5" s="50" t="s">
         <v>1</v>
       </c>
@@ -16358,23 +16368,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="71"/>
+      <c r="J5" s="75"/>
       <c r="K5" s="50" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="78"/>
-      <c r="N5" s="78"/>
-      <c r="O5" s="71"/>
-      <c r="P5" s="82"/>
-      <c r="Q5" s="71"/>
-      <c r="R5" s="71"/>
-      <c r="S5" s="83"/>
+      <c r="M5" s="83"/>
+      <c r="N5" s="83"/>
+      <c r="O5" s="75"/>
+      <c r="P5" s="74"/>
+      <c r="Q5" s="75"/>
+      <c r="R5" s="75"/>
+      <c r="S5" s="76"/>
       <c r="T5" s="30"/>
-      <c r="U5" s="71"/>
-      <c r="V5" s="71"/>
+      <c r="U5" s="75"/>
+      <c r="V5" s="75"/>
       <c r="W5" s="56"/>
     </row>
     <row r="6" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -16424,7 +16434,7 @@
       </c>
       <c r="S6" s="4"/>
       <c r="T6" s="49"/>
-      <c r="U6" s="79" t="s">
+      <c r="U6" s="71" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -16481,7 +16491,7 @@
       </c>
       <c r="S7" s="4"/>
       <c r="T7" s="49"/>
-      <c r="U7" s="80"/>
+      <c r="U7" s="72"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -16538,7 +16548,7 @@
       </c>
       <c r="S8" s="4"/>
       <c r="T8" s="49"/>
-      <c r="U8" s="80"/>
+      <c r="U8" s="72"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -16595,7 +16605,7 @@
       </c>
       <c r="S9" s="4"/>
       <c r="T9" s="49"/>
-      <c r="U9" s="80"/>
+      <c r="U9" s="72"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -16642,7 +16652,7 @@
       <c r="R10" s="43"/>
       <c r="S10" s="4"/>
       <c r="T10" s="49"/>
-      <c r="U10" s="80"/>
+      <c r="U10" s="72"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -16689,7 +16699,7 @@
       <c r="R11" s="43"/>
       <c r="S11" s="4"/>
       <c r="T11" s="49"/>
-      <c r="U11" s="80"/>
+      <c r="U11" s="72"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -16746,7 +16756,7 @@
       </c>
       <c r="S12" s="4"/>
       <c r="T12" s="49"/>
-      <c r="U12" s="79" t="s">
+      <c r="U12" s="71" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -16803,7 +16813,7 @@
       </c>
       <c r="S13" s="4"/>
       <c r="T13" s="49"/>
-      <c r="U13" s="80"/>
+      <c r="U13" s="72"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -16860,7 +16870,7 @@
       </c>
       <c r="S14" s="4"/>
       <c r="T14" s="49"/>
-      <c r="U14" s="80"/>
+      <c r="U14" s="72"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -16901,7 +16911,7 @@
       <c r="R15" s="11"/>
       <c r="S15" s="4"/>
       <c r="T15" s="16"/>
-      <c r="U15" s="80"/>
+      <c r="U15" s="72"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -16942,7 +16952,7 @@
       <c r="R16" s="43"/>
       <c r="S16" s="4"/>
       <c r="T16" s="16"/>
-      <c r="U16" s="81"/>
+      <c r="U16" s="73"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -18519,6 +18529,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -18530,13 +18547,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang2/02.XuLyBH/XLBH2102_Techglobal.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang2/02.XuLyBH/XLBH2102_Techglobal.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PhongBaoHanh\VNET\5. WS\1. Bộ phận bảo hành\1. Thực hiện sửa chữa bảo hành\nam2021\Thang2\02.XuLyBH\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\VNET\5. WS\1. Bộ phận bảo hành\1. Thực hiện sửa chữa bảo hành\nam2021\Thang2\02.XuLyBH\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065" activeTab="3"/>
+    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="TG007S" sheetId="31" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1104" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1111" uniqueCount="131">
   <si>
     <t>STT</t>
   </si>
@@ -442,6 +442,9 @@
   </si>
   <si>
     <t>Thiết bị không có lk thay thế</t>
+  </si>
+  <si>
+    <t>GL</t>
   </si>
 </sst>
 </file>
@@ -850,22 +853,7 @@
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -887,6 +875,21 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1228,43 +1231,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="77" t="s">
+      <c r="A1" s="72" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
-      <c r="F1" s="77"/>
-      <c r="G1" s="77"/>
-      <c r="H1" s="77"/>
-      <c r="I1" s="77"/>
-      <c r="J1" s="77"/>
-      <c r="K1" s="77"/>
-      <c r="L1" s="77"/>
-      <c r="M1" s="77"/>
-      <c r="N1" s="77"/>
-      <c r="O1" s="77"/>
-      <c r="P1" s="77"/>
-      <c r="Q1" s="77"/>
-      <c r="R1" s="77"/>
-      <c r="S1" s="77"/>
-      <c r="T1" s="77"/>
-      <c r="U1" s="77"/>
-      <c r="V1" s="77"/>
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="72"/>
+      <c r="H1" s="72"/>
+      <c r="I1" s="72"/>
+      <c r="J1" s="72"/>
+      <c r="K1" s="72"/>
+      <c r="L1" s="72"/>
+      <c r="M1" s="72"/>
+      <c r="N1" s="72"/>
+      <c r="O1" s="72"/>
+      <c r="P1" s="72"/>
+      <c r="Q1" s="72"/>
+      <c r="R1" s="72"/>
+      <c r="S1" s="72"/>
+      <c r="T1" s="72"/>
+      <c r="U1" s="72"/>
+      <c r="V1" s="72"/>
       <c r="W1" s="55"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="78" t="s">
+      <c r="A2" s="73" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="79"/>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="80" t="s">
+      <c r="B2" s="74"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="75" t="s">
         <v>61</v>
       </c>
-      <c r="F2" s="80"/>
+      <c r="F2" s="75"/>
       <c r="G2" s="6"/>
       <c r="H2" s="24"/>
       <c r="I2" s="24"/>
@@ -1309,58 +1312,58 @@
       <c r="W3" s="30"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="81" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="75" t="s">
+      <c r="A4" s="76" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="71" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="75"/>
-      <c r="D4" s="75"/>
-      <c r="E4" s="75"/>
-      <c r="F4" s="75"/>
-      <c r="G4" s="75"/>
-      <c r="H4" s="75"/>
-      <c r="I4" s="75"/>
-      <c r="J4" s="75" t="s">
+      <c r="C4" s="71"/>
+      <c r="D4" s="71"/>
+      <c r="E4" s="71"/>
+      <c r="F4" s="71"/>
+      <c r="G4" s="71"/>
+      <c r="H4" s="71"/>
+      <c r="I4" s="71"/>
+      <c r="J4" s="71" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="75" t="s">
+      <c r="K4" s="71" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="75"/>
-      <c r="M4" s="82" t="s">
+      <c r="L4" s="71"/>
+      <c r="M4" s="77" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="82" t="s">
+      <c r="N4" s="77" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="75" t="s">
+      <c r="O4" s="71" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="74" t="s">
+      <c r="P4" s="82" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="75" t="s">
+      <c r="Q4" s="71" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="75" t="s">
+      <c r="R4" s="71" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="76" t="s">
+      <c r="S4" s="83" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="30"/>
-      <c r="U4" s="75" t="s">
+      <c r="U4" s="71" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="75" t="s">
+      <c r="V4" s="71" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="56"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="81"/>
+      <c r="A5" s="76"/>
       <c r="B5" s="62" t="s">
         <v>1</v>
       </c>
@@ -1385,23 +1388,23 @@
       <c r="I5" s="62" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="75"/>
+      <c r="J5" s="71"/>
       <c r="K5" s="62" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="62" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="83"/>
-      <c r="N5" s="83"/>
-      <c r="O5" s="75"/>
-      <c r="P5" s="74"/>
-      <c r="Q5" s="75"/>
-      <c r="R5" s="75"/>
-      <c r="S5" s="76"/>
+      <c r="M5" s="78"/>
+      <c r="N5" s="78"/>
+      <c r="O5" s="71"/>
+      <c r="P5" s="82"/>
+      <c r="Q5" s="71"/>
+      <c r="R5" s="71"/>
+      <c r="S5" s="83"/>
       <c r="T5" s="30"/>
-      <c r="U5" s="75"/>
-      <c r="V5" s="75"/>
+      <c r="U5" s="71"/>
+      <c r="V5" s="71"/>
       <c r="W5" s="56"/>
     </row>
     <row r="6" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1457,7 +1460,7 @@
       </c>
       <c r="S6" s="4"/>
       <c r="T6" s="61"/>
-      <c r="U6" s="71" t="s">
+      <c r="U6" s="79" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -1520,7 +1523,7 @@
       </c>
       <c r="S7" s="4"/>
       <c r="T7" s="61"/>
-      <c r="U7" s="72"/>
+      <c r="U7" s="80"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -1549,7 +1552,7 @@
       <c r="R8" s="43"/>
       <c r="S8" s="4"/>
       <c r="T8" s="61"/>
-      <c r="U8" s="72"/>
+      <c r="U8" s="80"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -1578,7 +1581,7 @@
       <c r="R9" s="43"/>
       <c r="S9" s="4"/>
       <c r="T9" s="61"/>
-      <c r="U9" s="72"/>
+      <c r="U9" s="80"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -1607,7 +1610,7 @@
       <c r="R10" s="43"/>
       <c r="S10" s="4"/>
       <c r="T10" s="61"/>
-      <c r="U10" s="72"/>
+      <c r="U10" s="80"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -1636,7 +1639,7 @@
       <c r="R11" s="43"/>
       <c r="S11" s="4"/>
       <c r="T11" s="61"/>
-      <c r="U11" s="72"/>
+      <c r="U11" s="80"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -1665,7 +1668,7 @@
       <c r="R12" s="43"/>
       <c r="S12" s="4"/>
       <c r="T12" s="61"/>
-      <c r="U12" s="71" t="s">
+      <c r="U12" s="79" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -1696,7 +1699,7 @@
       <c r="R13" s="11"/>
       <c r="S13" s="4"/>
       <c r="T13" s="61"/>
-      <c r="U13" s="72"/>
+      <c r="U13" s="80"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -1725,7 +1728,7 @@
       <c r="R14" s="43"/>
       <c r="S14" s="4"/>
       <c r="T14" s="61"/>
-      <c r="U14" s="72"/>
+      <c r="U14" s="80"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -1754,7 +1757,7 @@
       <c r="R15" s="43"/>
       <c r="S15" s="4"/>
       <c r="T15" s="16"/>
-      <c r="U15" s="72"/>
+      <c r="U15" s="80"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -1783,7 +1786,7 @@
       <c r="R16" s="43"/>
       <c r="S16" s="4"/>
       <c r="T16" s="16"/>
-      <c r="U16" s="73"/>
+      <c r="U16" s="81"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -3014,6 +3017,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -3025,13 +3035,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3075,43 +3078,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="77" t="s">
+      <c r="A1" s="72" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
-      <c r="F1" s="77"/>
-      <c r="G1" s="77"/>
-      <c r="H1" s="77"/>
-      <c r="I1" s="77"/>
-      <c r="J1" s="77"/>
-      <c r="K1" s="77"/>
-      <c r="L1" s="77"/>
-      <c r="M1" s="77"/>
-      <c r="N1" s="77"/>
-      <c r="O1" s="77"/>
-      <c r="P1" s="77"/>
-      <c r="Q1" s="77"/>
-      <c r="R1" s="77"/>
-      <c r="S1" s="77"/>
-      <c r="T1" s="77"/>
-      <c r="U1" s="77"/>
-      <c r="V1" s="77"/>
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="72"/>
+      <c r="H1" s="72"/>
+      <c r="I1" s="72"/>
+      <c r="J1" s="72"/>
+      <c r="K1" s="72"/>
+      <c r="L1" s="72"/>
+      <c r="M1" s="72"/>
+      <c r="N1" s="72"/>
+      <c r="O1" s="72"/>
+      <c r="P1" s="72"/>
+      <c r="Q1" s="72"/>
+      <c r="R1" s="72"/>
+      <c r="S1" s="72"/>
+      <c r="T1" s="72"/>
+      <c r="U1" s="72"/>
+      <c r="V1" s="72"/>
       <c r="W1" s="55"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="78" t="s">
+      <c r="A2" s="73" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="79"/>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="80" t="s">
+      <c r="B2" s="74"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="75" t="s">
         <v>61</v>
       </c>
-      <c r="F2" s="80"/>
+      <c r="F2" s="75"/>
       <c r="G2" s="6"/>
       <c r="H2" s="24"/>
       <c r="I2" s="24"/>
@@ -3156,58 +3159,58 @@
       <c r="W3" s="30"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="81" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="75" t="s">
+      <c r="A4" s="76" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="71" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="75"/>
-      <c r="D4" s="75"/>
-      <c r="E4" s="75"/>
-      <c r="F4" s="75"/>
-      <c r="G4" s="75"/>
-      <c r="H4" s="75"/>
-      <c r="I4" s="75"/>
-      <c r="J4" s="75" t="s">
+      <c r="C4" s="71"/>
+      <c r="D4" s="71"/>
+      <c r="E4" s="71"/>
+      <c r="F4" s="71"/>
+      <c r="G4" s="71"/>
+      <c r="H4" s="71"/>
+      <c r="I4" s="71"/>
+      <c r="J4" s="71" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="75" t="s">
+      <c r="K4" s="71" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="75"/>
-      <c r="M4" s="82" t="s">
+      <c r="L4" s="71"/>
+      <c r="M4" s="77" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="82" t="s">
+      <c r="N4" s="77" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="75" t="s">
+      <c r="O4" s="71" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="74" t="s">
+      <c r="P4" s="82" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="75" t="s">
+      <c r="Q4" s="71" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="75" t="s">
+      <c r="R4" s="71" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="76" t="s">
+      <c r="S4" s="83" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="30"/>
-      <c r="U4" s="75" t="s">
+      <c r="U4" s="71" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="75" t="s">
+      <c r="V4" s="71" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="56"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="81"/>
+      <c r="A5" s="76"/>
       <c r="B5" s="5" t="s">
         <v>1</v>
       </c>
@@ -3232,23 +3235,23 @@
       <c r="I5" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="75"/>
+      <c r="J5" s="71"/>
       <c r="K5" s="5" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="83"/>
-      <c r="N5" s="83"/>
-      <c r="O5" s="75"/>
-      <c r="P5" s="74"/>
-      <c r="Q5" s="75"/>
-      <c r="R5" s="75"/>
-      <c r="S5" s="76"/>
+      <c r="M5" s="78"/>
+      <c r="N5" s="78"/>
+      <c r="O5" s="71"/>
+      <c r="P5" s="82"/>
+      <c r="Q5" s="71"/>
+      <c r="R5" s="71"/>
+      <c r="S5" s="83"/>
       <c r="T5" s="30"/>
-      <c r="U5" s="75"/>
-      <c r="V5" s="75"/>
+      <c r="U5" s="71"/>
+      <c r="V5" s="71"/>
       <c r="W5" s="56"/>
     </row>
     <row r="6" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3298,7 +3301,7 @@
       </c>
       <c r="S6" s="4"/>
       <c r="T6" s="13"/>
-      <c r="U6" s="71" t="s">
+      <c r="U6" s="79" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -3329,7 +3332,7 @@
       <c r="R7" s="43"/>
       <c r="S7" s="4"/>
       <c r="T7" s="13"/>
-      <c r="U7" s="72"/>
+      <c r="U7" s="80"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -3358,7 +3361,7 @@
       <c r="R8" s="43"/>
       <c r="S8" s="4"/>
       <c r="T8" s="13"/>
-      <c r="U8" s="72"/>
+      <c r="U8" s="80"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -3387,7 +3390,7 @@
       <c r="R9" s="43"/>
       <c r="S9" s="4"/>
       <c r="T9" s="23"/>
-      <c r="U9" s="72"/>
+      <c r="U9" s="80"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -3416,7 +3419,7 @@
       <c r="R10" s="43"/>
       <c r="S10" s="4"/>
       <c r="T10" s="32"/>
-      <c r="U10" s="72"/>
+      <c r="U10" s="80"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -3445,7 +3448,7 @@
       <c r="R11" s="43"/>
       <c r="S11" s="4"/>
       <c r="T11" s="13"/>
-      <c r="U11" s="72"/>
+      <c r="U11" s="80"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -3474,7 +3477,7 @@
       <c r="R12" s="43"/>
       <c r="S12" s="4"/>
       <c r="T12" s="13"/>
-      <c r="U12" s="71" t="s">
+      <c r="U12" s="79" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -3505,7 +3508,7 @@
       <c r="R13" s="11"/>
       <c r="S13" s="4"/>
       <c r="T13" s="13"/>
-      <c r="U13" s="72"/>
+      <c r="U13" s="80"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -3534,7 +3537,7 @@
       <c r="R14" s="43"/>
       <c r="S14" s="4"/>
       <c r="T14" s="13"/>
-      <c r="U14" s="72"/>
+      <c r="U14" s="80"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -3563,7 +3566,7 @@
       <c r="R15" s="43"/>
       <c r="S15" s="4"/>
       <c r="T15" s="16"/>
-      <c r="U15" s="72"/>
+      <c r="U15" s="80"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -3592,7 +3595,7 @@
       <c r="R16" s="43"/>
       <c r="S16" s="4"/>
       <c r="T16" s="16"/>
-      <c r="U16" s="73"/>
+      <c r="U16" s="81"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -4823,6 +4826,11 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="K4:L4"/>
     <mergeCell ref="O4:O5"/>
     <mergeCell ref="P4:P5"/>
@@ -4836,11 +4844,6 @@
     <mergeCell ref="B4:I4"/>
     <mergeCell ref="J4:J5"/>
     <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4884,43 +4887,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="77" t="s">
+      <c r="A1" s="72" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
-      <c r="F1" s="77"/>
-      <c r="G1" s="77"/>
-      <c r="H1" s="77"/>
-      <c r="I1" s="77"/>
-      <c r="J1" s="77"/>
-      <c r="K1" s="77"/>
-      <c r="L1" s="77"/>
-      <c r="M1" s="77"/>
-      <c r="N1" s="77"/>
-      <c r="O1" s="77"/>
-      <c r="P1" s="77"/>
-      <c r="Q1" s="77"/>
-      <c r="R1" s="77"/>
-      <c r="S1" s="77"/>
-      <c r="T1" s="77"/>
-      <c r="U1" s="77"/>
-      <c r="V1" s="77"/>
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="72"/>
+      <c r="H1" s="72"/>
+      <c r="I1" s="72"/>
+      <c r="J1" s="72"/>
+      <c r="K1" s="72"/>
+      <c r="L1" s="72"/>
+      <c r="M1" s="72"/>
+      <c r="N1" s="72"/>
+      <c r="O1" s="72"/>
+      <c r="P1" s="72"/>
+      <c r="Q1" s="72"/>
+      <c r="R1" s="72"/>
+      <c r="S1" s="72"/>
+      <c r="T1" s="72"/>
+      <c r="U1" s="72"/>
+      <c r="V1" s="72"/>
       <c r="W1" s="55"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="78" t="s">
+      <c r="A2" s="73" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="79"/>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="80" t="s">
+      <c r="B2" s="74"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="75" t="s">
         <v>61</v>
       </c>
-      <c r="F2" s="80"/>
+      <c r="F2" s="75"/>
       <c r="G2" s="6"/>
       <c r="H2" s="24"/>
       <c r="I2" s="24"/>
@@ -4965,58 +4968,58 @@
       <c r="W3" s="30"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="81" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="75" t="s">
+      <c r="A4" s="76" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="71" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="75"/>
-      <c r="D4" s="75"/>
-      <c r="E4" s="75"/>
-      <c r="F4" s="75"/>
-      <c r="G4" s="75"/>
-      <c r="H4" s="75"/>
-      <c r="I4" s="75"/>
-      <c r="J4" s="75" t="s">
+      <c r="C4" s="71"/>
+      <c r="D4" s="71"/>
+      <c r="E4" s="71"/>
+      <c r="F4" s="71"/>
+      <c r="G4" s="71"/>
+      <c r="H4" s="71"/>
+      <c r="I4" s="71"/>
+      <c r="J4" s="71" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="75" t="s">
+      <c r="K4" s="71" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="75"/>
-      <c r="M4" s="82" t="s">
+      <c r="L4" s="71"/>
+      <c r="M4" s="77" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="82" t="s">
+      <c r="N4" s="77" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="75" t="s">
+      <c r="O4" s="71" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="74" t="s">
+      <c r="P4" s="82" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="75" t="s">
+      <c r="Q4" s="71" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="75" t="s">
+      <c r="R4" s="71" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="76" t="s">
+      <c r="S4" s="83" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="30"/>
-      <c r="U4" s="75" t="s">
+      <c r="U4" s="71" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="75" t="s">
+      <c r="V4" s="71" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="56"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="81"/>
+      <c r="A5" s="76"/>
       <c r="B5" s="62" t="s">
         <v>1</v>
       </c>
@@ -5041,23 +5044,23 @@
       <c r="I5" s="62" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="75"/>
+      <c r="J5" s="71"/>
       <c r="K5" s="62" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="62" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="83"/>
-      <c r="N5" s="83"/>
-      <c r="O5" s="75"/>
-      <c r="P5" s="74"/>
-      <c r="Q5" s="75"/>
-      <c r="R5" s="75"/>
-      <c r="S5" s="76"/>
+      <c r="M5" s="78"/>
+      <c r="N5" s="78"/>
+      <c r="O5" s="71"/>
+      <c r="P5" s="82"/>
+      <c r="Q5" s="71"/>
+      <c r="R5" s="71"/>
+      <c r="S5" s="83"/>
       <c r="T5" s="30"/>
-      <c r="U5" s="75"/>
-      <c r="V5" s="75"/>
+      <c r="U5" s="71"/>
+      <c r="V5" s="71"/>
       <c r="W5" s="56"/>
     </row>
     <row r="6" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -5103,7 +5106,7 @@
       </c>
       <c r="S6" s="4"/>
       <c r="T6" s="61"/>
-      <c r="U6" s="71" t="s">
+      <c r="U6" s="79" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -5134,7 +5137,7 @@
       <c r="R7" s="43"/>
       <c r="S7" s="4"/>
       <c r="T7" s="61"/>
-      <c r="U7" s="72"/>
+      <c r="U7" s="80"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -5163,7 +5166,7 @@
       <c r="R8" s="43"/>
       <c r="S8" s="4"/>
       <c r="T8" s="61"/>
-      <c r="U8" s="72"/>
+      <c r="U8" s="80"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -5192,7 +5195,7 @@
       <c r="R9" s="43"/>
       <c r="S9" s="4"/>
       <c r="T9" s="61"/>
-      <c r="U9" s="72"/>
+      <c r="U9" s="80"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -5221,7 +5224,7 @@
       <c r="R10" s="43"/>
       <c r="S10" s="4"/>
       <c r="T10" s="61"/>
-      <c r="U10" s="72"/>
+      <c r="U10" s="80"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -5250,7 +5253,7 @@
       <c r="R11" s="43"/>
       <c r="S11" s="4"/>
       <c r="T11" s="61"/>
-      <c r="U11" s="72"/>
+      <c r="U11" s="80"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -5279,7 +5282,7 @@
       <c r="R12" s="43"/>
       <c r="S12" s="4"/>
       <c r="T12" s="61"/>
-      <c r="U12" s="71" t="s">
+      <c r="U12" s="79" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -5310,7 +5313,7 @@
       <c r="R13" s="11"/>
       <c r="S13" s="4"/>
       <c r="T13" s="61"/>
-      <c r="U13" s="72"/>
+      <c r="U13" s="80"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -5339,7 +5342,7 @@
       <c r="R14" s="43"/>
       <c r="S14" s="4"/>
       <c r="T14" s="61"/>
-      <c r="U14" s="72"/>
+      <c r="U14" s="80"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -5368,7 +5371,7 @@
       <c r="R15" s="43"/>
       <c r="S15" s="4"/>
       <c r="T15" s="16"/>
-      <c r="U15" s="72"/>
+      <c r="U15" s="80"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -5397,7 +5400,7 @@
       <c r="R16" s="43"/>
       <c r="S16" s="4"/>
       <c r="T16" s="16"/>
-      <c r="U16" s="73"/>
+      <c r="U16" s="81"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -6628,6 +6631,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -6639,13 +6649,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -6656,7 +6659,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView showZeros="0" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="E20" sqref="A19:E20"/>
     </sheetView>
   </sheetViews>
@@ -6689,43 +6692,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="77" t="s">
+      <c r="A1" s="72" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
-      <c r="F1" s="77"/>
-      <c r="G1" s="77"/>
-      <c r="H1" s="77"/>
-      <c r="I1" s="77"/>
-      <c r="J1" s="77"/>
-      <c r="K1" s="77"/>
-      <c r="L1" s="77"/>
-      <c r="M1" s="77"/>
-      <c r="N1" s="77"/>
-      <c r="O1" s="77"/>
-      <c r="P1" s="77"/>
-      <c r="Q1" s="77"/>
-      <c r="R1" s="77"/>
-      <c r="S1" s="77"/>
-      <c r="T1" s="77"/>
-      <c r="U1" s="77"/>
-      <c r="V1" s="77"/>
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="72"/>
+      <c r="H1" s="72"/>
+      <c r="I1" s="72"/>
+      <c r="J1" s="72"/>
+      <c r="K1" s="72"/>
+      <c r="L1" s="72"/>
+      <c r="M1" s="72"/>
+      <c r="N1" s="72"/>
+      <c r="O1" s="72"/>
+      <c r="P1" s="72"/>
+      <c r="Q1" s="72"/>
+      <c r="R1" s="72"/>
+      <c r="S1" s="72"/>
+      <c r="T1" s="72"/>
+      <c r="U1" s="72"/>
+      <c r="V1" s="72"/>
       <c r="W1" s="55"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="78" t="s">
+      <c r="A2" s="73" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="79"/>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="80" t="s">
+      <c r="B2" s="74"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="75" t="s">
         <v>61</v>
       </c>
-      <c r="F2" s="80"/>
+      <c r="F2" s="75"/>
       <c r="G2" s="6"/>
       <c r="H2" s="24"/>
       <c r="I2" s="24"/>
@@ -6770,58 +6773,58 @@
       <c r="W3" s="30"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="81" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="75" t="s">
+      <c r="A4" s="76" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="71" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="75"/>
-      <c r="D4" s="75"/>
-      <c r="E4" s="75"/>
-      <c r="F4" s="75"/>
-      <c r="G4" s="75"/>
-      <c r="H4" s="75"/>
-      <c r="I4" s="75"/>
-      <c r="J4" s="75" t="s">
+      <c r="C4" s="71"/>
+      <c r="D4" s="71"/>
+      <c r="E4" s="71"/>
+      <c r="F4" s="71"/>
+      <c r="G4" s="71"/>
+      <c r="H4" s="71"/>
+      <c r="I4" s="71"/>
+      <c r="J4" s="71" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="75" t="s">
+      <c r="K4" s="71" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="75"/>
-      <c r="M4" s="82" t="s">
+      <c r="L4" s="71"/>
+      <c r="M4" s="77" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="82" t="s">
+      <c r="N4" s="77" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="75" t="s">
+      <c r="O4" s="71" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="74" t="s">
+      <c r="P4" s="82" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="75" t="s">
+      <c r="Q4" s="71" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="75" t="s">
+      <c r="R4" s="71" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="76" t="s">
+      <c r="S4" s="83" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="30"/>
-      <c r="U4" s="75" t="s">
+      <c r="U4" s="71" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="75" t="s">
+      <c r="V4" s="71" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="56"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="81"/>
+      <c r="A5" s="76"/>
       <c r="B5" s="62" t="s">
         <v>1</v>
       </c>
@@ -6846,23 +6849,23 @@
       <c r="I5" s="62" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="75"/>
+      <c r="J5" s="71"/>
       <c r="K5" s="62" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="62" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="83"/>
-      <c r="N5" s="83"/>
-      <c r="O5" s="75"/>
-      <c r="P5" s="74"/>
-      <c r="Q5" s="75"/>
-      <c r="R5" s="75"/>
-      <c r="S5" s="76"/>
+      <c r="M5" s="78"/>
+      <c r="N5" s="78"/>
+      <c r="O5" s="71"/>
+      <c r="P5" s="82"/>
+      <c r="Q5" s="71"/>
+      <c r="R5" s="71"/>
+      <c r="S5" s="83"/>
       <c r="T5" s="30"/>
-      <c r="U5" s="75"/>
-      <c r="V5" s="75"/>
+      <c r="U5" s="71"/>
+      <c r="V5" s="71"/>
       <c r="W5" s="56"/>
     </row>
     <row r="6" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -6914,7 +6917,7 @@
       </c>
       <c r="S6" s="4"/>
       <c r="T6" s="61"/>
-      <c r="U6" s="71" t="s">
+      <c r="U6" s="79" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -6967,7 +6970,7 @@
       </c>
       <c r="S7" s="4"/>
       <c r="T7" s="61"/>
-      <c r="U7" s="72"/>
+      <c r="U7" s="80"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -6996,7 +6999,7 @@
       <c r="R8" s="43"/>
       <c r="S8" s="4"/>
       <c r="T8" s="61"/>
-      <c r="U8" s="72"/>
+      <c r="U8" s="80"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -7025,7 +7028,7 @@
       <c r="R9" s="43"/>
       <c r="S9" s="4"/>
       <c r="T9" s="61"/>
-      <c r="U9" s="72"/>
+      <c r="U9" s="80"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -7054,7 +7057,7 @@
       <c r="R10" s="43"/>
       <c r="S10" s="4"/>
       <c r="T10" s="61"/>
-      <c r="U10" s="72"/>
+      <c r="U10" s="80"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -7083,7 +7086,7 @@
       <c r="R11" s="43"/>
       <c r="S11" s="4"/>
       <c r="T11" s="61"/>
-      <c r="U11" s="72"/>
+      <c r="U11" s="80"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -7112,7 +7115,7 @@
       <c r="R12" s="43"/>
       <c r="S12" s="4"/>
       <c r="T12" s="61"/>
-      <c r="U12" s="71" t="s">
+      <c r="U12" s="79" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -7143,7 +7146,7 @@
       <c r="R13" s="11"/>
       <c r="S13" s="4"/>
       <c r="T13" s="61"/>
-      <c r="U13" s="72"/>
+      <c r="U13" s="80"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -7172,7 +7175,7 @@
       <c r="R14" s="43"/>
       <c r="S14" s="4"/>
       <c r="T14" s="61"/>
-      <c r="U14" s="72"/>
+      <c r="U14" s="80"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -7201,7 +7204,7 @@
       <c r="R15" s="43"/>
       <c r="S15" s="4"/>
       <c r="T15" s="16"/>
-      <c r="U15" s="72"/>
+      <c r="U15" s="80"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -7230,7 +7233,7 @@
       <c r="R16" s="43"/>
       <c r="S16" s="4"/>
       <c r="T16" s="16"/>
-      <c r="U16" s="73"/>
+      <c r="U16" s="81"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -8461,6 +8464,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -8472,13 +8482,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -8522,43 +8525,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="77" t="s">
+      <c r="A1" s="72" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
-      <c r="F1" s="77"/>
-      <c r="G1" s="77"/>
-      <c r="H1" s="77"/>
-      <c r="I1" s="77"/>
-      <c r="J1" s="77"/>
-      <c r="K1" s="77"/>
-      <c r="L1" s="77"/>
-      <c r="M1" s="77"/>
-      <c r="N1" s="77"/>
-      <c r="O1" s="77"/>
-      <c r="P1" s="77"/>
-      <c r="Q1" s="77"/>
-      <c r="R1" s="77"/>
-      <c r="S1" s="77"/>
-      <c r="T1" s="77"/>
-      <c r="U1" s="77"/>
-      <c r="V1" s="77"/>
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="72"/>
+      <c r="H1" s="72"/>
+      <c r="I1" s="72"/>
+      <c r="J1" s="72"/>
+      <c r="K1" s="72"/>
+      <c r="L1" s="72"/>
+      <c r="M1" s="72"/>
+      <c r="N1" s="72"/>
+      <c r="O1" s="72"/>
+      <c r="P1" s="72"/>
+      <c r="Q1" s="72"/>
+      <c r="R1" s="72"/>
+      <c r="S1" s="72"/>
+      <c r="T1" s="72"/>
+      <c r="U1" s="72"/>
+      <c r="V1" s="72"/>
       <c r="W1" s="55"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="78" t="s">
+      <c r="A2" s="73" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="79"/>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="80" t="s">
+      <c r="B2" s="74"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="75" t="s">
         <v>61</v>
       </c>
-      <c r="F2" s="80"/>
+      <c r="F2" s="75"/>
       <c r="G2" s="6"/>
       <c r="H2" s="24"/>
       <c r="I2" s="24"/>
@@ -8603,58 +8606,58 @@
       <c r="W3" s="30"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="81" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="75" t="s">
+      <c r="A4" s="76" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="71" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="75"/>
-      <c r="D4" s="75"/>
-      <c r="E4" s="75"/>
-      <c r="F4" s="75"/>
-      <c r="G4" s="75"/>
-      <c r="H4" s="75"/>
-      <c r="I4" s="75"/>
-      <c r="J4" s="75" t="s">
+      <c r="C4" s="71"/>
+      <c r="D4" s="71"/>
+      <c r="E4" s="71"/>
+      <c r="F4" s="71"/>
+      <c r="G4" s="71"/>
+      <c r="H4" s="71"/>
+      <c r="I4" s="71"/>
+      <c r="J4" s="71" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="75" t="s">
+      <c r="K4" s="71" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="75"/>
-      <c r="M4" s="82" t="s">
+      <c r="L4" s="71"/>
+      <c r="M4" s="77" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="82" t="s">
+      <c r="N4" s="77" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="75" t="s">
+      <c r="O4" s="71" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="74" t="s">
+      <c r="P4" s="82" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="75" t="s">
+      <c r="Q4" s="71" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="75" t="s">
+      <c r="R4" s="71" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="76" t="s">
+      <c r="S4" s="83" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="30"/>
-      <c r="U4" s="75" t="s">
+      <c r="U4" s="71" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="75" t="s">
+      <c r="V4" s="71" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="56"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="81"/>
+      <c r="A5" s="76"/>
       <c r="B5" s="62" t="s">
         <v>1</v>
       </c>
@@ -8679,23 +8682,23 @@
       <c r="I5" s="62" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="75"/>
+      <c r="J5" s="71"/>
       <c r="K5" s="62" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="62" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="83"/>
-      <c r="N5" s="83"/>
-      <c r="O5" s="75"/>
-      <c r="P5" s="74"/>
-      <c r="Q5" s="75"/>
-      <c r="R5" s="75"/>
-      <c r="S5" s="76"/>
+      <c r="M5" s="78"/>
+      <c r="N5" s="78"/>
+      <c r="O5" s="71"/>
+      <c r="P5" s="82"/>
+      <c r="Q5" s="71"/>
+      <c r="R5" s="71"/>
+      <c r="S5" s="83"/>
       <c r="T5" s="30"/>
-      <c r="U5" s="75"/>
-      <c r="V5" s="75"/>
+      <c r="U5" s="71"/>
+      <c r="V5" s="71"/>
       <c r="W5" s="56"/>
     </row>
     <row r="6" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -8745,7 +8748,7 @@
       </c>
       <c r="S6" s="4"/>
       <c r="T6" s="61"/>
-      <c r="U6" s="71" t="s">
+      <c r="U6" s="79" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -8776,7 +8779,7 @@
       <c r="R7" s="43"/>
       <c r="S7" s="4"/>
       <c r="T7" s="61"/>
-      <c r="U7" s="72"/>
+      <c r="U7" s="80"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -8805,7 +8808,7 @@
       <c r="R8" s="43"/>
       <c r="S8" s="4"/>
       <c r="T8" s="61"/>
-      <c r="U8" s="72"/>
+      <c r="U8" s="80"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -8834,7 +8837,7 @@
       <c r="R9" s="43"/>
       <c r="S9" s="4"/>
       <c r="T9" s="61"/>
-      <c r="U9" s="72"/>
+      <c r="U9" s="80"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -8863,7 +8866,7 @@
       <c r="R10" s="43"/>
       <c r="S10" s="4"/>
       <c r="T10" s="61"/>
-      <c r="U10" s="72"/>
+      <c r="U10" s="80"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -8892,7 +8895,7 @@
       <c r="R11" s="43"/>
       <c r="S11" s="4"/>
       <c r="T11" s="61"/>
-      <c r="U11" s="72"/>
+      <c r="U11" s="80"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -8921,7 +8924,7 @@
       <c r="R12" s="43"/>
       <c r="S12" s="4"/>
       <c r="T12" s="61"/>
-      <c r="U12" s="71" t="s">
+      <c r="U12" s="79" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -8952,7 +8955,7 @@
       <c r="R13" s="11"/>
       <c r="S13" s="4"/>
       <c r="T13" s="61"/>
-      <c r="U13" s="72"/>
+      <c r="U13" s="80"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -8981,7 +8984,7 @@
       <c r="R14" s="43"/>
       <c r="S14" s="4"/>
       <c r="T14" s="61"/>
-      <c r="U14" s="72"/>
+      <c r="U14" s="80"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -9010,7 +9013,7 @@
       <c r="R15" s="43"/>
       <c r="S15" s="4"/>
       <c r="T15" s="16"/>
-      <c r="U15" s="72"/>
+      <c r="U15" s="80"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -9039,7 +9042,7 @@
       <c r="R16" s="43"/>
       <c r="S16" s="4"/>
       <c r="T16" s="16"/>
-      <c r="U16" s="73"/>
+      <c r="U16" s="81"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -10270,6 +10273,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -10281,13 +10291,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -10298,8 +10301,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6:M22"/>
+    <sheetView showZeros="0" tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="N29" sqref="N29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -10331,43 +10334,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="77" t="s">
+      <c r="A1" s="72" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
-      <c r="F1" s="77"/>
-      <c r="G1" s="77"/>
-      <c r="H1" s="77"/>
-      <c r="I1" s="77"/>
-      <c r="J1" s="77"/>
-      <c r="K1" s="77"/>
-      <c r="L1" s="77"/>
-      <c r="M1" s="77"/>
-      <c r="N1" s="77"/>
-      <c r="O1" s="77"/>
-      <c r="P1" s="77"/>
-      <c r="Q1" s="77"/>
-      <c r="R1" s="77"/>
-      <c r="S1" s="77"/>
-      <c r="T1" s="77"/>
-      <c r="U1" s="77"/>
-      <c r="V1" s="77"/>
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="72"/>
+      <c r="H1" s="72"/>
+      <c r="I1" s="72"/>
+      <c r="J1" s="72"/>
+      <c r="K1" s="72"/>
+      <c r="L1" s="72"/>
+      <c r="M1" s="72"/>
+      <c r="N1" s="72"/>
+      <c r="O1" s="72"/>
+      <c r="P1" s="72"/>
+      <c r="Q1" s="72"/>
+      <c r="R1" s="72"/>
+      <c r="S1" s="72"/>
+      <c r="T1" s="72"/>
+      <c r="U1" s="72"/>
+      <c r="V1" s="72"/>
       <c r="W1" s="55"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="78" t="s">
+      <c r="A2" s="73" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="79"/>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="80" t="s">
+      <c r="B2" s="74"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="75" t="s">
         <v>61</v>
       </c>
-      <c r="F2" s="80"/>
+      <c r="F2" s="75"/>
       <c r="G2" s="6"/>
       <c r="H2" s="24"/>
       <c r="I2" s="64"/>
@@ -10412,58 +10415,58 @@
       <c r="W3" s="30"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="81" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="75" t="s">
+      <c r="A4" s="76" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="71" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="75"/>
-      <c r="D4" s="75"/>
-      <c r="E4" s="75"/>
-      <c r="F4" s="75"/>
-      <c r="G4" s="75"/>
-      <c r="H4" s="75"/>
-      <c r="I4" s="75"/>
-      <c r="J4" s="75" t="s">
+      <c r="C4" s="71"/>
+      <c r="D4" s="71"/>
+      <c r="E4" s="71"/>
+      <c r="F4" s="71"/>
+      <c r="G4" s="71"/>
+      <c r="H4" s="71"/>
+      <c r="I4" s="71"/>
+      <c r="J4" s="71" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="75" t="s">
+      <c r="K4" s="71" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="75"/>
-      <c r="M4" s="82" t="s">
+      <c r="L4" s="71"/>
+      <c r="M4" s="77" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="82" t="s">
+      <c r="N4" s="77" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="75" t="s">
+      <c r="O4" s="71" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="74" t="s">
+      <c r="P4" s="82" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="75" t="s">
+      <c r="Q4" s="71" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="75" t="s">
+      <c r="R4" s="71" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="76" t="s">
+      <c r="S4" s="83" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="30"/>
-      <c r="U4" s="75" t="s">
+      <c r="U4" s="71" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="75" t="s">
+      <c r="V4" s="71" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="56"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="81"/>
+      <c r="A5" s="76"/>
       <c r="B5" s="62" t="s">
         <v>1</v>
       </c>
@@ -10488,23 +10491,23 @@
       <c r="I5" s="66" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="75"/>
+      <c r="J5" s="71"/>
       <c r="K5" s="62" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="62" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="83"/>
-      <c r="N5" s="83"/>
-      <c r="O5" s="75"/>
-      <c r="P5" s="74"/>
-      <c r="Q5" s="75"/>
-      <c r="R5" s="75"/>
-      <c r="S5" s="76"/>
+      <c r="M5" s="78"/>
+      <c r="N5" s="78"/>
+      <c r="O5" s="71"/>
+      <c r="P5" s="82"/>
+      <c r="Q5" s="71"/>
+      <c r="R5" s="71"/>
+      <c r="S5" s="83"/>
       <c r="T5" s="30"/>
-      <c r="U5" s="75"/>
-      <c r="V5" s="75"/>
+      <c r="U5" s="71"/>
+      <c r="V5" s="71"/>
       <c r="W5" s="56"/>
     </row>
     <row r="6" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -10558,7 +10561,7 @@
       </c>
       <c r="S6" s="4"/>
       <c r="T6" s="61"/>
-      <c r="U6" s="71" t="s">
+      <c r="U6" s="79" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -10617,7 +10620,7 @@
       </c>
       <c r="S7" s="4"/>
       <c r="T7" s="61"/>
-      <c r="U7" s="72"/>
+      <c r="U7" s="80"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -10660,13 +10663,21 @@
         <v>120</v>
       </c>
       <c r="N8" s="1"/>
-      <c r="O8" s="45"/>
-      <c r="P8" s="1"/>
-      <c r="Q8" s="3"/>
-      <c r="R8" s="43"/>
+      <c r="O8" s="45" t="s">
+        <v>130</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q8" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="R8" s="43" t="s">
+        <v>35</v>
+      </c>
       <c r="S8" s="4"/>
       <c r="T8" s="61"/>
-      <c r="U8" s="72"/>
+      <c r="U8" s="80"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -10721,7 +10732,7 @@
       </c>
       <c r="S9" s="4"/>
       <c r="T9" s="61"/>
-      <c r="U9" s="72"/>
+      <c r="U9" s="80"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -10778,7 +10789,7 @@
       </c>
       <c r="S10" s="4"/>
       <c r="T10" s="61"/>
-      <c r="U10" s="72"/>
+      <c r="U10" s="80"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -10833,7 +10844,7 @@
       </c>
       <c r="S11" s="4"/>
       <c r="T11" s="61"/>
-      <c r="U11" s="72"/>
+      <c r="U11" s="80"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -10890,7 +10901,7 @@
       </c>
       <c r="S12" s="4"/>
       <c r="T12" s="61"/>
-      <c r="U12" s="71" t="s">
+      <c r="U12" s="79" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -10949,7 +10960,7 @@
       </c>
       <c r="S13" s="4"/>
       <c r="T13" s="61"/>
-      <c r="U13" s="72"/>
+      <c r="U13" s="80"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -11006,7 +11017,7 @@
       </c>
       <c r="S14" s="4"/>
       <c r="T14" s="61"/>
-      <c r="U14" s="72"/>
+      <c r="U14" s="80"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -11063,7 +11074,7 @@
       </c>
       <c r="S15" s="4"/>
       <c r="T15" s="16"/>
-      <c r="U15" s="72"/>
+      <c r="U15" s="80"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -11120,7 +11131,7 @@
       </c>
       <c r="S16" s="4"/>
       <c r="T16" s="16"/>
-      <c r="U16" s="73"/>
+      <c r="U16" s="81"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -11411,7 +11422,7 @@
       </c>
       <c r="V21" s="11">
         <f>COUNTIF($Q$6:$Q$51,"PC")</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W21" s="16"/>
     </row>
@@ -11618,7 +11629,7 @@
       </c>
       <c r="V27" s="11">
         <f>COUNTIF($R$6:$R$51,"*GSM*")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W27" s="16"/>
     </row>
@@ -11938,7 +11949,7 @@
       </c>
       <c r="V37" s="11">
         <f>SUM(V26:V36)</f>
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="W37" s="16"/>
     </row>
@@ -12522,6 +12533,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -12533,13 +12551,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -12583,43 +12594,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="77" t="s">
+      <c r="A1" s="72" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
-      <c r="F1" s="77"/>
-      <c r="G1" s="77"/>
-      <c r="H1" s="77"/>
-      <c r="I1" s="77"/>
-      <c r="J1" s="77"/>
-      <c r="K1" s="77"/>
-      <c r="L1" s="77"/>
-      <c r="M1" s="77"/>
-      <c r="N1" s="77"/>
-      <c r="O1" s="77"/>
-      <c r="P1" s="77"/>
-      <c r="Q1" s="77"/>
-      <c r="R1" s="77"/>
-      <c r="S1" s="77"/>
-      <c r="T1" s="77"/>
-      <c r="U1" s="77"/>
-      <c r="V1" s="77"/>
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="72"/>
+      <c r="H1" s="72"/>
+      <c r="I1" s="72"/>
+      <c r="J1" s="72"/>
+      <c r="K1" s="72"/>
+      <c r="L1" s="72"/>
+      <c r="M1" s="72"/>
+      <c r="N1" s="72"/>
+      <c r="O1" s="72"/>
+      <c r="P1" s="72"/>
+      <c r="Q1" s="72"/>
+      <c r="R1" s="72"/>
+      <c r="S1" s="72"/>
+      <c r="T1" s="72"/>
+      <c r="U1" s="72"/>
+      <c r="V1" s="72"/>
       <c r="W1" s="55"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="78" t="s">
+      <c r="A2" s="73" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="79"/>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="80" t="s">
+      <c r="B2" s="74"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="75" t="s">
         <v>61</v>
       </c>
-      <c r="F2" s="80"/>
+      <c r="F2" s="75"/>
       <c r="G2" s="6"/>
       <c r="H2" s="24"/>
       <c r="I2" s="24"/>
@@ -12664,58 +12675,58 @@
       <c r="W3" s="30"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="81" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="75" t="s">
+      <c r="A4" s="76" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="71" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="75"/>
-      <c r="D4" s="75"/>
-      <c r="E4" s="75"/>
-      <c r="F4" s="75"/>
-      <c r="G4" s="75"/>
-      <c r="H4" s="75"/>
-      <c r="I4" s="75"/>
-      <c r="J4" s="75" t="s">
+      <c r="C4" s="71"/>
+      <c r="D4" s="71"/>
+      <c r="E4" s="71"/>
+      <c r="F4" s="71"/>
+      <c r="G4" s="71"/>
+      <c r="H4" s="71"/>
+      <c r="I4" s="71"/>
+      <c r="J4" s="71" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="75" t="s">
+      <c r="K4" s="71" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="75"/>
-      <c r="M4" s="82" t="s">
+      <c r="L4" s="71"/>
+      <c r="M4" s="77" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="82" t="s">
+      <c r="N4" s="77" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="75" t="s">
+      <c r="O4" s="71" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="74" t="s">
+      <c r="P4" s="82" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="75" t="s">
+      <c r="Q4" s="71" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="75" t="s">
+      <c r="R4" s="71" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="76" t="s">
+      <c r="S4" s="83" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="30"/>
-      <c r="U4" s="75" t="s">
+      <c r="U4" s="71" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="75" t="s">
+      <c r="V4" s="71" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="56"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="81"/>
+      <c r="A5" s="76"/>
       <c r="B5" s="50" t="s">
         <v>1</v>
       </c>
@@ -12740,23 +12751,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="75"/>
+      <c r="J5" s="71"/>
       <c r="K5" s="50" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="83"/>
-      <c r="N5" s="83"/>
-      <c r="O5" s="75"/>
-      <c r="P5" s="74"/>
-      <c r="Q5" s="75"/>
-      <c r="R5" s="75"/>
-      <c r="S5" s="76"/>
+      <c r="M5" s="78"/>
+      <c r="N5" s="78"/>
+      <c r="O5" s="71"/>
+      <c r="P5" s="82"/>
+      <c r="Q5" s="71"/>
+      <c r="R5" s="71"/>
+      <c r="S5" s="83"/>
       <c r="T5" s="30"/>
-      <c r="U5" s="75"/>
-      <c r="V5" s="75"/>
+      <c r="U5" s="71"/>
+      <c r="V5" s="71"/>
       <c r="W5" s="56"/>
     </row>
     <row r="6" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -12808,7 +12819,7 @@
       </c>
       <c r="S6" s="4"/>
       <c r="T6" s="49"/>
-      <c r="U6" s="71" t="s">
+      <c r="U6" s="79" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -12839,7 +12850,7 @@
       <c r="R7" s="43"/>
       <c r="S7" s="4"/>
       <c r="T7" s="49"/>
-      <c r="U7" s="72"/>
+      <c r="U7" s="80"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -12868,7 +12879,7 @@
       <c r="R8" s="43"/>
       <c r="S8" s="4"/>
       <c r="T8" s="49"/>
-      <c r="U8" s="72"/>
+      <c r="U8" s="80"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -12897,7 +12908,7 @@
       <c r="R9" s="43"/>
       <c r="S9" s="4"/>
       <c r="T9" s="49"/>
-      <c r="U9" s="72"/>
+      <c r="U9" s="80"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -12926,7 +12937,7 @@
       <c r="R10" s="43"/>
       <c r="S10" s="4"/>
       <c r="T10" s="49"/>
-      <c r="U10" s="72"/>
+      <c r="U10" s="80"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -12955,7 +12966,7 @@
       <c r="R11" s="43"/>
       <c r="S11" s="4"/>
       <c r="T11" s="49"/>
-      <c r="U11" s="72"/>
+      <c r="U11" s="80"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -12984,7 +12995,7 @@
       <c r="R12" s="43"/>
       <c r="S12" s="4"/>
       <c r="T12" s="49"/>
-      <c r="U12" s="71" t="s">
+      <c r="U12" s="79" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -13015,7 +13026,7 @@
       <c r="R13" s="11"/>
       <c r="S13" s="4"/>
       <c r="T13" s="49"/>
-      <c r="U13" s="72"/>
+      <c r="U13" s="80"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -13044,7 +13055,7 @@
       <c r="R14" s="43"/>
       <c r="S14" s="4"/>
       <c r="T14" s="49"/>
-      <c r="U14" s="72"/>
+      <c r="U14" s="80"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -13073,7 +13084,7 @@
       <c r="R15" s="43"/>
       <c r="S15" s="4"/>
       <c r="T15" s="16"/>
-      <c r="U15" s="72"/>
+      <c r="U15" s="80"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -13102,7 +13113,7 @@
       <c r="R16" s="43"/>
       <c r="S16" s="4"/>
       <c r="T16" s="16"/>
-      <c r="U16" s="73"/>
+      <c r="U16" s="81"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -14333,13 +14344,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -14351,6 +14355,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -14361,8 +14372,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView showZeros="0" topLeftCell="E1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:S6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -14394,43 +14405,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="77" t="s">
+      <c r="A1" s="72" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
-      <c r="F1" s="77"/>
-      <c r="G1" s="77"/>
-      <c r="H1" s="77"/>
-      <c r="I1" s="77"/>
-      <c r="J1" s="77"/>
-      <c r="K1" s="77"/>
-      <c r="L1" s="77"/>
-      <c r="M1" s="77"/>
-      <c r="N1" s="77"/>
-      <c r="O1" s="77"/>
-      <c r="P1" s="77"/>
-      <c r="Q1" s="77"/>
-      <c r="R1" s="77"/>
-      <c r="S1" s="77"/>
-      <c r="T1" s="77"/>
-      <c r="U1" s="77"/>
-      <c r="V1" s="77"/>
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="72"/>
+      <c r="H1" s="72"/>
+      <c r="I1" s="72"/>
+      <c r="J1" s="72"/>
+      <c r="K1" s="72"/>
+      <c r="L1" s="72"/>
+      <c r="M1" s="72"/>
+      <c r="N1" s="72"/>
+      <c r="O1" s="72"/>
+      <c r="P1" s="72"/>
+      <c r="Q1" s="72"/>
+      <c r="R1" s="72"/>
+      <c r="S1" s="72"/>
+      <c r="T1" s="72"/>
+      <c r="U1" s="72"/>
+      <c r="V1" s="72"/>
       <c r="W1" s="55"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="78" t="s">
+      <c r="A2" s="73" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="79"/>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="80" t="s">
+      <c r="B2" s="74"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="75" t="s">
         <v>61</v>
       </c>
-      <c r="F2" s="80"/>
+      <c r="F2" s="75"/>
       <c r="G2" s="6"/>
       <c r="H2" s="24"/>
       <c r="I2" s="24"/>
@@ -14475,58 +14486,58 @@
       <c r="W3" s="30"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="81" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="75" t="s">
+      <c r="A4" s="76" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="71" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="75"/>
-      <c r="D4" s="75"/>
-      <c r="E4" s="75"/>
-      <c r="F4" s="75"/>
-      <c r="G4" s="75"/>
-      <c r="H4" s="75"/>
-      <c r="I4" s="75"/>
-      <c r="J4" s="75" t="s">
+      <c r="C4" s="71"/>
+      <c r="D4" s="71"/>
+      <c r="E4" s="71"/>
+      <c r="F4" s="71"/>
+      <c r="G4" s="71"/>
+      <c r="H4" s="71"/>
+      <c r="I4" s="71"/>
+      <c r="J4" s="71" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="75" t="s">
+      <c r="K4" s="71" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="75"/>
-      <c r="M4" s="82" t="s">
+      <c r="L4" s="71"/>
+      <c r="M4" s="77" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="82" t="s">
+      <c r="N4" s="77" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="75" t="s">
+      <c r="O4" s="71" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="74" t="s">
+      <c r="P4" s="82" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="75" t="s">
+      <c r="Q4" s="71" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="75" t="s">
+      <c r="R4" s="71" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="76" t="s">
+      <c r="S4" s="83" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="30"/>
-      <c r="U4" s="75" t="s">
+      <c r="U4" s="71" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="75" t="s">
+      <c r="V4" s="71" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="56"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="81"/>
+      <c r="A5" s="76"/>
       <c r="B5" s="53" t="s">
         <v>1</v>
       </c>
@@ -14551,23 +14562,23 @@
       <c r="I5" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="75"/>
+      <c r="J5" s="71"/>
       <c r="K5" s="53" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="83"/>
-      <c r="N5" s="83"/>
-      <c r="O5" s="75"/>
-      <c r="P5" s="74"/>
-      <c r="Q5" s="75"/>
-      <c r="R5" s="75"/>
-      <c r="S5" s="76"/>
+      <c r="M5" s="78"/>
+      <c r="N5" s="78"/>
+      <c r="O5" s="71"/>
+      <c r="P5" s="82"/>
+      <c r="Q5" s="71"/>
+      <c r="R5" s="71"/>
+      <c r="S5" s="83"/>
       <c r="T5" s="30"/>
-      <c r="U5" s="75"/>
-      <c r="V5" s="75"/>
+      <c r="U5" s="71"/>
+      <c r="V5" s="71"/>
       <c r="W5" s="56"/>
     </row>
     <row r="6" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -14625,7 +14636,7 @@
       </c>
       <c r="S6" s="4"/>
       <c r="T6" s="52"/>
-      <c r="U6" s="71" t="s">
+      <c r="U6" s="79" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -14656,7 +14667,7 @@
       <c r="R7" s="43"/>
       <c r="S7" s="4"/>
       <c r="T7" s="52"/>
-      <c r="U7" s="72"/>
+      <c r="U7" s="80"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -14685,7 +14696,7 @@
       <c r="R8" s="43"/>
       <c r="S8" s="4"/>
       <c r="T8" s="52"/>
-      <c r="U8" s="72"/>
+      <c r="U8" s="80"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -14714,7 +14725,7 @@
       <c r="R9" s="43"/>
       <c r="S9" s="4"/>
       <c r="T9" s="52"/>
-      <c r="U9" s="72"/>
+      <c r="U9" s="80"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -14743,7 +14754,7 @@
       <c r="R10" s="43"/>
       <c r="S10" s="4"/>
       <c r="T10" s="52"/>
-      <c r="U10" s="72"/>
+      <c r="U10" s="80"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -14772,7 +14783,7 @@
       <c r="R11" s="43"/>
       <c r="S11" s="4"/>
       <c r="T11" s="52"/>
-      <c r="U11" s="72"/>
+      <c r="U11" s="80"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -14801,7 +14812,7 @@
       <c r="R12" s="43"/>
       <c r="S12" s="4"/>
       <c r="T12" s="52"/>
-      <c r="U12" s="71" t="s">
+      <c r="U12" s="79" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -14832,7 +14843,7 @@
       <c r="R13" s="11"/>
       <c r="S13" s="4"/>
       <c r="T13" s="52"/>
-      <c r="U13" s="72"/>
+      <c r="U13" s="80"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -14861,7 +14872,7 @@
       <c r="R14" s="43"/>
       <c r="S14" s="4"/>
       <c r="T14" s="52"/>
-      <c r="U14" s="72"/>
+      <c r="U14" s="80"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -14890,7 +14901,7 @@
       <c r="R15" s="43"/>
       <c r="S15" s="4"/>
       <c r="T15" s="16"/>
-      <c r="U15" s="72"/>
+      <c r="U15" s="80"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -14919,7 +14930,7 @@
       <c r="R16" s="43"/>
       <c r="S16" s="4"/>
       <c r="T16" s="16"/>
-      <c r="U16" s="73"/>
+      <c r="U16" s="81"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -16150,6 +16161,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -16161,13 +16179,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -16178,8 +16189,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="J33" sqref="J33"/>
+    <sheetView showZeros="0" topLeftCell="E1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:S6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -16211,43 +16222,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="77" t="s">
+      <c r="A1" s="72" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
-      <c r="F1" s="77"/>
-      <c r="G1" s="77"/>
-      <c r="H1" s="77"/>
-      <c r="I1" s="77"/>
-      <c r="J1" s="77"/>
-      <c r="K1" s="77"/>
-      <c r="L1" s="77"/>
-      <c r="M1" s="77"/>
-      <c r="N1" s="77"/>
-      <c r="O1" s="77"/>
-      <c r="P1" s="77"/>
-      <c r="Q1" s="77"/>
-      <c r="R1" s="77"/>
-      <c r="S1" s="77"/>
-      <c r="T1" s="77"/>
-      <c r="U1" s="77"/>
-      <c r="V1" s="77"/>
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="72"/>
+      <c r="H1" s="72"/>
+      <c r="I1" s="72"/>
+      <c r="J1" s="72"/>
+      <c r="K1" s="72"/>
+      <c r="L1" s="72"/>
+      <c r="M1" s="72"/>
+      <c r="N1" s="72"/>
+      <c r="O1" s="72"/>
+      <c r="P1" s="72"/>
+      <c r="Q1" s="72"/>
+      <c r="R1" s="72"/>
+      <c r="S1" s="72"/>
+      <c r="T1" s="72"/>
+      <c r="U1" s="72"/>
+      <c r="V1" s="72"/>
       <c r="W1" s="55"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="78" t="s">
+      <c r="A2" s="73" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="79"/>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="80" t="s">
+      <c r="B2" s="74"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="75" t="s">
         <v>61</v>
       </c>
-      <c r="F2" s="80"/>
+      <c r="F2" s="75"/>
       <c r="G2" s="6"/>
       <c r="H2" s="24"/>
       <c r="I2" s="24"/>
@@ -16292,58 +16303,58 @@
       <c r="W3" s="30"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="81" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="75" t="s">
+      <c r="A4" s="76" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="71" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="75"/>
-      <c r="D4" s="75"/>
-      <c r="E4" s="75"/>
-      <c r="F4" s="75"/>
-      <c r="G4" s="75"/>
-      <c r="H4" s="75"/>
-      <c r="I4" s="75"/>
-      <c r="J4" s="75" t="s">
+      <c r="C4" s="71"/>
+      <c r="D4" s="71"/>
+      <c r="E4" s="71"/>
+      <c r="F4" s="71"/>
+      <c r="G4" s="71"/>
+      <c r="H4" s="71"/>
+      <c r="I4" s="71"/>
+      <c r="J4" s="71" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="75" t="s">
+      <c r="K4" s="71" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="75"/>
-      <c r="M4" s="82" t="s">
+      <c r="L4" s="71"/>
+      <c r="M4" s="77" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="82" t="s">
+      <c r="N4" s="77" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="75" t="s">
+      <c r="O4" s="71" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="74" t="s">
+      <c r="P4" s="82" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="75" t="s">
+      <c r="Q4" s="71" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="75" t="s">
+      <c r="R4" s="71" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="76" t="s">
+      <c r="S4" s="83" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="30"/>
-      <c r="U4" s="75" t="s">
+      <c r="U4" s="71" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="75" t="s">
+      <c r="V4" s="71" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="56"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="81"/>
+      <c r="A5" s="76"/>
       <c r="B5" s="50" t="s">
         <v>1</v>
       </c>
@@ -16368,23 +16379,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="75"/>
+      <c r="J5" s="71"/>
       <c r="K5" s="50" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="83"/>
-      <c r="N5" s="83"/>
-      <c r="O5" s="75"/>
-      <c r="P5" s="74"/>
-      <c r="Q5" s="75"/>
-      <c r="R5" s="75"/>
-      <c r="S5" s="76"/>
+      <c r="M5" s="78"/>
+      <c r="N5" s="78"/>
+      <c r="O5" s="71"/>
+      <c r="P5" s="82"/>
+      <c r="Q5" s="71"/>
+      <c r="R5" s="71"/>
+      <c r="S5" s="83"/>
       <c r="T5" s="30"/>
-      <c r="U5" s="75"/>
-      <c r="V5" s="75"/>
+      <c r="U5" s="71"/>
+      <c r="V5" s="71"/>
       <c r="W5" s="56"/>
     </row>
     <row r="6" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -16407,7 +16418,9 @@
       <c r="G6" s="43" t="s">
         <v>64</v>
       </c>
-      <c r="H6" s="43"/>
+      <c r="H6" s="43" t="s">
+        <v>126</v>
+      </c>
       <c r="I6" s="60" t="s">
         <v>75</v>
       </c>
@@ -16420,9 +16433,15 @@
       <c r="L6" s="45" t="s">
         <v>76</v>
       </c>
-      <c r="M6" s="1"/>
-      <c r="N6" s="47"/>
-      <c r="O6" s="45"/>
+      <c r="M6" s="45" t="s">
+        <v>124</v>
+      </c>
+      <c r="N6" s="3">
+        <v>220000</v>
+      </c>
+      <c r="O6" s="45" t="s">
+        <v>87</v>
+      </c>
       <c r="P6" s="45" t="s">
         <v>88</v>
       </c>
@@ -16434,7 +16453,7 @@
       </c>
       <c r="S6" s="4"/>
       <c r="T6" s="49"/>
-      <c r="U6" s="71" t="s">
+      <c r="U6" s="79" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -16491,7 +16510,7 @@
       </c>
       <c r="S7" s="4"/>
       <c r="T7" s="49"/>
-      <c r="U7" s="72"/>
+      <c r="U7" s="80"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -16548,7 +16567,7 @@
       </c>
       <c r="S8" s="4"/>
       <c r="T8" s="49"/>
-      <c r="U8" s="72"/>
+      <c r="U8" s="80"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -16605,7 +16624,7 @@
       </c>
       <c r="S9" s="4"/>
       <c r="T9" s="49"/>
-      <c r="U9" s="72"/>
+      <c r="U9" s="80"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -16652,7 +16671,7 @@
       <c r="R10" s="43"/>
       <c r="S10" s="4"/>
       <c r="T10" s="49"/>
-      <c r="U10" s="72"/>
+      <c r="U10" s="80"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -16699,7 +16718,7 @@
       <c r="R11" s="43"/>
       <c r="S11" s="4"/>
       <c r="T11" s="49"/>
-      <c r="U11" s="72"/>
+      <c r="U11" s="80"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -16756,7 +16775,7 @@
       </c>
       <c r="S12" s="4"/>
       <c r="T12" s="49"/>
-      <c r="U12" s="71" t="s">
+      <c r="U12" s="79" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -16813,7 +16832,7 @@
       </c>
       <c r="S13" s="4"/>
       <c r="T13" s="49"/>
-      <c r="U13" s="72"/>
+      <c r="U13" s="80"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -16870,7 +16889,7 @@
       </c>
       <c r="S14" s="4"/>
       <c r="T14" s="49"/>
-      <c r="U14" s="72"/>
+      <c r="U14" s="80"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -16911,7 +16930,7 @@
       <c r="R15" s="11"/>
       <c r="S15" s="4"/>
       <c r="T15" s="16"/>
-      <c r="U15" s="72"/>
+      <c r="U15" s="80"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -16952,7 +16971,7 @@
       <c r="R16" s="43"/>
       <c r="S16" s="4"/>
       <c r="T16" s="16"/>
-      <c r="U16" s="73"/>
+      <c r="U16" s="81"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -18529,13 +18548,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -18547,6 +18559,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang2/02.XuLyBH/XLBH2102_Techglobal.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang2/02.XuLyBH/XLBH2102_Techglobal.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\VNET\5. WS\1. Bộ phận bảo hành\1. Thực hiện sửa chữa bảo hành\nam2021\Thang2\02.XuLyBH\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PhongBaoHanh\VNET\5. WS\1. Bộ phận bảo hành\1. Thực hiện sửa chữa bảo hành\nam2021\Thang2\02.XuLyBH\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1111" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1111" uniqueCount="130">
   <si>
     <t>STT</t>
   </si>
@@ -414,9 +414,6 @@
     <t>KS</t>
   </si>
   <si>
-    <t>giữ lại chờ lk thay thế</t>
-  </si>
-  <si>
     <t>Thay diode chống quá áp, nâng cấp FW cho thiết bị</t>
   </si>
   <si>
@@ -444,7 +441,7 @@
     <t>Thiết bị không có lk thay thế</t>
   </si>
   <si>
-    <t>GL</t>
+    <t>Nạp lại FW module</t>
   </si>
 </sst>
 </file>
@@ -1441,7 +1438,7 @@
         <v>97</v>
       </c>
       <c r="M6" s="45" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="N6" s="47">
         <v>10000</v>
@@ -1489,7 +1486,7 @@
         <v>64</v>
       </c>
       <c r="H7" s="43" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I7" s="60" t="s">
         <v>96</v>
@@ -1504,7 +1501,7 @@
         <v>97</v>
       </c>
       <c r="M7" s="45" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="N7" s="3">
         <v>220000</v>
@@ -3276,7 +3273,7 @@
       </c>
       <c r="H6" s="43"/>
       <c r="I6" s="59" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="J6" s="45"/>
       <c r="K6" s="48"/>
@@ -3284,7 +3281,7 @@
         <v>78</v>
       </c>
       <c r="M6" s="45" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="N6" s="47"/>
       <c r="O6" s="45" t="s">
@@ -5089,7 +5086,7 @@
       <c r="K6" s="48"/>
       <c r="L6" s="45"/>
       <c r="M6" s="45" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="N6" s="47"/>
       <c r="O6" s="45" t="s">
@@ -6900,7 +6897,7 @@
         <v>103</v>
       </c>
       <c r="M6" s="45" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="N6" s="47"/>
       <c r="O6" s="45" t="s">
@@ -8729,7 +8726,7 @@
       <c r="K6" s="48"/>
       <c r="L6" s="45"/>
       <c r="M6" s="45" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="N6" s="47">
         <v>100000</v>
@@ -10301,8 +10298,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="N29" sqref="N29"/>
+    <sheetView showZeros="0" tabSelected="1" topLeftCell="D1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="P30" sqref="P30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -10634,7 +10631,7 @@
         <v>44253</v>
       </c>
       <c r="C8" s="42">
-        <v>44264</v>
+        <v>44327</v>
       </c>
       <c r="D8" s="43" t="s">
         <v>69</v>
@@ -10660,20 +10657,20 @@
       </c>
       <c r="L8" s="45"/>
       <c r="M8" s="45" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="N8" s="1"/>
       <c r="O8" s="45" t="s">
-        <v>130</v>
+        <v>87</v>
       </c>
       <c r="P8" s="1" t="s">
         <v>88</v>
       </c>
       <c r="Q8" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="R8" s="43" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="S8" s="4"/>
       <c r="T8" s="61"/>
@@ -11362,7 +11359,7 @@
       </c>
       <c r="V20" s="11">
         <f>COUNTIF($Q$6:$Q$51,"PM")</f>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="W20" s="16"/>
     </row>
@@ -11422,7 +11419,7 @@
       </c>
       <c r="V21" s="11">
         <f>COUNTIF($Q$6:$Q$51,"PC")</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W21" s="16"/>
     </row>
@@ -11629,7 +11626,7 @@
       </c>
       <c r="V27" s="11">
         <f>COUNTIF($R$6:$R$51,"*GSM*")</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W27" s="16"/>
     </row>
@@ -11821,7 +11818,7 @@
       </c>
       <c r="V33" s="11">
         <f>COUNTIF($R$6:$R$51,"*SF*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W33" s="16"/>
     </row>
@@ -14602,7 +14599,7 @@
         <v>64</v>
       </c>
       <c r="H6" s="43" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I6" s="60" t="s">
         <v>75</v>
@@ -14617,7 +14614,7 @@
         <v>76</v>
       </c>
       <c r="M6" s="45" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="N6" s="3">
         <v>220000</v>
@@ -16419,7 +16416,7 @@
         <v>64</v>
       </c>
       <c r="H6" s="43" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I6" s="60" t="s">
         <v>75</v>
@@ -16434,7 +16431,7 @@
         <v>76</v>
       </c>
       <c r="M6" s="45" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="N6" s="3">
         <v>220000</v>
